--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prg\myProjects\GitHub\YahooXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C872212-2CDA-4439-A41A-FC8BFD20172D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29DD641-3821-43B2-8736-6A912A8411D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="5412" windowWidth="34560" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -441,1342 +442,1324 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>3c5a773a-8808-4d45-807f-9ba7aeed6da3</stp>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5eca6909-2b14-42eb-85c9-dc202cab39f7</stp>
+        <tr r="C66" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8554953f-cc67-43ad-b1ce-ce2efe2a625c</stp>
+        <tr r="H18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5574b5f8-f5b6-437e-88e1-f4e6f46f3055</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f4c8946c-1ce2-4ca5-ac1f-1b68886fa9b3</stp>
+        <tr r="C6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6e6b85ba-e357-4236-acea-122eaa66ccde</stp>
+        <tr r="F2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8408e62b-5c65-4785-8853-0e79af5abb1f</stp>
+        <tr r="E8" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>87df233c-ea8c-40d9-a30a-34f093d33963</stp>
+        <tr r="C30" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>7bbb7aef-6456-44ea-8bf9-a4546ab6c0a3</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6032ff8f-17d6-43b2-8442-7a5f3678da4d</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>2993a07b-3120-46d4-859a-134cc7931dba</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>02c8560d-2f6d-428d-b8ac-f47e3eadf51b</stp>
+        <tr r="G4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>cfa232f3-7dc8-44b4-96f2-911a4505db74</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>35cd97f3-2120-4873-8a4d-8a73326d0363</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4a537a2f-7f8d-4a7d-a8e5-440fcddda1f8</stp>
+        <tr r="G6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a1bbf1a3-67a5-493f-a727-e388b4a2829b</stp>
+        <tr r="B16" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f6b10ab6-5ad0-46b8-8d72-1b4c3919fa46</stp>
+        <tr r="D18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>19ca78e6-eef3-4b37-8911-9acba54eeb30</stp>
+        <tr r="D7" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ae603f76-2158-47c3-8b63-8fa2431e95c4</stp>
+        <tr r="C16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>408b3dbf-4b6f-4041-983f-8affb3ab9d8b</stp>
+        <tr r="H9" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>308ab120-b72f-4fac-8e83-deab39434095</stp>
+        <tr r="C8" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>06e4c790-f9e7-4650-9b0c-315363ecc141</stp>
+        <tr r="E5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>abc44849-5dea-497a-ba3a-3d1ee9b9b563</stp>
+        <tr r="C42" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0449fb67-b724-431e-b6c7-fe7c56c9d4fd</stp>
+        <tr r="H6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>dfac1a9c-b445-4d7b-8d87-91ad58a65c28</stp>
+        <tr r="H2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>57c8b7c0-c19a-4abb-85fc-9cdf45528de3</stp>
+        <tr r="J6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5a4cdf7c-7001-4c37-9aa5-c7bcb49157f6</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>505c2f36-ab05-43e1-a6cc-e0cf841fa3f6</stp>
+        <tr r="C71" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6a48444e-ee05-4b92-bacc-8acfef6fb476</stp>
+        <tr r="G18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>cb90ede0-f2b7-4a66-9aca-b6901d30a5a9</stp>
+        <tr r="J8" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>2118247a-380f-4ba6-9be0-ef9430cf0a29</stp>
+        <tr r="G8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6c2e024f-2d37-469d-a0dd-d33d1d7bcfb0</stp>
+        <tr r="C39" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0af656e0-00de-410e-bdac-7cb25e0277b9</stp>
+        <tr r="C59" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>693841ec-8969-4020-81de-0dd18e96174c</stp>
+        <tr r="C15" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>be51d93a-a198-4af5-b939-025ec91f8c75</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e7e7826a-01ca-460d-a452-64dcc0183393</stp>
+        <tr r="H13" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>edbee1b4-c772-4dfc-9908-ef1c7bd372dc</stp>
+        <tr r="C4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>fccd96b1-2ab8-422a-814f-a4567e77403f</stp>
+        <tr r="I2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>dcc60677-df2e-400a-973b-7f70356aecad</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9e769957-de97-494f-8711-2cfa89afbfbf</stp>
+        <tr r="D16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>58aada29-ab3b-4e99-b0b7-a250a1f1b398</stp>
+        <tr r="H8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>2311882a-36b7-4555-a3f9-26b55685a82f</stp>
+        <tr r="C33" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>042daa35-758c-41e7-8f75-cca941a77cb0</stp>
+        <tr r="J7" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>48e8336a-a874-4a17-a1d9-599c23ce8c4e</stp>
+        <tr r="C35" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>58bf7abf-acad-4109-b2b7-f25965c6a485</stp>
+        <tr r="B13" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>dcc06614-4a91-4830-9ef8-5dd004b86791</stp>
+        <tr r="E16" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bbe55bb3-84bb-4dd7-8106-0d9e42575996</stp>
+        <tr r="F18" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3290d03c-4618-4111-a27d-ccf877c3c483</stp>
+        <tr r="B6" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a9996a92-88f0-42e5-8e18-ef3a9b7ef0c8</stp>
+        <tr r="C67" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>931203fc-dcf0-4d66-a789-6fff588e0d45</stp>
+        <tr r="C32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ba1963ff-e16c-4dd1-8cab-376e976127f4</stp>
+        <tr r="C26" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6dbffa04-3eba-4436-91a9-9265ea4aec32</stp>
+        <tr r="F6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4c25d440-bbe1-48c6-af41-57093bb6733c</stp>
+        <tr r="C12" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>512e0751-d55d-4b56-8a43-cf2d35fadba8</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1b78f323-15fe-4454-af7a-a246854805c4</stp>
+        <tr r="G16" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>40fc0e7f-19a9-4d90-a60c-3d26bb6393c4</stp>
+        <tr r="C56" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9cf94b00-796c-41f0-b151-5f4b1ec25af9</stp>
+        <tr r="E13" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>71f46cdd-32a6-48f3-a21c-3a97b728ed08</stp>
+        <tr r="F13" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>fece9a86-7d5f-47bb-a248-4c0a33daad60</stp>
+        <tr r="J4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f709a17a-2d71-450e-8dc8-5f69797563f5</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ba4e6d1b-8dc5-4b73-9627-35ab2ba1d531</stp>
+        <tr r="C31" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>299b424c-3616-461d-a18e-195d4d2c0ff3</stp>
+        <tr r="H17" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b18f4c15-6b64-4781-b1b5-9c74b32d28b0</stp>
+        <tr r="C48" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bd6e3e5c-a8b4-47a4-8768-0855f1618467</stp>
+        <tr r="D6" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b8e598e8-38c5-4f1c-a1eb-08199fbeb494</stp>
+        <tr r="B9" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d486f83c-4377-4ebf-b7de-309106bb2ce1</stp>
+        <tr r="C38" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b239ecec-3a1c-4e83-9d69-ad29afd5694a</stp>
+        <tr r="C36" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4e255b31-67eb-45d8-aac3-455ba540a79a</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>52fd6ba4-01b4-4979-be3b-5b948fd313f8</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9ef2ab35-19ee-43a8-862f-6ea1a443d00d</stp>
+        <tr r="C23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a7c11460-903b-4e1e-a163-89be650238c2</stp>
+        <tr r="E4" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8f5dfb61-147d-4b64-9f89-bb8210f98609</stp>
+        <tr r="E17" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>452415b1-2b01-4fa6-a625-48d59fb4428a</stp>
+        <tr r="D9" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>019b6751-bc3b-468d-83e8-f01c276d38c0</stp>
+        <tr r="C68" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>7566a80d-3193-4302-96ca-5c042dafa2de</stp>
+        <tr r="G15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>62a8c6f2-19c8-4ac4-b315-f82482fa6ae5</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0711f750-32a4-4914-8db0-a139a82e9703</stp>
+        <tr r="C61" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a8146701-f694-40be-a900-0c2b2ee47ab3</stp>
+        <tr r="C2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4413694f-8ad9-472b-987b-280caea6bf81</stp>
+        <tr r="C9" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>db3221c5-30e3-4208-b7af-72418edda58d</stp>
+        <tr r="C63" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bc7c5be4-b8fb-46b2-b1a9-e99706536d7c</stp>
+        <tr r="B17" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>cd5336b7-9cf4-4eb3-85aa-a49b0b4fd49b</stp>
+        <tr r="C18" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5f09bb99-d309-4230-824e-df4edc2f99ab</stp>
+        <tr r="E6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>47268ebb-d990-4267-bddc-e8dc270f8217</stp>
+        <tr r="C28" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>318d8169-5714-4fc5-aa9b-474bea3dd759</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3a5e153a-8963-452e-9622-e8e8c8d66cf9</stp>
         <tr r="F16" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>498662c1-40ec-486e-afc0-a77ed2a33164</stp>
-        <tr r="C42" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a80ab1b9-dfd2-463d-8d57-db6280c35c2a</stp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9beefe8d-968b-4d52-83f9-cd4563b2beab</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8cabe118-d88b-477f-9382-033d3cd26a0d</stp>
+        <tr r="D8" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>7f938177-2242-4ca4-a978-627705678880</stp>
+        <tr r="H12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b7785070-20ef-457d-976e-5edec8911c27</stp>
+        <tr r="C47" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>55a62220-30a7-4d6c-8b3f-093d124c4673</stp>
+        <tr r="J15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>39c06059-682c-406c-9605-299f48aed441</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d8b9bed3-bbb9-4cb1-a671-74f08047cd18</stp>
         <tr r="C4" s="1"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>e942e2e2-b3e3-4bb6-8bac-072fcf0b5bd9</stp>
-        <tr r="H9" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0d0f0e58-4b33-4825-918c-2c7f5a43d68a</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0f1bbf1c-97a4-4b0e-b117-bf9a8171664b</stp>
-        <tr r="C12" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>63a096f3-cf7b-4208-8d0a-1a58af42ae48</stp>
-        <tr r="H13" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>20c64931-dd8b-40a3-af5f-0db6b35bd047</stp>
-        <tr r="C36" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a0d5d452-9fa1-464a-8161-916016c45acf</stp>
-        <tr r="D6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b870bf3c-d053-421b-be8c-a079288bbd00</stp>
-        <tr r="C47" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>aa44e359-8d09-4c60-80a2-709bd0879756</stp>
+        <stp>6b3b7d0e-7de4-4110-a8e1-43c4771fa953</stp>
+        <tr r="C45" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c8d7a002-bb06-415d-a07f-3c16f61bd5bd</stp>
+        <tr r="J17" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a8923975-d2c9-4f90-bb96-9a68103bbdb9</stp>
+        <tr r="D13" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e9effa8e-35a1-4d44-aaa6-1f5003dd72cb</stp>
+        <tr r="C27" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>145a5d41-7481-493a-b210-27ce41f98754</stp>
+        <tr r="C69" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>54a8ddc1-c41b-488a-9352-12d065c72fd6</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d812fe06-428b-4f33-98da-ac5d7b61397f</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ba37ba74-1b74-4915-b223-bea2f75e4bab</stp>
+        <tr r="B4" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>98c5c20c-89d8-4b3a-b393-c0e5581c4e1e</stp>
+        <tr r="G2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>11d093ec-3ade-499d-89e4-50ddb61f9198</stp>
+        <tr r="C37" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>88ed382f-35ae-40ef-92c6-52d0f3dda0af</stp>
+        <tr r="J16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>05d946d0-6bcd-4c62-a35a-0185a2430695</stp>
+        <tr r="C44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>59843021-018f-4322-b665-856af7e4c888</stp>
+        <tr r="C53" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8ad85340-818f-4f93-80eb-882ad22991ea</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b6958368-29a9-4f6f-bcb0-6a699ca07627</stp>
+        <tr r="C41" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c9785852-ad4b-4fb7-81a3-c51d96d66122</stp>
+        <tr r="C25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>edc43225-2b77-4177-9abb-7a645b5de63f</stp>
+        <tr r="D2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9f83db2c-b5c4-40ea-be48-9143d5dc2371</stp>
+        <tr r="F8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c5287edc-665c-4114-9fca-4c454a026617</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b20a7896-aecf-4c1a-a784-94130e9c0fdc</stp>
+        <tr r="G25" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>83b0242f-6f47-4b50-bd1f-3d03653dadee</stp>
+        <tr r="G12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b4174487-e7a0-4a13-b16f-0716ac260117</stp>
+        <tr r="B5" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>57e74456-53fc-4b33-ba86-48141e722e9d</stp>
+        <tr r="E15" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>30d68424-032f-4e52-9bfd-207133305fa6</stp>
+        <tr r="C34" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9ee2d0ff-4f20-4676-8437-b41976779c01</stp>
+        <tr r="J12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3caf7ca6-012f-4c8e-8ddc-c986c3b9a919</stp>
+        <tr r="H5" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>94d80b90-ac2f-4ca2-9cf6-1859da4ff82f</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b52e8821-1517-464d-818e-59156c9498c9</stp>
+        <tr r="B8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1645421e-b974-40a1-9dbd-6e7d9a3c13ff</stp>
+        <tr r="I5" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>2b875103-ec37-42f6-a409-62ec401de00d</stp>
+        <tr r="B18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0df7a2e3-dabd-46b0-9ca1-7d2a10f6654e</stp>
         <tr r="D4" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d25d9a88-0c9f-47be-90d1-deed30e9a812</stp>
-        <tr r="C69" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>97840451-5ea7-45bb-989e-2a52052856c8</stp>
-        <tr r="C56" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c9f245aa-8e03-453c-b4bb-d1c7c83d1379</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bb8d1151-e800-41b0-9abd-b9e7cffd9410</stp>
-        <tr r="B8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>642fbed6-ea03-455b-9b26-78d43dd967b9</stp>
-        <tr r="C44" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6fb8c843-3f70-4084-b181-190b3f17309f</stp>
-        <tr r="C9" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9d86009c-91b6-408c-be36-beb12277cdd1</stp>
-        <tr r="G15" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7d787b43-eaf8-4ec3-898f-57499f5af753</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>32a703db-9609-43cc-9c1d-ab0f654703a3</stp>
-        <tr r="C25" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5c32f9bd-3882-4aec-9f14-06447f1aee32</stp>
-        <tr r="I5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>93fde62b-d575-4f0f-8863-7e79ec21192a</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>545f101e-850e-41c5-ad07-2d2e7ad4824d</stp>
-        <tr r="I2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e0392b14-c0e3-49b9-bcfe-7233c66b5d4a</stp>
-        <tr r="G18" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>07da6091-dfa7-4055-b305-482bf6890fd3</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>91daba4f-0f21-462d-9bac-f0e2d8614cee</stp>
-        <tr r="B17" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>dcd72631-cc95-427f-ae9f-aa9665a1541f</stp>
-        <tr r="B4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>3dcfb814-1b1c-4a22-a07d-443ae1de4d42</stp>
-        <tr r="J4" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>96da9e1b-e131-4aab-9a7b-8088c8a99b22</stp>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>2c9a4f12-406b-40b5-a0ce-c5b08f6f36fc</stp>
+        <tr r="E7" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f79ad428-5e82-4877-a590-4b057930ea66</stp>
+        <tr r="J13" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d0a62fcd-2bd4-4f6a-887e-cd0c8cb7b72e</stp>
+        <tr r="J9" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4573a135-6065-4300-8698-1dc8f91e7d82</stp>
+        <tr r="E9" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>93af0cd4-76ed-450b-83c6-128d42fa8ede</stp>
+        <tr r="B7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8d727dce-0e81-4db4-a1a6-0e0e6148e270</stp>
+        <tr r="F4" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1ff5561e-3697-4c94-922a-18f7bfc13837</stp>
+        <tr r="C17" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>76ae1d39-c6fa-4054-b270-87d68e06ccf9</stp>
+        <tr r="F5" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1b33daae-17aa-4050-9689-328492c969fa</stp>
+        <tr r="J18" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c5a5e754-dbf0-49d9-b540-313328e6cba7</stp>
+        <tr r="G26" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e00cef36-d16b-4165-bbfd-77f24c3b752d</stp>
+        <tr r="D12" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9c0ad3e3-45f7-42b2-a2ef-42f6e9ee8847</stp>
+        <tr r="H4" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>22e46633-a1d7-47f1-9285-fe5090a98944</stp>
+        <tr r="C54" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f7d50028-942e-480d-92a1-b950835a118e</stp>
+        <tr r="B12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e0f4257c-5ecd-43d4-ace0-94a6f170fec2</stp>
+        <tr r="C62" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>badd9aa3-b1ec-4f28-a803-49f9917bfcd4</stp>
+        <tr r="C13" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ebbb1cf1-8732-4f14-8c46-2939bee2ed71</stp>
+        <tr r="H7" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>fbfd3556-fa9b-4478-a0d4-49c2dce016cc</stp>
+        <tr r="B3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5d964104-8a34-42c6-b143-1a1d472937b6</stp>
+        <tr r="C43" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bf6d7d93-eb54-40c1-8e58-b68959e45b2a</stp>
+        <tr r="G13" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6f9bda20-1496-4259-afc9-027efdf024b6</stp>
+        <tr r="F12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6403b9ac-f278-444c-8d75-21f35136b15b</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6ed47277-bd12-483e-ac38-fa7a553a79f6</stp>
+        <tr r="G17" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c822f6b9-237e-4804-997b-7f187eb08240</stp>
+        <tr r="H16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>cd51a7e2-3641-487d-9f45-6d905c2258d7</stp>
+        <tr r="C24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5f359da3-b35e-489f-a35d-1d119afd59fb</stp>
+        <tr r="F15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>69f2f4de-38a0-461b-af3f-e9191ad36892</stp>
         <tr r="D15" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9c34d901-3f0d-4e57-8d7b-00c9d3cb7cfa</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9e23f576-85a6-4818-a596-e2f2e0c5bc9c</stp>
-        <tr r="F2" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d03d9b09-6703-4387-8bd4-f62750a719c2</stp>
-        <tr r="H2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f49af574-d386-4bcc-b79d-0f97e2d06c43</stp>
-        <tr r="E6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e7da28d9-771d-410f-a69a-74b209ae7bf7</stp>
-        <tr r="G2" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>27f1a5c6-81b6-4064-8f0e-93407de64ae3</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c245c87a-efed-41eb-ae39-ac80b069de5e</stp>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c5f94c20-c9d7-46b4-a943-392c6b223a28</stp>
+        <tr r="C58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bbf13862-161e-42cd-9c01-25c9728307ec</stp>
+        <tr r="C57" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>99d167d5-6a0d-4581-8cbb-f321c676bab0</stp>
+        <tr r="H15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>7363c905-0a66-4971-8d7e-aa576c2011f1</stp>
         <tr r="E2" s="2"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>6e5ac973-47ea-493a-b8e5-15dd44cd3ef0</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0300ef55-9bb8-44c6-87eb-ede37c17e39d</stp>
-        <tr r="J18" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>79d36ad0-4674-4cb0-b4a0-87e5a412552a</stp>
-        <tr r="C30" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>155ab037-a904-4018-aa10-8d8b715223a3</stp>
+        <stp>d197b029-73e6-4dec-9e16-58b0109aac6b</stp>
+        <tr r="C29" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8462b8f3-0323-4655-8814-f4ab01990123</stp>
+        <tr r="E12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4e84c386-d345-4258-9fd9-fba3194909ea</stp>
+        <tr r="C60" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>91b3c5a2-c90f-49f6-835d-b80c267ddfc6</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>be2b83dc-5415-4eae-adea-b31ad9cbfedf</stp>
+        <tr r="C65" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b8a19f73-d256-4ba2-85d9-9122d4f3be9c</stp>
+        <tr r="F7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>072e744e-e231-4a8e-95a0-f0e0099e4fed</stp>
+        <tr r="D5" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>82a6eec6-6f22-495a-8881-84069b8bdcc2</stp>
+        <tr r="D17" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d416b846-70e5-405f-9a5f-fc54fe12ecc3</stp>
+        <tr r="F17" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>302c6e7f-ec6e-4a29-adc5-83538abc0547</stp>
+        <tr r="B15" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1e7aa0b5-7593-4f0b-b35d-296d05a6f4c1</stp>
+        <tr r="C5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>849f0f37-c833-4f86-8654-958a1303c9b6</stp>
+        <tr r="J5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6601fd80-d4a2-426d-8c2b-4a34d936654b</stp>
+        <tr r="C51" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>36143f0f-fc11-4665-8d7d-980c950864c5</stp>
+        <tr r="F9" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8832ef3a-4371-43bd-aa2f-9c6077a42ed3</stp>
+        <tr r="C7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>7f8e0e1d-d201-4f0d-808c-04d21ace0dc9</stp>
+        <tr r="G9" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>07ce694b-483c-4620-ad69-114ac2f19535</stp>
+        <tr r="G5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ba7cc751-47a8-4fe1-9104-b3514bbf68fe</stp>
+        <tr r="G7" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>7d163689-79c2-41de-9bc8-d8b2b2f37ccd</stp>
+        <tr r="C50" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>71717518-75ba-40d5-836b-886142e660ae</stp>
+        <tr r="C52" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e39b83aa-0779-4c04-96dc-66e699e33d45</stp>
+        <tr r="C64" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>67e1fdd7-85cb-46db-81d5-e1b3da4da6ad</stp>
+        <tr r="C49" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>91b65b9f-7ee5-40b5-898c-2ee8e1937675</stp>
+        <tr r="J2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>51e2a099-ce8a-42b8-acf8-4bdfcdb73148</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a4fa66d1-dfcd-4e49-9ded-d299ab523bc5</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>aca75321-abdd-47d0-ad09-a55e096195a8</stp>
+        <tr r="E18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>df0673e4-faf2-41f4-ae86-f1d656047008</stp>
+        <tr r="B2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1d09cafd-5082-45c7-9649-8434380476d8</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>442ce738-a1d3-4ee0-a18f-8d335eb53b0d</stp>
+        <tr r="C40" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b3ad6d2f-80a9-4a37-832e-2ed8a472f2b3</stp>
+        <tr r="C70" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>15879585-d743-4572-b99b-400572d97d7c</stp>
         <tr r="L2" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0b625ca7-7c99-465c-aed4-d93495343783</stp>
-        <tr r="F15" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>09cccc5f-c577-469c-acef-915d82feb6bc</stp>
-        <tr r="J16" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>05dc5f56-b3d1-4bad-8be5-8631b8d5e411</stp>
-        <tr r="C52" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7c9f06b5-5d81-4bd9-9170-dd178d9a1d4d</stp>
-        <tr r="E15" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>69853ba0-d3c6-4225-bc99-492e7329433a</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>07ce99bc-0b6f-4b20-bfc7-55bc300dabd6</stp>
-        <tr r="E16" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>3574088a-231f-401f-9b47-2ccb93f0684c</stp>
-        <tr r="H7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>dcc36a7e-6beb-4f9d-9401-b5a37cdaa365</stp>
-        <tr r="C48" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>62e08ecc-a441-475c-a0cb-aeaf4b48b45a</stp>
-        <tr r="C35" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e39e096d-d03b-4489-b816-371832b72f67</stp>
-        <tr r="D18" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e67fa6bf-e2f7-423f-b978-49ad18ccf040</stp>
-        <tr r="C43" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>fed401df-703b-42a5-a7c6-eb7a3bd5b02d</stp>
-        <tr r="C29" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>32a0142a-da55-498e-81b3-c4a0d2c5cfe6</stp>
-        <tr r="B5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5bb2b7b3-ea3a-467a-befe-acb4a2d39b76</stp>
-        <tr r="C54" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>fc811cfc-cd9b-4b37-833a-beb467e1f118</stp>
-        <tr r="F8" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e762a3d9-c157-457c-a40e-262e4dfa5b9b</stp>
-        <tr r="J6" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6c0ce4c0-2103-405b-9c0b-75ba020b3483</stp>
-        <tr r="G13" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a71531eb-0bcf-4872-98fa-e0ed1ce28529</stp>
-        <tr r="C23" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b73702b0-237f-4af1-8374-65fad8b5f86a</stp>
-        <tr r="H16" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>72dd6dfd-be3e-47c0-be2c-de431258cea1</stp>
-        <tr r="G5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>75887308-469d-4232-b9e4-dd9a526e4492</stp>
-        <tr r="J7" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>86fde62f-1444-4e32-9970-2fa2f18bed05</stp>
-        <tr r="C70" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5f366807-5d8f-473e-8847-744da170d8e3</stp>
-        <tr r="E17" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c639fb32-5473-475d-8b08-ed242c2b25b6</stp>
-        <tr r="H4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8ea3c37a-5ed8-4bc3-a79f-a0e91f2b38b2</stp>
-        <tr r="C5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>fb7e3a2a-a84b-4154-b422-2e73b65dc148</stp>
-        <tr r="C41" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>46364902-b89a-43e9-9d37-8bea9ebc7fa0</stp>
-        <tr r="C38" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a5e2b9f6-d980-4e09-97c5-9deb72600ebf</stp>
-        <tr r="D12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4d92af15-4c9c-4d74-b145-24d317ffd4de</stp>
-        <tr r="C32" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f8e7b65c-8006-437f-8073-4ed27fe1bece</stp>
-        <tr r="C64" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>edf1c8d9-7143-4dde-b985-771b4d5e6de2</stp>
-        <tr r="F9" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>af6777ee-b043-4347-b2a5-1d3866af26d6</stp>
-        <tr r="E9" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e081cb05-ee50-4e87-8e3a-545df16dd669</stp>
-        <tr r="C68" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4a726e94-a614-4ef3-a4d8-2ede61836fd6</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>ba36b3b1-fe94-436a-af65-15dfe5a50c3c</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b27693b7-3137-407f-bdc1-8d62a5ed1f09</stp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a19b09f5-6bd1-420d-b95b-218d76199afe</stp>
         <tr r="C18" s="1"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>34eaa637-cf76-41f6-a450-ea1c24c6e7d0</stp>
-        <tr r="B6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d9f5b987-dd64-4e0b-bcf9-f3cc55163f83</stp>
-        <tr r="C57" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>134be0f0-df0f-46c8-af36-7875556faaeb</stp>
-        <tr r="B13" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c2045566-2816-48ce-a42a-874a8ed2733d</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8bdae204-263b-44e3-b997-731b4ad70900</stp>
-        <tr r="C58" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9b06bda2-f21c-4227-8574-40f55c757051</stp>
-        <tr r="E7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>253b06c0-58d4-48c1-803a-c4ed5abc9bb5</stp>
-        <tr r="C49" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5b90155a-ddc9-486a-ad9c-94dc1e42c950</stp>
-        <tr r="H8" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>2ba582f7-225f-4bc1-9bec-2ce7afae409c</stp>
-        <tr r="H6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>469f64b6-5e32-4937-9590-207b896be22f</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>268ab89e-8037-4817-9250-d6f80acdba8e</stp>
-        <tr r="C27" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>18824ac5-a727-48b2-bb0d-538ff994620f</stp>
-        <tr r="G26" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>804fc6d2-c483-447a-966d-1076336b934f</stp>
-        <tr r="C24" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f46e25ec-9d4a-4100-bc46-3693c860808e</stp>
-        <tr r="F7" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>dd3a7d2f-fd45-42cc-b804-6a2c5c3c05fa</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1638551b-d3cc-4671-b40c-3dbf11c901a1</stp>
-        <tr r="G16" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c7de86ab-6e9c-4061-9761-8184f442f760</stp>
-        <tr r="C53" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e0ba4192-a59c-4f05-8266-d75f6406eb67</stp>
-        <tr r="C17" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>40dccbfb-d0d7-40ca-8eb2-45ab2688443e</stp>
-        <tr r="C15" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>766ac8cc-d8ee-4c99-8221-fc8d1a8d5a98</stp>
-        <tr r="J9" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>32ba287b-1a5f-45c1-aa7f-776cf1776945</stp>
-        <tr r="H12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c9768e7b-61d5-47d2-8bbf-57787625c944</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b143e5c6-9fb6-452e-af48-6aa8b919768d</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>749ff280-f07e-4b04-9d5d-738c0c55638a</stp>
-        <tr r="B3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a7af6079-6790-41a0-a944-ec0c62f40fc9</stp>
-        <tr r="E12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>698c2a94-6955-46bc-97be-2232987f78ba</stp>
-        <tr r="D16" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b043300e-00e1-4d0b-a123-89d9d540b1e9</stp>
-        <tr r="F18" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f844bfdd-5ad3-4378-8a22-e74b424d89f9</stp>
-        <tr r="D2" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b1bfc166-50be-4202-b094-c91b7bb3d98c</stp>
-        <tr r="D5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>035e9d3e-4526-47cc-adb2-f936fa0b3f71</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>58b91162-f1c3-4b4c-aa24-f4f8b36eee56</stp>
-        <tr r="C37" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>3745f276-942c-41fb-a7ee-d03b054f3bf3</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8a7c6a37-a350-4b07-b0dc-90c788289f76</stp>
-        <tr r="C8" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e948046b-5145-464f-9622-17e7845c9374</stp>
-        <tr r="E4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bbd5881b-50f7-4133-8f7b-b7dc1055f3e2</stp>
-        <tr r="F5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>18d3d809-ae57-498b-bcd8-b454d572c9ef</stp>
-        <tr r="F13" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0eed1fed-2da6-4a08-aba0-3aa53ae3d71f</stp>
+        <stp>c56098ea-1a46-48a6-afac-82ac26170f1a</stp>
+        <tr r="C46" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>dab9c041-2058-412e-9196-20d92515a3e6</stp>
         <tr r="C55" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>284d0b30-4052-458a-b2ed-94211c34fb31</stp>
-        <tr r="C34" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>396991fb-8f1b-474a-a8c3-40cdc8aabd9b</stp>
-        <tr r="J8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>846c28b7-53fe-4d4b-9e45-b651d18696fd</stp>
-        <tr r="E13" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f7b92834-b0cf-4ae1-b995-b018d3a0884a</stp>
-        <tr r="G22" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4845e42a-7350-46b3-8bbc-35875bad0cbb</stp>
-        <tr r="C2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>94bd34e1-7a4e-4bcb-ad14-d9dd5faa5e96</stp>
-        <tr r="G4" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>553650ca-ecba-4a09-84d1-40ef315eab51</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>187d17c7-bacd-4df2-824e-f02adca54a97</stp>
-        <tr r="H17" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a8e791a3-d2a0-4732-8c16-dea8141dbfd5</stp>
-        <tr r="D7" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0fb69358-64e3-4090-b2f0-59d234c61ab0</stp>
-        <tr r="D8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4c305098-610e-4449-8631-077bde7e8d90</stp>
-        <tr r="C62" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>79cb77a7-ad22-45bb-9456-988738b91aa7</stp>
-        <tr r="J15" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>85ca61ea-b917-4079-9cae-8b0ff0a5b424</stp>
-        <tr r="J12" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>fe945601-8226-407f-a452-94477a64951a</stp>
-        <tr r="B18" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>43403b4f-3869-4adf-a6e1-d5dca5d7493d</stp>
-        <tr r="C63" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b327ca21-dc75-4bf5-b18b-76cb16418cb2</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a44b8f02-ad8b-4a33-8a85-c7c1caf456bb</stp>
-        <tr r="B7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>dd3baaf8-89f2-4714-822a-3a55bc762ab8</stp>
-        <tr r="C4" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>cd26c41f-bf95-480e-9d90-e1fc746863b1</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4a553156-f8e6-4329-b62a-ad74789c8944</stp>
-        <tr r="C28" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f8df1c5e-77bf-4d6c-9e31-ac84536607f2</stp>
-        <tr r="J5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5627b2d7-ac00-401e-b13a-5e14c4dbb95a</stp>
-        <tr r="B9" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>661047e4-201a-4d4b-9897-f4088bed0d26</stp>
-        <tr r="C71" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c09a19a6-d28e-4e70-a761-85d6d251c6f0</stp>
-        <tr r="C39" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bf1ba6e2-e22f-497b-aa5f-c8c9002a8083</stp>
-        <tr r="C61" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>56d33bf3-be40-427d-81bc-41254e87e10a</stp>
-        <tr r="G8" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c0b3bdce-cfaf-4d6a-8cc3-4481bea4018b</stp>
-        <tr r="J2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6be933eb-85a4-4139-aa26-7748c8b228a0</stp>
-        <tr r="B12" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e6aab7a8-16fb-4526-9206-76461aacd4eb</stp>
-        <tr r="F12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7b796e7d-5ac6-4178-b12b-1340bfe8285f</stp>
-        <tr r="G12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>520b3f6d-f562-4e80-91d3-f619c5c95019</stp>
-        <tr r="J13" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>3f61de8a-3764-478c-9864-f9e8586cc0da</stp>
-        <tr r="F6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>28a5c111-80d3-42c4-ab93-28aed5fa2eb3</stp>
-        <tr r="G17" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bf71da8b-411e-452d-ba30-0c33ab90415e</stp>
-        <tr r="D9" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>75e006fa-fa77-42ab-8960-2cc1de3a6c3d</stp>
-        <tr r="D13" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>abaa1338-05d5-4df5-8c0d-077ed63ae158</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f5b8a33f-8688-44cd-bd5c-048ac7b5b81a</stp>
-        <tr r="C59" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d6b500ae-2eb0-4695-9428-66c0a44ebeb7</stp>
-        <tr r="C33" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>64d0802e-7c4f-4adb-8764-f6a09c79df77</stp>
-        <tr r="C6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>517ee413-762d-4e03-b3b4-161ba487062b</stp>
-        <tr r="F17" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>3d047e7d-b87a-4dc6-b03c-a54d425776fe</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a067b3e8-e1c6-4dd3-9f34-53f00d866fad</stp>
-        <tr r="C67" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>958fe72b-3b68-4ecc-bacb-9f0f6ddb0d6b</stp>
-        <tr r="C16" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e9cb1fd8-bf94-42d7-895e-f9f0e3b7bbc2</stp>
-        <tr r="C65" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b73c6343-c4cf-472a-8a0e-faec40fa61f6</stp>
-        <tr r="C66" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>29e2bbf8-16af-4651-997b-ca722ba39926</stp>
-        <tr r="H5" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4d397a96-e40e-4dd5-abdb-2a16a5d1f3df</stp>
-        <tr r="E8" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b984def7-2ed3-45e8-a755-9b4f33b69d7b</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>063f479e-2ca5-4ca8-a346-7c63883f522e</stp>
-        <tr r="C46" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>135b3dbb-6c8f-4553-921a-a327b0fbb6ff</stp>
-        <tr r="C51" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>09c3a87d-4027-45df-b4a8-666b5effa00f</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8bf20f6a-b14a-4e4e-8cb7-12ceed7a8f76</stp>
-        <tr r="C60" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>777d9d15-e782-4e0c-818e-60e728a9e4ea</stp>
-        <tr r="H15" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>24d3c869-910d-40e8-aad3-f3d269fd22f9</stp>
-        <tr r="C26" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>529cf279-5d87-4e9f-8684-80e87234189d</stp>
-        <tr r="E5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>111ad926-8722-44aa-bff9-8ae35aa3cfb3</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>2702ce19-ad74-4eb8-bdfd-991f63c9062a</stp>
-        <tr r="G25" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0efe35fb-a7db-49ad-ae45-153865fc4079</stp>
-        <tr r="C40" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d5e38b68-1e65-4fe4-9a22-4c34b400ffd0</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c3d91495-a94b-4765-9abf-b3942f47240c</stp>
-        <tr r="D17" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>975da26d-0f14-4f20-bad6-7eaf8e9181fb</stp>
-        <tr r="B2" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>27055702-37be-4e81-936f-fe3f95968457</stp>
-        <tr r="C45" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>deb81113-3de1-4747-b069-29fea8921786</stp>
-        <tr r="C7" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>cf730570-74d7-45b3-a462-ebf127374d82</stp>
-        <tr r="H18" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>cf73b249-4a69-4ff8-a181-bf26dadb57f6</stp>
-        <tr r="G9" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>52edb298-4121-4847-b718-dc11142be6c4</stp>
-        <tr r="C50" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>fff02a5d-0c6e-47ec-a0b6-6b2a50fcd7a5</stp>
-        <tr r="C13" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5a134710-8078-40bc-955f-75348832ff92</stp>
-        <tr r="C18" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1826defe-6f4d-46ea-a9ec-33dd47f6b835</stp>
-        <tr r="B15" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>99145c31-9576-486e-b49d-1925f4772a61</stp>
-        <tr r="E18" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1b7de69d-e104-490b-989e-c75397b10849</stp>
-        <tr r="F4" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>59de9147-4b57-4d7f-8983-cb68ee9cd793</stp>
-        <tr r="B16" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>463f6e05-4a1a-4f82-91a8-96eedb0512ba</stp>
-        <tr r="J17" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>18548761-00fd-4beb-ad02-4b50ce4458ef</stp>
-        <tr r="C31" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.533dde5f0a6645a9b6ff1b13a9247cd6">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>2e241dc1-6ebd-45ce-b8bb-f4df3cab8532</stp>
-        <tr r="G6" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>06004b8f-4f2a-40ac-8dbd-cc9defb2963d</stp>
-        <tr r="G7" s="2"/>
       </tp>
     </main>
   </volType>
@@ -2083,7 +2066,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2111,7 +2094,7 @@
       </c>
       <c r="C3">
         <f>+_xll.YahooQuote(B$1,$B3)</f>
-        <v>0</v>
+        <v>67.430000000000007</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -2128,7 +2111,7 @@
       </c>
       <c r="C4">
         <f>+_xll.YahooQuote(B$1,$B4)</f>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -2145,14 +2128,14 @@
       </c>
       <c r="C5">
         <f>+_xll.YahooQuote(B$1,$B5)</f>
-        <v>17642687</v>
+        <v>11098800</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="I5">
         <f>+_xll.YahooQuote("ibm")</f>
-        <v>141.1</v>
+        <v>144.35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2166,7 +2149,7 @@
       </c>
       <c r="C6">
         <f>+_xll.YahooQuote(B$1,$B6)</f>
-        <v>17421051</v>
+        <v>16152293</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
@@ -2183,7 +2166,7 @@
       </c>
       <c r="C7">
         <f>+_xll.YahooQuote(B$1,$B7)</f>
-        <v>0</v>
+        <v>67.33</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
@@ -2200,7 +2183,7 @@
       </c>
       <c r="C8">
         <f>+_xll.YahooQuote(B$1,$B8)</f>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -2367,7 +2350,7 @@
       </c>
       <c r="C15">
         <f>+_xll.YahooQuote(B$1,$B15)</f>
-        <v>8.5500000000000007</v>
+        <v>8.49</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -2486,7 +2469,7 @@
       </c>
       <c r="C22">
         <f>+_xll.YahooQuote(B$1,$B22)</f>
-        <v>63.241430000000001</v>
+        <v>63.786667000000001</v>
       </c>
       <c r="E22" t="s">
         <v>57</v>
@@ -2503,7 +2486,7 @@
       </c>
       <c r="C23">
         <f>+_xll.YahooQuote(B$1,$B23)</f>
-        <v>-1.0214272</v>
+        <v>3.6333313</v>
       </c>
       <c r="E23" t="s">
         <v>58</v>
@@ -2520,7 +2503,7 @@
       </c>
       <c r="C24">
         <f>+_xll.YahooQuote(B$1,$B24)</f>
-        <v>-1.6151235E-2</v>
+        <v>5.6960669999999998E-2</v>
       </c>
       <c r="E24" t="s">
         <v>59</v>
@@ -2554,7 +2537,7 @@
       </c>
       <c r="C26">
         <f>+_xll.YahooQuote(B$1,$B26)</f>
-        <v>-13.019997</v>
+        <v>-7.8199997000000003</v>
       </c>
       <c r="E26" t="s">
         <v>61</v>
@@ -2571,7 +2554,7 @@
       </c>
       <c r="C27">
         <f>+_xll.YahooQuote(B$1,$B27)</f>
-        <v>-0.17304622</v>
+        <v>-0.10393408</v>
       </c>
       <c r="E27" t="s">
         <v>62</v>
@@ -2605,7 +2588,7 @@
       </c>
       <c r="C29">
         <f>+_xll.YahooQuote(B$1,$B29)</f>
-        <v>13.800003</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
         <v>64</v>
@@ -2622,7 +2605,7 @@
       </c>
       <c r="C30">
         <f>+_xll.YahooQuote(B$1,$B30)</f>
-        <v>0.28500625000000002</v>
+        <v>0.39239984999999999</v>
       </c>
       <c r="E30" t="s">
         <v>65</v>
@@ -2673,7 +2656,7 @@
       </c>
       <c r="C33">
         <f>+_xll.YahooQuote(B$1,$B33)</f>
-        <v>7.2771929999999996</v>
+        <v>7.9411072999999996</v>
       </c>
       <c r="E33" t="s">
         <v>68</v>
@@ -2775,7 +2758,7 @@
       </c>
       <c r="C39">
         <f>+_xll.YahooQuote(B$1,$B39)</f>
-        <v>145625284608</v>
+        <v>157795827712</v>
       </c>
       <c r="E39" t="s">
         <v>74</v>
@@ -2792,7 +2775,7 @@
       </c>
       <c r="C40" t="str">
         <f>+_xll.YahooQuote(B$1,$B40)</f>
-        <v>CLOSED</v>
+        <v>POSTPOST</v>
       </c>
       <c r="E40" t="s">
         <v>75</v>
@@ -2826,7 +2809,7 @@
       </c>
       <c r="C42">
         <f>+_xll.YahooQuote(B$1,$B42)</f>
-        <v>7.9998020000000003E-2</v>
+        <v>-6.9999695000000001E-2</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>77</v>
@@ -2843,7 +2826,7 @@
       </c>
       <c r="C43">
         <f>+_xll.YahooQuote(B$1,$B43)</f>
-        <v>0.12857283999999999</v>
+        <v>-0.10382631</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>78</v>
@@ -2860,7 +2843,7 @@
       </c>
       <c r="C44">
         <f>+_xll.YahooQuote(B$1,$B44)</f>
-        <v>62.3</v>
+        <v>67.349999999999994</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>79</v>
@@ -2877,7 +2860,7 @@
       </c>
       <c r="C45">
         <f>+_xll.YahooQuote(B$1,$B45)</f>
-        <v>1553903586</v>
+        <v>1555113459</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>80</v>
@@ -2911,7 +2894,7 @@
       </c>
       <c r="C47">
         <f>+_xll.YahooQuote(B$1,$B47)</f>
-        <v>0.82901420000000003</v>
+        <v>0.8982985</v>
       </c>
       <c r="E47" t="s">
         <v>82</v>
@@ -2928,7 +2911,7 @@
       </c>
       <c r="C48" t="str">
         <f>+_xll.YahooQuote(B$1,$B48)</f>
-        <v>Delayed Quote</v>
+        <v>Nasdaq Real Time Price</v>
       </c>
       <c r="E48" t="s">
         <v>83</v>
@@ -2979,7 +2962,7 @@
       </c>
       <c r="C51">
         <f>+_xll.YahooQuote(B$1,$B51)</f>
-        <v>0.24000168</v>
+        <v>1.5099944999999999</v>
       </c>
       <c r="E51" t="s">
         <v>86</v>
@@ -2996,7 +2979,7 @@
       </c>
       <c r="C52">
         <f>+_xll.YahooQuote(B$1,$B52)</f>
-        <v>0.38722440000000002</v>
+        <v>2.2909944000000002</v>
       </c>
       <c r="E52" t="s">
         <v>87</v>
@@ -3013,7 +2996,7 @@
       </c>
       <c r="C53">
         <f>+_xll.YahooQuote(B$1,$B53)</f>
-        <v>62.81</v>
+        <v>68.305000000000007</v>
       </c>
       <c r="E53" t="s">
         <v>88</v>
@@ -3030,7 +3013,7 @@
       </c>
       <c r="C54">
         <f>+_xll.YahooQuote(B$1,$B54)</f>
-        <v>61.96</v>
+        <v>66.635000000000005</v>
       </c>
       <c r="E54" t="s">
         <v>89</v>
@@ -3047,7 +3030,7 @@
       </c>
       <c r="C55" t="str">
         <f>+_xll.YahooQuote(B$1,$B55)</f>
-        <v>61.96 - 62.81</v>
+        <v>66.635 - 68.305</v>
       </c>
       <c r="E55" t="s">
         <v>90</v>
@@ -3064,7 +3047,7 @@
       </c>
       <c r="C56">
         <f>+_xll.YahooQuote(B$1,$B56)</f>
-        <v>62.33</v>
+        <v>67.08</v>
       </c>
       <c r="E56" t="s">
         <v>91</v>
@@ -3081,7 +3064,7 @@
       </c>
       <c r="C57">
         <f>+_xll.YahooQuote(B$1,$B57)</f>
-        <v>61.98</v>
+        <v>65.91</v>
       </c>
       <c r="E57" t="s">
         <v>92</v>
@@ -3098,7 +3081,7 @@
       </c>
       <c r="C58">
         <f>+_xll.YahooQuote(B$1,$B58)</f>
-        <v>62.22</v>
+        <v>67.42</v>
       </c>
       <c r="E58" t="s">
         <v>93</v>
@@ -3115,7 +3098,7 @@
       </c>
       <c r="C59">
         <f>+_xll.YahooQuote(B$1,$B59)</f>
-        <v>1553889622</v>
+        <v>1555099219</v>
       </c>
       <c r="E59" t="s">
         <v>94</v>
@@ -3133,7 +3116,7 @@
       </c>
       <c r="C60">
         <f>+_xll.YahooQuote(B$1,$B60)</f>
-        <v>13406277</v>
+        <v>19238667</v>
       </c>
       <c r="E60" t="s">
         <v>95</v>
@@ -3193,7 +3176,7 @@
       </c>
       <c r="I63" s="9">
         <f>_xll.UnixSecondsToTime($C$59,"UTC")</f>
-        <v>43553.833587962959</v>
+        <v>43567.833553240744</v>
       </c>
       <c r="J63" s="9"/>
     </row>
@@ -3215,7 +3198,7 @@
       </c>
       <c r="I64" s="9">
         <f>_xll.UnixSecondsToTime($C$59)</f>
-        <v>43554.166921296295</v>
+        <v>43568.166886574072</v>
       </c>
       <c r="J64" s="9"/>
     </row>
@@ -3237,7 +3220,7 @@
       </c>
       <c r="I65" s="9">
         <f>_xll.UnixSecondsToTime($C$59,"America/New_York")</f>
-        <v>43553.666921296295</v>
+        <v>43567.666886574072</v>
       </c>
       <c r="J65" s="9"/>
     </row>
@@ -3269,7 +3252,7 @@
       </c>
       <c r="C67">
         <f>+_xll.YahooQuote(B$1,$B67)</f>
-        <v>2.4846725E-2</v>
+        <v>2.3365193999999999E-2</v>
       </c>
       <c r="E67" t="s">
         <v>102</v>
@@ -3286,7 +3269,7 @@
       </c>
       <c r="C68">
         <f>+_xll.YahooQuote(B$1,$B68)</f>
-        <v>9.3046220000000002</v>
+        <v>10.08225</v>
       </c>
       <c r="E68" t="s">
         <v>103</v>
@@ -3303,7 +3286,7 @@
       </c>
       <c r="C69">
         <f>+_xll.YahooQuote(B$1,$B69)</f>
-        <v>63.686546</v>
+        <v>63.272015000000003</v>
       </c>
       <c r="E69" t="s">
         <v>104</v>
@@ -3320,7 +3303,7 @@
       </c>
       <c r="C70">
         <f>+_xll.YahooQuote(B$1,$B70)</f>
-        <v>-1.4665451</v>
+        <v>4.1479835999999999</v>
       </c>
       <c r="E70" t="s">
         <v>105</v>
@@ -3337,7 +3320,7 @@
       </c>
       <c r="C71">
         <f>+_xll.YahooQuote(B$1,$B71)</f>
-        <v>-2.3027550000000001E-2</v>
+        <v>6.5557950000000004E-2</v>
       </c>
       <c r="E71" t="s">
         <v>106</v>
@@ -3447,31 +3430,31 @@
       </c>
       <c r="F2" s="5">
         <f>_xll.YahooQuote($A2,F$1)</f>
-        <v>24.16</v>
+        <v>24.81</v>
       </c>
       <c r="G2" s="5">
         <f>_xll.YahooQuote($A2,G$1)</f>
-        <v>24.14</v>
+        <v>24.79</v>
       </c>
       <c r="H2" s="5">
         <f>_xll.YahooQuote($A2,H$1)</f>
-        <v>24.15</v>
+        <v>24.8</v>
       </c>
       <c r="I2" s="6">
         <f>_xll.YahooQuote($A2,I$1)</f>
-        <v>8269967872</v>
+        <v>8576816640</v>
       </c>
       <c r="J2" s="6">
         <f>_xll.YahooQuote($A2,J$1)*F2</f>
-        <v>50106317.920000002</v>
+        <v>38454433.169999994</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:K10" si="0">+I2/J2</f>
-        <v>165.0484053768204</v>
+        <v>223.03843622095448</v>
       </c>
       <c r="L2" s="7">
         <f>_xll.YahooQuote($A2,L$1)</f>
-        <v>2.4732069999999998E-2</v>
+        <v>2.4321038E-2</v>
       </c>
       <c r="M2">
         <v>18</v>
@@ -3499,31 +3482,31 @@
       </c>
       <c r="F3" s="5">
         <f>_xll.YahooQuote($A3,F$1)</f>
-        <v>25.61</v>
+        <v>26.23</v>
       </c>
       <c r="G3" s="5">
         <f>_xll.YahooQuote($A3,G$1)</f>
-        <v>25.6</v>
+        <v>26.22</v>
       </c>
       <c r="H3" s="5">
         <f>_xll.YahooQuote($A3,H$1)</f>
-        <v>25.64</v>
+        <v>26.25</v>
       </c>
       <c r="I3" s="6">
         <f>_xll.YahooQuote($A3,I$1)</f>
-        <v>5129682944</v>
+        <v>5138457088</v>
       </c>
       <c r="J3" s="6">
         <f>_xll.YahooQuote($A3,J$1)*F3</f>
-        <v>3473996.5</v>
+        <v>3791415.35</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>1476.594160068958</v>
+        <v>1355.2873039879421</v>
       </c>
       <c r="L3" s="7">
         <f>_xll.YahooQuote($A3,L$1)</f>
-        <v>2.5642022E-2</v>
+        <v>2.5229707000000001E-2</v>
       </c>
       <c r="M3">
         <v>6</v>
@@ -3551,15 +3534,15 @@
       </c>
       <c r="F4" s="5">
         <f>_xll.YahooQuote($A4,F$1)</f>
-        <v>32</v>
+        <v>32.93</v>
       </c>
       <c r="G4" s="5">
         <f>_xll.YahooQuote($A4,G$1)</f>
-        <v>31.95</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="H4" s="5">
         <f>_xll.YahooQuote($A4,H$1)</f>
-        <v>31.99</v>
+        <v>32.950000000000003</v>
       </c>
       <c r="I4" s="6" t="str">
         <f>_xll.YahooQuote($A4,I$1)</f>
@@ -3567,7 +3550,7 @@
       </c>
       <c r="J4" s="6">
         <f>_xll.YahooQuote($A4,J$1)*F4</f>
-        <v>115584</v>
+        <v>81534.679999999993</v>
       </c>
       <c r="K4" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3603,15 +3586,15 @@
       </c>
       <c r="F5" s="5">
         <f>_xll.YahooQuote($A5,F$1)</f>
-        <v>30.1</v>
+        <v>30.73</v>
       </c>
       <c r="G5" s="5">
         <f>_xll.YahooQuote($A5,G$1)</f>
-        <v>30.06</v>
+        <v>30.72</v>
       </c>
       <c r="H5" s="5">
         <f>_xll.YahooQuote($A5,H$1)</f>
-        <v>30.11</v>
+        <v>30.74</v>
       </c>
       <c r="I5" s="6" t="str">
         <f>_xll.YahooQuote($A5,I$1)</f>
@@ -3619,7 +3602,7 @@
       </c>
       <c r="J5" s="6">
         <f>_xll.YahooQuote($A5,J$1)*F5</f>
-        <v>1403713.5</v>
+        <v>1108000.8800000001</v>
       </c>
       <c r="K5" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3655,15 +3638,15 @@
       </c>
       <c r="F6" s="5">
         <f>_xll.YahooQuote($A6,F$1)</f>
-        <v>51.34</v>
+        <v>52.53</v>
       </c>
       <c r="G6" s="5">
         <f>_xll.YahooQuote($A6,G$1)</f>
-        <v>51.33</v>
+        <v>52.5</v>
       </c>
       <c r="H6" s="5">
         <f>_xll.YahooQuote($A6,H$1)</f>
-        <v>51.32</v>
+        <v>52.6</v>
       </c>
       <c r="I6" s="6" t="str">
         <f>_xll.YahooQuote($A6,I$1)</f>
@@ -3671,7 +3654,7 @@
       </c>
       <c r="J6" s="6">
         <f>_xll.YahooQuote($A6,J$1)*F6</f>
-        <v>457593.42000000004</v>
+        <v>169251.66</v>
       </c>
       <c r="K6" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3707,15 +3690,15 @@
       </c>
       <c r="F7" s="5">
         <f>_xll.YahooQuote($A7,F$1)</f>
-        <v>28.92</v>
+        <v>29.65</v>
       </c>
       <c r="G7" s="5">
         <f>_xll.YahooQuote($A7,G$1)</f>
-        <v>28.9</v>
+        <v>29.63</v>
       </c>
       <c r="H7" s="5">
         <f>_xll.YahooQuote($A7,H$1)</f>
-        <v>28.94</v>
+        <v>29.65</v>
       </c>
       <c r="I7" s="6" t="str">
         <f>_xll.YahooQuote($A7,I$1)</f>
@@ -3723,7 +3706,7 @@
       </c>
       <c r="J7" s="6">
         <f>_xll.YahooQuote($A7,J$1)*F7</f>
-        <v>710680.08000000007</v>
+        <v>644413.1</v>
       </c>
       <c r="K7" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3759,15 +3742,15 @@
       </c>
       <c r="F8" s="5">
         <f>_xll.YahooQuote($A8,F$1)</f>
-        <v>47.3</v>
+        <v>48.16</v>
       </c>
       <c r="G8" s="5">
         <f>_xll.YahooQuote($A8,G$1)</f>
-        <v>47.3</v>
+        <v>48.14</v>
       </c>
       <c r="H8" s="5">
         <f>_xll.YahooQuote($A8,H$1)</f>
-        <v>47.32</v>
+        <v>48.16</v>
       </c>
       <c r="I8" s="6" t="str">
         <f>_xll.YahooQuote($A8,I$1)</f>
@@ -3775,7 +3758,7 @@
       </c>
       <c r="J8" s="6">
         <f>_xll.YahooQuote($A8,J$1)*F8</f>
-        <v>1643816.9</v>
+        <v>714068.32</v>
       </c>
       <c r="K8" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3811,15 +3794,15 @@
       </c>
       <c r="F9" s="5">
         <f>_xll.YahooQuote($A9,F$1)</f>
-        <v>26.02</v>
+        <v>26.65</v>
       </c>
       <c r="G9" s="5">
         <f>_xll.YahooQuote($A9,G$1)</f>
-        <v>26.02</v>
+        <v>26.65</v>
       </c>
       <c r="H9" s="5">
         <f>_xll.YahooQuote($A9,H$1)</f>
-        <v>26.03</v>
+        <v>26.67</v>
       </c>
       <c r="I9" s="6" t="str">
         <f>_xll.YahooQuote($A9,I$1)</f>
@@ -3827,7 +3810,7 @@
       </c>
       <c r="J9" s="6">
         <f>_xll.YahooQuote($A9,J$1)*F9</f>
-        <v>1287443.58</v>
+        <v>1149174.6499999999</v>
       </c>
       <c r="K9" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3912,15 +3895,15 @@
       </c>
       <c r="F12" s="5">
         <f>_xll.YahooQuote($A12,F$1)</f>
-        <v>34.81</v>
+        <v>35.729999999999997</v>
       </c>
       <c r="G12" s="5">
         <f>_xll.YahooQuote($A12,G$1)</f>
-        <v>34.79</v>
+        <v>35.74</v>
       </c>
       <c r="H12" s="5">
         <f>_xll.YahooQuote($A12,H$1)</f>
-        <v>34.799999999999997</v>
+        <v>35.75</v>
       </c>
       <c r="I12" s="6" t="str">
         <f>_xll.YahooQuote($A12,I$1)</f>
@@ -3928,7 +3911,7 @@
       </c>
       <c r="J12" s="6">
         <f>_xll.YahooQuote($A12,J$1)*F12</f>
-        <v>5265987.1800000006</v>
+        <v>7778456.7299999995</v>
       </c>
       <c r="K12" s="6" t="e">
         <f>+I12/J12</f>
@@ -3964,15 +3947,15 @@
       </c>
       <c r="F13" s="5">
         <f>_xll.YahooQuote($A13,F$1)</f>
-        <v>72.33</v>
+        <v>74.08</v>
       </c>
       <c r="G13" s="5">
         <f>_xll.YahooQuote($A13,G$1)</f>
-        <v>72.34</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="H13" s="5">
         <f>_xll.YahooQuote($A13,H$1)</f>
-        <v>72.430000000000007</v>
+        <v>74.150000000000006</v>
       </c>
       <c r="I13" s="6" t="str">
         <f>_xll.YahooQuote($A13,I$1)</f>
@@ -3980,7 +3963,7 @@
       </c>
       <c r="J13" s="6">
         <f>_xll.YahooQuote($A13,J$1)*F13</f>
-        <v>420454.29</v>
+        <v>392920.32000000001</v>
       </c>
       <c r="K13" s="6" t="e">
         <f>+I13/J13</f>
@@ -4016,15 +3999,15 @@
       </c>
       <c r="F15" s="5">
         <f>_xll.YahooQuote($A15,F$1)</f>
-        <v>32.46</v>
+        <v>33.29</v>
       </c>
       <c r="G15" s="5">
         <f>_xll.YahooQuote($A15,G$1)</f>
-        <v>32.46</v>
+        <v>33.28</v>
       </c>
       <c r="H15" s="5">
         <f>_xll.YahooQuote($A15,H$1)</f>
-        <v>32.49</v>
+        <v>33.32</v>
       </c>
       <c r="I15" s="6" t="str">
         <f>_xll.YahooQuote($A15,I$1)</f>
@@ -4032,7 +4015,7 @@
       </c>
       <c r="J15" s="6">
         <f>_xll.YahooQuote($A15,J$1)*F15</f>
-        <v>2366269.08</v>
+        <v>1275273.32</v>
       </c>
       <c r="K15" s="6" t="e">
         <f>+I15/J15</f>
@@ -4068,15 +4051,15 @@
       </c>
       <c r="F16" s="5">
         <f>_xll.YahooQuote($A16,F$1)</f>
-        <v>67.260000000000005</v>
+        <v>68.77</v>
       </c>
       <c r="G16" s="5">
         <f>_xll.YahooQuote($A16,G$1)</f>
-        <v>67.09</v>
+        <v>68.739999999999995</v>
       </c>
       <c r="H16" s="5">
         <f>_xll.YahooQuote($A16,H$1)</f>
-        <v>67.19</v>
+        <v>68.790000000000006</v>
       </c>
       <c r="I16" s="6" t="str">
         <f>_xll.YahooQuote($A16,I$1)</f>
@@ -4084,7 +4067,7 @@
       </c>
       <c r="J16" s="6">
         <f>_xll.YahooQuote($A16,J$1)*F16</f>
-        <v>3235744.08</v>
+        <v>6079474.3099999996</v>
       </c>
       <c r="K16" s="6" t="e">
         <f>+I16/J16</f>
@@ -4120,15 +4103,15 @@
       </c>
       <c r="F17" s="5">
         <f>_xll.YahooQuote($A17,F$1)</f>
-        <v>27.5</v>
+        <v>28.2</v>
       </c>
       <c r="G17" s="5">
         <f>_xll.YahooQuote($A17,G$1)</f>
-        <v>27.56</v>
+        <v>28.2</v>
       </c>
       <c r="H17" s="5">
         <f>_xll.YahooQuote($A17,H$1)</f>
-        <v>27.6</v>
+        <v>28.23</v>
       </c>
       <c r="I17" s="6" t="str">
         <f>_xll.YahooQuote($A17,I$1)</f>
@@ -4136,7 +4119,7 @@
       </c>
       <c r="J17" s="6">
         <f>_xll.YahooQuote($A17,J$1)*F17</f>
-        <v>1091310</v>
+        <v>811342.2</v>
       </c>
       <c r="K17" s="6" t="e">
         <f>+I17/J17</f>
@@ -4172,15 +4155,15 @@
       </c>
       <c r="F18" s="5">
         <f>_xll.YahooQuote($A18,F$1)</f>
-        <v>34.11</v>
+        <v>35.020000000000003</v>
       </c>
       <c r="G18" s="5">
         <f>_xll.YahooQuote($A18,G$1)</f>
-        <v>34.11</v>
+        <v>35.03</v>
       </c>
       <c r="H18" s="5">
         <f>_xll.YahooQuote($A18,H$1)</f>
-        <v>34.15</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="I18" s="6" t="str">
         <f>_xll.YahooQuote($A18,I$1)</f>
@@ -4188,7 +4171,7 @@
       </c>
       <c r="J18" s="6">
         <f>_xll.YahooQuote($A18,J$1)*F18</f>
-        <v>854250.84</v>
+        <v>1192431</v>
       </c>
       <c r="K18" s="6" t="e">
         <f t="shared" ref="K18" si="1">+I18/J18</f>
@@ -4281,7 +4264,7 @@
       </c>
       <c r="G22" s="5" t="str">
         <f>_xll.YahooQuote("p","longname")</f>
-        <v>Pandora Media, Inc.</v>
+        <v>Symbol not found: "p".</v>
       </c>
       <c r="I22" s="6"/>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prg\myProjects\GitHub\YahooXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29DD641-3821-43B2-8736-6A912A8411D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FAE154-4602-42A7-9AEA-82CE7EF1A567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="5412" windowWidth="34560" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -143,9 +142,6 @@
     <t>defer taxes</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Ask,</t>
   </si>
   <si>
@@ -351,6 +347,9 @@
   </si>
   <si>
     <t>TwoHundredDayAverageChangePercent</t>
+  </si>
+  <si>
+    <t>ORCL</t>
   </si>
 </sst>
 </file>
@@ -442,1324 +441,1324 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5eca6909-2b14-42eb-85c9-dc202cab39f7</stp>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>48b271ef-02ee-42f6-a040-f4c31a2ea331</stp>
+        <tr r="J13" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a7a61e61-8250-4a2d-ac88-edfde8bf375a</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9b42ed7d-df6e-4a48-bafd-5d328a205ec6</stp>
+        <tr r="C58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6a74b27e-0258-412a-b4b5-f31de72488ad</stp>
+        <tr r="C47" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e2e03717-ca47-4eba-8184-24dff59a7b66</stp>
+        <tr r="F4" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1693242e-2bfb-4457-9382-afa0cfcc8c16</stp>
+        <tr r="C42" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6ad832b9-9d98-4ba4-b061-0eb83fe99785</stp>
+        <tr r="G9" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d026692b-1df3-44b4-9fd0-9cb19f6db197</stp>
+        <tr r="C30" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8262956d-8f4a-45e0-a643-905f9579da4d</stp>
+        <tr r="B17" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4579374d-56e5-4a19-aed1-ba311fd5525d</stp>
+        <tr r="F18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b7d5c00f-0675-4dee-99a1-7d67c86b4065</stp>
+        <tr r="D13" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c7710842-c845-4f52-9e69-82fdb0f2c4e7</stp>
+        <tr r="B7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8e0b8f45-901c-4bbb-a466-43eafe685fa4</stp>
+        <tr r="H15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>71db33c6-1f2e-4149-ae6d-3c7d17815678</stp>
+        <tr r="B2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4901a86a-74a3-4d49-8359-e1b5e6d4cdb5</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>50d1ce9c-55d7-4a51-9a65-ac46e9c83dea</stp>
+        <tr r="D2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4849c463-45f6-4675-b19f-1d4731a9587a</stp>
+        <tr r="B16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6d5ca1ab-2a98-4870-8cdc-6296095faaef</stp>
+        <tr r="D12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4ea676ea-7b19-47ee-9838-f64df9ec9e76</stp>
+        <tr r="H5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>78aff9b5-e614-45cc-adb0-4c4ae814ceb5</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>575f772b-383a-4152-bc71-dd9ff05729c0</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4bda6cf4-e189-482a-8099-56a0ace672fa</stp>
+        <tr r="C4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>415ddaa8-3713-41c3-951e-232e485d218d</stp>
+        <tr r="C48" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e21e4b2d-6164-4f30-85f4-5fd67547b917</stp>
+        <tr r="B12" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9a7701b5-224c-4d7b-9b94-f71efef211ac</stp>
+        <tr r="C23" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>359bc032-60ff-48e9-be66-05553be7317c</stp>
+        <tr r="L2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>dcfccdac-566a-4d1c-8690-3c82db2a33a8</stp>
+        <tr r="F2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5a30bf57-6e0d-41b6-b88b-b4766b880341</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6234552c-412e-46ab-8aaf-e1134b88b9a0</stp>
+        <tr r="E4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>087b8802-0264-441c-8c86-c3bd3917e424</stp>
+        <tr r="J16" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>37bf9fcb-fa7e-4fab-87ec-e0bb1b291747</stp>
+        <tr r="C56" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>66a9152a-0477-4efc-9fb3-17e20a2661d7</stp>
+        <tr r="H4" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a4b389fe-52cc-4d48-b45c-eddbf1c3659a</stp>
+        <tr r="B6" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>faa9af20-7c86-45b3-b4a9-ba4c2e9aa370</stp>
+        <tr r="C8" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>86149996-ec55-4fe3-a982-8ed77d4c759a</stp>
+        <tr r="G6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a50b3714-02f3-427d-a076-33a74deb9bb6</stp>
+        <tr r="C71" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>dbb012ea-5840-480a-b413-c39947af6e5d</stp>
+        <tr r="D8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>60bf0832-24bb-466d-b190-f0c8f03fb3b8</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>85b680c9-fc6d-4ae0-a239-c4dce115d1d4</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ed40cd87-e5d1-4be1-bee5-9ed55a46ba3e</stp>
+        <tr r="H8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>61101624-70d6-4a88-8f9d-7c3a217a27cc</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>12bf0aca-37c9-4e4d-962e-b0062fe4d469</stp>
+        <tr r="I2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3648ba77-b7e8-45c2-bda3-7ba165b42e3c</stp>
+        <tr r="G5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>852a46d0-68bb-43cc-b82b-c3bdd5a62626</stp>
+        <tr r="E5" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8d067d8b-bce6-424f-98cb-4343fa608a7d</stp>
+        <tr r="G4" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>eabc3618-25c4-42b4-8e67-197ee12df861</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>82c72b68-aa17-4df8-9b8a-3d85ca275c9c</stp>
+        <tr r="C26" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0db76420-5d40-4055-83bc-9cf1c7c20174</stp>
+        <tr r="C55" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f0569e71-5740-494f-ac4f-a6970d21c742</stp>
+        <tr r="G18" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a212c996-5d93-46ab-88e2-be0c920e79af</stp>
+        <tr r="H13" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f1e1be4b-19a6-4179-bb04-4f0a08b7ae11</stp>
+        <tr r="J6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d23f1b8d-9918-4566-b5db-d9109eb681ad</stp>
+        <tr r="E2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bf2a04db-7768-4d60-b5f8-f09f0efb70a2</stp>
+        <tr r="F5" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9d2b5636-86d8-490b-96e4-58489eb3df83</stp>
+        <tr r="C7" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3ab537f7-fb74-497b-9218-cf9cb5e5df12</stp>
+        <tr r="B3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4fcc37f4-6195-4fb8-8961-8eb3191fbcd8</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e0401cfa-79ca-4285-8c65-718a43fec301</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>fc505dec-1efc-4a01-a5b7-cf233b7ac77d</stp>
+        <tr r="F16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9fea9596-bee1-48a0-af53-a766fd7e0136</stp>
+        <tr r="C45" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>393b69d8-a1cf-41d0-96b5-d8089b701854</stp>
+        <tr r="G13" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>cb3707a9-f47c-4d57-a62b-10bd6b4a8522</stp>
+        <tr r="C27" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c2c804b4-de73-4be3-bf25-223c3819f884</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3fe362ea-e431-4e7a-8378-06260792374f</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>fbb25551-8fa4-4f48-af7a-cba4359a9f9f</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6187bf25-db6c-44f7-9c7d-c6872249ef62</stp>
+        <tr r="F7" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4e5075f8-cc8c-4cc4-8861-1042fe13c507</stp>
+        <tr r="C62" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>487ac665-f7cc-4b48-aa6d-fa86d4026bcb</stp>
+        <tr r="H9" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>df5c0ace-7319-4591-981d-50657d8ea502</stp>
+        <tr r="C41" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>51f9d0a2-81b1-440d-9559-987c1cf16ba3</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>db99db19-5539-4454-ae6e-66756bd313bb</stp>
+        <tr r="C38" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e563ce16-7eb7-4371-ab06-bea9cdc7778e</stp>
+        <tr r="C61" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>62cc4dce-e0cf-4c4d-a505-4f35076e2f49</stp>
+        <tr r="G15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9732cee8-54d6-4e8e-934b-154a43105cff</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>2d6758dc-02e4-482a-9895-fa67e652c06f</stp>
+        <tr r="E12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3a95e8ad-e704-4ba3-903b-856398126b90</stp>
+        <tr r="C34" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6d28bb9f-4a9e-4c8f-ac26-2dd25ff497cc</stp>
+        <tr r="E16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>72f20c0e-617a-4c88-971b-6d0d0907eaf4</stp>
+        <tr r="I5" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1e104f77-c218-4cf1-b701-fc59c4cecd0c</stp>
+        <tr r="D18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c76e64b5-1567-4871-b490-bd5a9848a43e</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>50acdbfb-2648-4abc-84f4-4fa39a0d6056</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9ae65ada-058f-43fc-b26c-5a4d44012b52</stp>
+        <tr r="C16" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>fccbc99c-af91-46b9-8388-6efb6816855d</stp>
+        <tr r="J8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d26aa783-3034-4a46-a12a-2f5072c544fd</stp>
+        <tr r="H7" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f8c2e8be-bb23-4c7a-bc0a-4e69179d93ca</stp>
+        <tr r="D5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>83dcb58c-bb06-4ca2-b45b-8a9555bc0e99</stp>
+        <tr r="C72" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b38671e6-db81-4f77-9002-3ca541702af8</stp>
+        <tr r="C68" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>19961f26-7036-403d-94bf-b5cd5012c93e</stp>
+        <tr r="C24" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ee5ef2fd-9466-484a-bf27-da68ec76d261</stp>
+        <tr r="C39" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>37095a4b-b179-464b-8409-cf95d54bd8de</stp>
+        <tr r="J15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>fbbf272b-75b2-4fc6-ad6e-719bff0a48a1</stp>
+        <tr r="D9" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>216fbb4c-42b2-4ffd-8191-ff7b5da6b583</stp>
+        <tr r="G26" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>04b1b2b1-f5b4-4999-97cc-37823c849ce3</stp>
+        <tr r="G12" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>89232d43-fa67-4dc1-92fd-fad0f6f06616</stp>
+        <tr r="J5" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>40ec3796-991c-482a-bf1c-92f5470c7ff1</stp>
+        <tr r="G8" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>7e2fdf2e-83fc-440a-a1e4-40de3dc7bf6a</stp>
+        <tr r="G16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c3ae7312-4a71-457c-9560-1bf217be08d5</stp>
+        <tr r="J4" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>27027bd7-b383-4abe-bd3b-3fd4d31b6875</stp>
+        <tr r="C28" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9e13bad0-446f-4799-85d4-c5ef87defc2a</stp>
+        <tr r="C13" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>85a74ef6-d58f-44ee-b69e-008ef2502f02</stp>
+        <tr r="C67" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c511920d-7934-4a1a-9a87-89154dc46875</stp>
+        <tr r="C12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>448cff1c-d64a-4f12-b8c2-0f9704ba6981</stp>
+        <tr r="E6" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>28427d8a-4e8a-40d0-967f-faf7c09e22e4</stp>
+        <tr r="D15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d92dd1ba-35cb-4593-bb99-890e9fdc2b29</stp>
+        <tr r="J17" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>2c289886-f8aa-47e7-8776-df4162917e16</stp>
+        <tr r="G25" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4b3f4f85-8629-4d59-9a92-b5ddf3dad60c</stp>
+        <tr r="L3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>2806e40d-42ae-41c2-a6f7-40d25f633548</stp>
+        <tr r="E13" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5d2a68c6-8b9d-464c-a55c-42801817e766</stp>
+        <tr r="C29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f80ab88f-64a8-4c4c-af8a-9d9cc688e0f5</stp>
+        <tr r="H2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5bd55684-5eba-451e-a583-7449fb42be58</stp>
+        <tr r="J7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bb555bbc-8f4c-42c2-bd61-326670e48031</stp>
+        <tr r="G2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a9a4177c-e2a0-47e3-a2d2-34b4abdadd7c</stp>
+        <tr r="C64" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>de098ce5-9cdd-472d-b2e3-a5ea2a47dd18</stp>
+        <tr r="E7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>29dd5ff0-7462-40cc-af03-710ece92ead6</stp>
+        <tr r="C57" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f0070d55-f7e9-4a86-81fa-b935ba81b401</stp>
+        <tr r="C60" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>694f3502-d865-452d-a2d9-410dea4c0651</stp>
+        <tr r="C31" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f4ce597e-d52c-41f1-87bf-b39eb130c66d</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>58825868-ce80-4f3b-9b6a-32b172e9a96a</stp>
+        <tr r="H6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ce862a55-f935-42d3-ad0e-56215a9be8c3</stp>
+        <tr r="C49" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8eb05dc1-8892-4c9e-8c4d-b534a0585cef</stp>
+        <tr r="C40" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3a5e2549-c69a-4cf2-9752-50d4f0241993</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>57389ce0-d96a-4612-b930-89b941fb707b</stp>
+        <tr r="C5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>03918160-90e0-4759-b3e8-e91dcb9e953d</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e85772ba-756a-441b-8fba-67a4e2725041</stp>
+        <tr r="C37" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>cfae613e-ed75-400b-8b9e-fc5a5a91ec23</stp>
+        <tr r="B9" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>521b99fe-89db-43bc-9392-5e5ea5f98147</stp>
+        <tr r="C65" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>94def822-a138-4344-b263-7c84932257ad</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>fabe53f9-c27b-4e12-b4eb-79d7b2c9df11</stp>
+        <tr r="C32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>346c3e53-8d3c-4763-8b69-b7e5e437edf2</stp>
+        <tr r="F15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b4657e57-0338-450d-b4db-face9309a836</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>33d061a8-35ac-4085-b10e-235b147b18f8</stp>
+        <tr r="C17" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d8271fec-1e02-4840-8507-0455eaf4b077</stp>
+        <tr r="J18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>79edb52e-4375-455c-ba11-cd4150f8c4fa</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>463483fa-4901-4141-b113-4f502dc1b901</stp>
+        <tr r="H17" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1887391e-1530-43c6-81fb-74aa2825ef02</stp>
+        <tr r="C54" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c4cd946f-db94-4e48-b095-7ab3b17aa041</stp>
+        <tr r="E15" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b0441b67-cded-494c-8f27-0a3ada6b2e50</stp>
+        <tr r="E8" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b116c54e-58e4-4b97-9126-c49750d4256a</stp>
+        <tr r="H12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1a83e877-f71d-4980-b799-41aea1315377</stp>
+        <tr r="H16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>04341c22-2ad0-4f90-a8f5-e49b3659f470</stp>
+        <tr r="H18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>28d62b06-0869-479b-8e8b-853fd62876ac</stp>
+        <tr r="B18" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>56b100db-6ffd-4762-9e82-a89caac7dfe5</stp>
+        <tr r="C25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>85edb736-a4b1-4e57-b93e-ad7494833215</stp>
+        <tr r="C35" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>71c68a62-466c-485b-b0de-0f7bf00000ba</stp>
+        <tr r="D16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8137d3f9-c8e0-4be7-a3fb-6087574a93b7</stp>
+        <tr r="C46" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>21555e71-0809-41da-9982-4a502989eac0</stp>
+        <tr r="C43" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>795f8a19-37fe-4e15-b335-14134e0ad8bc</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>971d340c-6a58-448a-a971-908045c48bc5</stp>
+        <tr r="D17" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>90e89243-0b31-45c5-af3b-2a5ddb9c2326</stp>
+        <tr r="C53" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f5df43f6-826a-4e5c-b2b1-5800f3e7e0eb</stp>
+        <tr r="B4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>46c8cdf4-05f4-40e5-8028-b1459f1c166a</stp>
+        <tr r="E18" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8b0b4be7-b922-4d0a-8de4-ef9f63b204a5</stp>
+        <tr r="J2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5c70d4a0-9692-48a8-b4b2-8f6afc439625</stp>
+        <tr r="C70" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b03b7b54-effc-40e6-a231-f21bb04ca757</stp>
+        <tr r="C9" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>13127dfc-3474-4a62-932c-a5cb5238ed77</stp>
+        <tr r="B5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c0041a35-0270-4f40-b569-35e8912aad76</stp>
+        <tr r="J12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ca1f215f-63ce-4f52-8373-e688ea72e384</stp>
+        <tr r="J9" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>70b8cac0-8f79-4d5c-986c-4422b98a5659</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b748ef64-3875-4658-ae4a-40f1da257878</stp>
+        <tr r="B13" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1aeed944-b2d8-4c40-bc0b-c517a9a86001</stp>
+        <tr r="F12" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>95a145ab-da0f-440c-b3d2-cd3e8c637b69</stp>
+        <tr r="F6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3418cf20-d73c-4bd7-9851-52b6e163b16f</stp>
+        <tr r="C51" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a2f59e50-e562-45a1-9470-e682228e963d</stp>
+        <tr r="B8" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>07a69195-bec2-453b-9202-0f1bc2b74d8f</stp>
         <tr r="C66" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8554953f-cc67-43ad-b1ce-ce2efe2a625c</stp>
-        <tr r="H18" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5574b5f8-f5b6-437e-88e1-f4e6f46f3055</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f4c8946c-1ce2-4ca5-ac1f-1b68886fa9b3</stp>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>41c0eb93-b01c-4cef-bcae-c4a091514515</stp>
+        <tr r="C52" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>24e9d4fa-66a7-457b-9fb1-3e1cbeed3088</stp>
+        <tr r="G7" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>7033a118-59fc-484c-9c4e-aa40fb4daf19</stp>
+        <tr r="C44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0dfaae0e-dfd3-4fe4-a92d-d1113de2903c</stp>
+        <tr r="G17" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a5e23bd6-9ef5-48ab-8259-8b196e9b68e4</stp>
+        <tr r="F9" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a67a58a7-d6e4-4533-bf0a-d9934c12559b</stp>
+        <tr r="C36" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1ae61ee1-56c3-41b4-a212-1abecc505788</stp>
+        <tr r="C50" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>079bd70f-d307-4e35-90c2-6735c2831654</stp>
+        <tr r="C18" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5d84cf4f-6896-409f-b9c8-da92d6ac9f90</stp>
+        <tr r="E17" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5ddfb6fd-59f1-4615-a46d-c1b48c56f6ee</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>506f9511-234e-4f6c-8a7f-5779a132eefe</stp>
+        <tr r="F8" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f3318780-a0c8-4f89-8783-c0e54e30d1e9</stp>
         <tr r="C6" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6e6b85ba-e357-4236-acea-122eaa66ccde</stp>
-        <tr r="F2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8408e62b-5c65-4785-8853-0e79af5abb1f</stp>
-        <tr r="E8" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>87df233c-ea8c-40d9-a30a-34f093d33963</stp>
-        <tr r="C30" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7bbb7aef-6456-44ea-8bf9-a4546ab6c0a3</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6032ff8f-17d6-43b2-8442-7a5f3678da4d</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>2993a07b-3120-46d4-859a-134cc7931dba</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>02c8560d-2f6d-428d-b8ac-f47e3eadf51b</stp>
-        <tr r="G4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>cfa232f3-7dc8-44b4-96f2-911a4505db74</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>35cd97f3-2120-4873-8a4d-8a73326d0363</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4a537a2f-7f8d-4a7d-a8e5-440fcddda1f8</stp>
-        <tr r="G6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a1bbf1a3-67a5-493f-a727-e388b4a2829b</stp>
-        <tr r="B16" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f6b10ab6-5ad0-46b8-8d72-1b4c3919fa46</stp>
-        <tr r="D18" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>19ca78e6-eef3-4b37-8911-9acba54eeb30</stp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0f110900-9f05-4f4f-9b06-a5579cdf9eb3</stp>
+        <tr r="C2" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b52ac44c-4afc-4cdf-96f9-e627a31a9376</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3d58278e-8755-4d6a-bc1c-6e51b90dbd12</stp>
+        <tr r="C59" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e731a3fa-1cda-4439-8175-7ddf1e3b398c</stp>
+        <tr r="B15" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ce26cf47-b7b3-48e2-b532-eee285aa1366</stp>
+        <tr r="C69" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>eca8ff16-7cc2-4d28-8a06-281f753f241f</stp>
+        <tr r="E9" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>012ce245-1eb0-4a72-8fa9-85b8ec25e41b</stp>
+        <tr r="C33" s="1"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b8756d92-0e88-43cd-b442-501d1916a6ac</stp>
+        <tr r="C15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0a497110-75af-41f1-a3ef-982c79a3619d</stp>
+        <tr r="F13" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>de2c616a-d2a6-4438-8d15-c8bd23b590c3</stp>
+        <tr r="F17" s="2"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3bdc5f5a-5743-4c20-9a62-bef68163eacf</stp>
+        <tr r="D6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e9ae7457-b25a-4093-b19c-5273db96f7a8</stp>
+        <tr r="C63" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ebdc5d93bf3c40798aa51b157fe06e30">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8c73e248-308a-4311-bc6e-7f12477246a4</stp>
         <tr r="D7" s="2"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>ae603f76-2158-47c3-8b63-8fa2431e95c4</stp>
-        <tr r="C16" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>408b3dbf-4b6f-4041-983f-8affb3ab9d8b</stp>
-        <tr r="H9" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>308ab120-b72f-4fac-8e83-deab39434095</stp>
-        <tr r="C8" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>06e4c790-f9e7-4650-9b0c-315363ecc141</stp>
-        <tr r="E5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>abc44849-5dea-497a-ba3a-3d1ee9b9b563</stp>
-        <tr r="C42" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0449fb67-b724-431e-b6c7-fe7c56c9d4fd</stp>
-        <tr r="H6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>dfac1a9c-b445-4d7b-8d87-91ad58a65c28</stp>
-        <tr r="H2" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>57c8b7c0-c19a-4abb-85fc-9cdf45528de3</stp>
-        <tr r="J6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5a4cdf7c-7001-4c37-9aa5-c7bcb49157f6</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>505c2f36-ab05-43e1-a6cc-e0cf841fa3f6</stp>
-        <tr r="C71" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6a48444e-ee05-4b92-bacc-8acfef6fb476</stp>
-        <tr r="G18" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>cb90ede0-f2b7-4a66-9aca-b6901d30a5a9</stp>
-        <tr r="J8" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>2118247a-380f-4ba6-9be0-ef9430cf0a29</stp>
-        <tr r="G8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6c2e024f-2d37-469d-a0dd-d33d1d7bcfb0</stp>
-        <tr r="C39" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0af656e0-00de-410e-bdac-7cb25e0277b9</stp>
-        <tr r="C59" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>693841ec-8969-4020-81de-0dd18e96174c</stp>
-        <tr r="C15" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>be51d93a-a198-4af5-b939-025ec91f8c75</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e7e7826a-01ca-460d-a452-64dcc0183393</stp>
-        <tr r="H13" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>edbee1b4-c772-4dfc-9908-ef1c7bd372dc</stp>
-        <tr r="C4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>fccd96b1-2ab8-422a-814f-a4567e77403f</stp>
-        <tr r="I2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>dcc60677-df2e-400a-973b-7f70356aecad</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9e769957-de97-494f-8711-2cfa89afbfbf</stp>
-        <tr r="D16" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>58aada29-ab3b-4e99-b0b7-a250a1f1b398</stp>
-        <tr r="H8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>2311882a-36b7-4555-a3f9-26b55685a82f</stp>
-        <tr r="C33" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>042daa35-758c-41e7-8f75-cca941a77cb0</stp>
-        <tr r="J7" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>48e8336a-a874-4a17-a1d9-599c23ce8c4e</stp>
-        <tr r="C35" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>58bf7abf-acad-4109-b2b7-f25965c6a485</stp>
-        <tr r="B13" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>dcc06614-4a91-4830-9ef8-5dd004b86791</stp>
-        <tr r="E16" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bbe55bb3-84bb-4dd7-8106-0d9e42575996</stp>
-        <tr r="F18" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>3290d03c-4618-4111-a27d-ccf877c3c483</stp>
-        <tr r="B6" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a9996a92-88f0-42e5-8e18-ef3a9b7ef0c8</stp>
-        <tr r="C67" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>931203fc-dcf0-4d66-a789-6fff588e0d45</stp>
-        <tr r="C32" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>ba1963ff-e16c-4dd1-8cab-376e976127f4</stp>
-        <tr r="C26" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6dbffa04-3eba-4436-91a9-9265ea4aec32</stp>
-        <tr r="F6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4c25d440-bbe1-48c6-af41-57093bb6733c</stp>
-        <tr r="C12" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>512e0751-d55d-4b56-8a43-cf2d35fadba8</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1b78f323-15fe-4454-af7a-a246854805c4</stp>
-        <tr r="G16" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>40fc0e7f-19a9-4d90-a60c-3d26bb6393c4</stp>
-        <tr r="C56" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9cf94b00-796c-41f0-b151-5f4b1ec25af9</stp>
-        <tr r="E13" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>71f46cdd-32a6-48f3-a21c-3a97b728ed08</stp>
-        <tr r="F13" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>fece9a86-7d5f-47bb-a248-4c0a33daad60</stp>
-        <tr r="J4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f709a17a-2d71-450e-8dc8-5f69797563f5</stp>
-        <tr r="L3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>ba4e6d1b-8dc5-4b73-9627-35ab2ba1d531</stp>
-        <tr r="C31" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>299b424c-3616-461d-a18e-195d4d2c0ff3</stp>
-        <tr r="H17" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b18f4c15-6b64-4781-b1b5-9c74b32d28b0</stp>
-        <tr r="C48" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bd6e3e5c-a8b4-47a4-8768-0855f1618467</stp>
-        <tr r="D6" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b8e598e8-38c5-4f1c-a1eb-08199fbeb494</stp>
-        <tr r="B9" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d486f83c-4377-4ebf-b7de-309106bb2ce1</stp>
-        <tr r="C38" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b239ecec-3a1c-4e83-9d69-ad29afd5694a</stp>
-        <tr r="C36" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4e255b31-67eb-45d8-aac3-455ba540a79a</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>52fd6ba4-01b4-4979-be3b-5b948fd313f8</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9ef2ab35-19ee-43a8-862f-6ea1a443d00d</stp>
-        <tr r="C23" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a7c11460-903b-4e1e-a163-89be650238c2</stp>
-        <tr r="E4" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8f5dfb61-147d-4b64-9f89-bb8210f98609</stp>
-        <tr r="E17" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>452415b1-2b01-4fa6-a625-48d59fb4428a</stp>
-        <tr r="D9" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>019b6751-bc3b-468d-83e8-f01c276d38c0</stp>
-        <tr r="C68" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7566a80d-3193-4302-96ca-5c042dafa2de</stp>
-        <tr r="G15" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>62a8c6f2-19c8-4ac4-b315-f82482fa6ae5</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0711f750-32a4-4914-8db0-a139a82e9703</stp>
-        <tr r="C61" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a8146701-f694-40be-a900-0c2b2ee47ab3</stp>
-        <tr r="C2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4413694f-8ad9-472b-987b-280caea6bf81</stp>
-        <tr r="C9" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>db3221c5-30e3-4208-b7af-72418edda58d</stp>
-        <tr r="C63" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bc7c5be4-b8fb-46b2-b1a9-e99706536d7c</stp>
-        <tr r="B17" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>cd5336b7-9cf4-4eb3-85aa-a49b0b4fd49b</stp>
-        <tr r="C18" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5f09bb99-d309-4230-824e-df4edc2f99ab</stp>
-        <tr r="E6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>47268ebb-d990-4267-bddc-e8dc270f8217</stp>
-        <tr r="C28" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>318d8169-5714-4fc5-aa9b-474bea3dd759</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>3a5e153a-8963-452e-9622-e8e8c8d66cf9</stp>
-        <tr r="F16" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9beefe8d-968b-4d52-83f9-cd4563b2beab</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8cabe118-d88b-477f-9382-033d3cd26a0d</stp>
-        <tr r="D8" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7f938177-2242-4ca4-a978-627705678880</stp>
-        <tr r="H12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b7785070-20ef-457d-976e-5edec8911c27</stp>
-        <tr r="C47" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>55a62220-30a7-4d6c-8b3f-093d124c4673</stp>
-        <tr r="J15" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>39c06059-682c-406c-9605-299f48aed441</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d8b9bed3-bbb9-4cb1-a671-74f08047cd18</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6b3b7d0e-7de4-4110-a8e1-43c4771fa953</stp>
-        <tr r="C45" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c8d7a002-bb06-415d-a07f-3c16f61bd5bd</stp>
-        <tr r="J17" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a8923975-d2c9-4f90-bb96-9a68103bbdb9</stp>
-        <tr r="D13" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e9effa8e-35a1-4d44-aaa6-1f5003dd72cb</stp>
-        <tr r="C27" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>145a5d41-7481-493a-b210-27ce41f98754</stp>
-        <tr r="C69" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>54a8ddc1-c41b-488a-9352-12d065c72fd6</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d812fe06-428b-4f33-98da-ac5d7b61397f</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>ba37ba74-1b74-4915-b223-bea2f75e4bab</stp>
-        <tr r="B4" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>98c5c20c-89d8-4b3a-b393-c0e5581c4e1e</stp>
-        <tr r="G2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>11d093ec-3ade-499d-89e4-50ddb61f9198</stp>
-        <tr r="C37" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>88ed382f-35ae-40ef-92c6-52d0f3dda0af</stp>
-        <tr r="J16" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>05d946d0-6bcd-4c62-a35a-0185a2430695</stp>
-        <tr r="C44" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>59843021-018f-4322-b665-856af7e4c888</stp>
-        <tr r="C53" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8ad85340-818f-4f93-80eb-882ad22991ea</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b6958368-29a9-4f6f-bcb0-6a699ca07627</stp>
-        <tr r="C41" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c9785852-ad4b-4fb7-81a3-c51d96d66122</stp>
-        <tr r="C25" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>edc43225-2b77-4177-9abb-7a645b5de63f</stp>
-        <tr r="D2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9f83db2c-b5c4-40ea-be48-9143d5dc2371</stp>
-        <tr r="F8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c5287edc-665c-4114-9fca-4c454a026617</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b20a7896-aecf-4c1a-a784-94130e9c0fdc</stp>
-        <tr r="G25" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>83b0242f-6f47-4b50-bd1f-3d03653dadee</stp>
-        <tr r="G12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b4174487-e7a0-4a13-b16f-0716ac260117</stp>
-        <tr r="B5" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>57e74456-53fc-4b33-ba86-48141e722e9d</stp>
-        <tr r="E15" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>30d68424-032f-4e52-9bfd-207133305fa6</stp>
-        <tr r="C34" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9ee2d0ff-4f20-4676-8437-b41976779c01</stp>
-        <tr r="J12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>3caf7ca6-012f-4c8e-8ddc-c986c3b9a919</stp>
-        <tr r="H5" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>94d80b90-ac2f-4ca2-9cf6-1859da4ff82f</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b52e8821-1517-464d-818e-59156c9498c9</stp>
-        <tr r="B8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1645421e-b974-40a1-9dbd-6e7d9a3c13ff</stp>
-        <tr r="I5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>2b875103-ec37-42f6-a409-62ec401de00d</stp>
-        <tr r="B18" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0df7a2e3-dabd-46b0-9ca1-7d2a10f6654e</stp>
+        <stp>92ec916d-50e9-49a7-a686-a09313dc580f</stp>
         <tr r="D4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>2c9a4f12-406b-40b5-a0ce-c5b08f6f36fc</stp>
-        <tr r="E7" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f79ad428-5e82-4877-a590-4b057930ea66</stp>
-        <tr r="J13" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d0a62fcd-2bd4-4f6a-887e-cd0c8cb7b72e</stp>
-        <tr r="J9" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4573a135-6065-4300-8698-1dc8f91e7d82</stp>
-        <tr r="E9" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>93af0cd4-76ed-450b-83c6-128d42fa8ede</stp>
-        <tr r="B7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8d727dce-0e81-4db4-a1a6-0e0e6148e270</stp>
-        <tr r="F4" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1ff5561e-3697-4c94-922a-18f7bfc13837</stp>
-        <tr r="C17" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>76ae1d39-c6fa-4054-b270-87d68e06ccf9</stp>
-        <tr r="F5" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1b33daae-17aa-4050-9689-328492c969fa</stp>
-        <tr r="J18" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c5a5e754-dbf0-49d9-b540-313328e6cba7</stp>
-        <tr r="G26" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e00cef36-d16b-4165-bbfd-77f24c3b752d</stp>
-        <tr r="D12" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9c0ad3e3-45f7-42b2-a2ef-42f6e9ee8847</stp>
-        <tr r="H4" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>22e46633-a1d7-47f1-9285-fe5090a98944</stp>
-        <tr r="C54" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f7d50028-942e-480d-92a1-b950835a118e</stp>
-        <tr r="B12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e0f4257c-5ecd-43d4-ace0-94a6f170fec2</stp>
-        <tr r="C62" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>badd9aa3-b1ec-4f28-a803-49f9917bfcd4</stp>
-        <tr r="C13" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>ebbb1cf1-8732-4f14-8c46-2939bee2ed71</stp>
-        <tr r="H7" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>fbfd3556-fa9b-4478-a0d4-49c2dce016cc</stp>
-        <tr r="B3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5d964104-8a34-42c6-b143-1a1d472937b6</stp>
-        <tr r="C43" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bf6d7d93-eb54-40c1-8e58-b68959e45b2a</stp>
-        <tr r="G13" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6f9bda20-1496-4259-afc9-027efdf024b6</stp>
-        <tr r="F12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6403b9ac-f278-444c-8d75-21f35136b15b</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6ed47277-bd12-483e-ac38-fa7a553a79f6</stp>
-        <tr r="G17" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c822f6b9-237e-4804-997b-7f187eb08240</stp>
-        <tr r="H16" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>cd51a7e2-3641-487d-9f45-6d905c2258d7</stp>
-        <tr r="C24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5f359da3-b35e-489f-a35d-1d119afd59fb</stp>
-        <tr r="F15" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>69f2f4de-38a0-461b-af3f-e9191ad36892</stp>
-        <tr r="D15" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c5f94c20-c9d7-46b4-a943-392c6b223a28</stp>
-        <tr r="C58" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bbf13862-161e-42cd-9c01-25c9728307ec</stp>
-        <tr r="C57" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>99d167d5-6a0d-4581-8cbb-f321c676bab0</stp>
-        <tr r="H15" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7363c905-0a66-4971-8d7e-aa576c2011f1</stp>
-        <tr r="E2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d197b029-73e6-4dec-9e16-58b0109aac6b</stp>
-        <tr r="C29" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8462b8f3-0323-4655-8814-f4ab01990123</stp>
-        <tr r="E12" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4e84c386-d345-4258-9fd9-fba3194909ea</stp>
-        <tr r="C60" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>91b3c5a2-c90f-49f6-835d-b80c267ddfc6</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>be2b83dc-5415-4eae-adea-b31ad9cbfedf</stp>
-        <tr r="C65" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b8a19f73-d256-4ba2-85d9-9122d4f3be9c</stp>
-        <tr r="F7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>072e744e-e231-4a8e-95a0-f0e0099e4fed</stp>
-        <tr r="D5" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>82a6eec6-6f22-495a-8881-84069b8bdcc2</stp>
-        <tr r="D17" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d416b846-70e5-405f-9a5f-fc54fe12ecc3</stp>
-        <tr r="F17" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>302c6e7f-ec6e-4a29-adc5-83538abc0547</stp>
-        <tr r="B15" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1e7aa0b5-7593-4f0b-b35d-296d05a6f4c1</stp>
-        <tr r="C5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>849f0f37-c833-4f86-8654-958a1303c9b6</stp>
-        <tr r="J5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6601fd80-d4a2-426d-8c2b-4a34d936654b</stp>
-        <tr r="C51" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>36143f0f-fc11-4665-8d7d-980c950864c5</stp>
-        <tr r="F9" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8832ef3a-4371-43bd-aa2f-9c6077a42ed3</stp>
-        <tr r="C7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7f8e0e1d-d201-4f0d-808c-04d21ace0dc9</stp>
-        <tr r="G9" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>07ce694b-483c-4620-ad69-114ac2f19535</stp>
-        <tr r="G5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>ba7cc751-47a8-4fe1-9104-b3514bbf68fe</stp>
-        <tr r="G7" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7d163689-79c2-41de-9bc8-d8b2b2f37ccd</stp>
-        <tr r="C50" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>71717518-75ba-40d5-836b-886142e660ae</stp>
-        <tr r="C52" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e39b83aa-0779-4c04-96dc-66e699e33d45</stp>
-        <tr r="C64" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>67e1fdd7-85cb-46db-81d5-e1b3da4da6ad</stp>
-        <tr r="C49" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>91b65b9f-7ee5-40b5-898c-2ee8e1937675</stp>
-        <tr r="J2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>51e2a099-ce8a-42b8-acf8-4bdfcdb73148</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a4fa66d1-dfcd-4e49-9ded-d299ab523bc5</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>aca75321-abdd-47d0-ad09-a55e096195a8</stp>
-        <tr r="E18" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>df0673e4-faf2-41f4-ae86-f1d656047008</stp>
-        <tr r="B2" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1d09cafd-5082-45c7-9649-8434380476d8</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>442ce738-a1d3-4ee0-a18f-8d335eb53b0d</stp>
-        <tr r="C40" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b3ad6d2f-80a9-4a37-832e-2ed8a472f2b3</stp>
-        <tr r="C70" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>15879585-d743-4572-b99b-400572d97d7c</stp>
-        <tr r="L2" s="2"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a19b09f5-6bd1-420d-b95b-218d76199afe</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c56098ea-1a46-48a6-afac-82ac26170f1a</stp>
-        <tr r="C46" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.8791ca67306847e0aee38c99b0a57010">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>dab9c041-2058-412e-9196-20d92515a3e6</stp>
-        <tr r="C55" s="1"/>
       </tp>
     </main>
   </volType>
@@ -2066,7 +2065,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,7 +2079,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -2094,10 +2093,10 @@
       </c>
       <c r="C3">
         <f>+_xll.YahooQuote(B$1,$B3)</f>
-        <v>67.430000000000007</v>
+        <v>55.75</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2111,10 +2110,10 @@
       </c>
       <c r="C4">
         <f>+_xll.YahooQuote(B$1,$B4)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2128,14 +2127,14 @@
       </c>
       <c r="C5">
         <f>+_xll.YahooQuote(B$1,$B5)</f>
-        <v>11098800</v>
+        <v>14333337</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <f>+_xll.YahooQuote("ibm")</f>
-        <v>144.35</v>
+        <v>141.13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2149,10 +2148,10 @@
       </c>
       <c r="C6">
         <f>+_xll.YahooQuote(B$1,$B6)</f>
-        <v>16152293</v>
+        <v>12549578</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2166,10 +2165,10 @@
       </c>
       <c r="C7">
         <f>+_xll.YahooQuote(B$1,$B7)</f>
-        <v>67.33</v>
+        <v>55.6</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2183,10 +2182,10 @@
       </c>
       <c r="C8">
         <f>+_xll.YahooQuote(B$1,$B8)</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2200,10 +2199,10 @@
       </c>
       <c r="C9">
         <f>+_xll.YahooQuote(B$1,$B9)</f>
-        <v>75.052999999999997</v>
+        <v>5.593</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2220,7 +2219,7 @@
         <v>USD</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2234,22 +2233,22 @@
       </c>
       <c r="C11">
         <f>+_xll.YahooQuote(B$1,$B11)</f>
-        <v>1550793600</v>
+        <v>1571875200</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="9">
         <f>_xll.UnixSecondsToTime($C11,"UTC")</f>
-        <v>43518</v>
+        <v>43762</v>
       </c>
       <c r="J11" s="9">
         <f>_xll.UnixSecondsToTime($C11)</f>
-        <v>43518.333333333336</v>
+        <v>43762.333333333336</v>
       </c>
       <c r="K11" s="9">
         <f>_xll.UnixSecondsToTime($C11,"America/New_York")</f>
-        <v>43517.791666666664</v>
+        <v>43761.833333333336</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2263,22 +2262,22 @@
       </c>
       <c r="C12">
         <f>+_xll.YahooQuote(B$1,$B12)</f>
-        <v>1555331400</v>
+        <v>1568343600</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="9">
         <f>_xll.UnixSecondsToTime($C12,"UTC")</f>
-        <v>43570.520833333336</v>
+        <v>43721.125</v>
       </c>
       <c r="J12" s="9">
         <f>_xll.UnixSecondsToTime($C12)</f>
-        <v>43570.854166666664</v>
+        <v>43721.458333333336</v>
       </c>
       <c r="K12" s="9">
         <f>_xll.UnixSecondsToTime($C12,"America/New_York")</f>
-        <v>43570.354166666664</v>
+        <v>43720.958333333336</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2292,22 +2291,22 @@
       </c>
       <c r="C13">
         <f>+_xll.YahooQuote(B$1,$B13)</f>
-        <v>1468859400</v>
+        <v>1576861200</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="9">
         <f>_xll.UnixSecondsToTime($C13,"UTC")</f>
-        <v>42569.6875</v>
+        <v>43819.708333333336</v>
       </c>
       <c r="J13" s="9">
         <f>_xll.UnixSecondsToTime($C13)</f>
-        <v>42570.020833333336</v>
+        <v>43820.041666666664</v>
       </c>
       <c r="K13" s="9">
         <f>_xll.UnixSecondsToTime($C13,"America/New_York")</f>
-        <v>42569.520833333336</v>
+        <v>43819.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2321,22 +2320,22 @@
       </c>
       <c r="C14">
         <f>+_xll.YahooQuote(B$1,$B14)</f>
-        <v>1468513800</v>
+        <v>1576511940</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="9">
         <f>_xll.UnixSecondsToTime($C14,"UTC")</f>
-        <v>42565.6875</v>
+        <v>43815.665972222225</v>
       </c>
       <c r="J14" s="9">
         <f>_xll.UnixSecondsToTime($C14)</f>
-        <v>42566.020833333336</v>
+        <v>43815.999305555553</v>
       </c>
       <c r="K14" s="9">
         <f>_xll.UnixSecondsToTime($C14,"America/New_York")</f>
-        <v>42565.520833333336</v>
+        <v>43815.457638888889</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2350,10 +2349,10 @@
       </c>
       <c r="C15">
         <f>+_xll.YahooQuote(B$1,$B15)</f>
-        <v>8.49</v>
+        <v>4.22</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2367,10 +2366,10 @@
       </c>
       <c r="C16">
         <f>+_xll.YahooQuote(B$1,$B16)</f>
-        <v>6.6870000000000003</v>
+        <v>3.0550000000000002</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2387,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2404,7 +2403,7 @@
         <v>NYQ</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2421,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2438,7 +2437,7 @@
         <v>America/New_York</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2455,7 +2454,7 @@
         <v>EDT</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2469,10 +2468,10 @@
       </c>
       <c r="C22">
         <f>+_xll.YahooQuote(B$1,$B22)</f>
-        <v>63.786667000000001</v>
+        <v>53.529429999999998</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2486,10 +2485,10 @@
       </c>
       <c r="C23">
         <f>+_xll.YahooQuote(B$1,$B23)</f>
-        <v>3.6333313</v>
+        <v>1.9605713</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2503,10 +2502,10 @@
       </c>
       <c r="C24">
         <f>+_xll.YahooQuote(B$1,$B24)</f>
-        <v>5.6960669999999998E-2</v>
+        <v>3.6626045000000003E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2520,10 +2519,10 @@
       </c>
       <c r="C25">
         <f>+_xll.YahooQuote(B$1,$B25)</f>
-        <v>75.239999999999995</v>
+        <v>60.5</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2537,10 +2536,10 @@
       </c>
       <c r="C26">
         <f>+_xll.YahooQuote(B$1,$B26)</f>
-        <v>-7.8199997000000003</v>
+        <v>-5.0099983000000003</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2554,10 +2553,10 @@
       </c>
       <c r="C27">
         <f>+_xll.YahooQuote(B$1,$B27)</f>
-        <v>-0.10393408</v>
+        <v>-8.2809889999999997E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2571,10 +2570,10 @@
       </c>
       <c r="C28">
         <f>+_xll.YahooQuote(B$1,$B28)</f>
-        <v>48.42</v>
+        <v>42.4</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2588,10 +2587,10 @@
       </c>
       <c r="C29">
         <f>+_xll.YahooQuote(B$1,$B29)</f>
-        <v>19</v>
+        <v>13.09</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2605,10 +2604,10 @@
       </c>
       <c r="C30">
         <f>+_xll.YahooQuote(B$1,$B30)</f>
-        <v>0.39239984999999999</v>
+        <v>0.30872640000000001</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2622,10 +2621,10 @@
       </c>
       <c r="C31" t="str">
         <f>+_xll.YahooQuote(B$1,$B31)</f>
-        <v>48.42 - 75.24</v>
+        <v>42.4 - 60.5</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2642,7 +2641,7 @@
         <v>USD</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2656,10 +2655,10 @@
       </c>
       <c r="C33">
         <f>+_xll.YahooQuote(B$1,$B33)</f>
-        <v>7.9411072999999996</v>
+        <v>13.149290000000001</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2676,7 +2675,7 @@
         <v>NYSE</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2693,7 +2692,7 @@
         <v>-14400000</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2710,7 +2709,7 @@
         <v>en-US</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2724,10 +2723,10 @@
       </c>
       <c r="C37" t="str">
         <f>+_xll.YahooQuote(B$1,$B37)</f>
-        <v>Citigroup Inc.</v>
+        <v>Oracle Corporation</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2744,7 +2743,7 @@
         <v>us_market</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2758,10 +2757,10 @@
       </c>
       <c r="C39">
         <f>+_xll.YahooQuote(B$1,$B39)</f>
-        <v>157795827712</v>
+        <v>182147039232</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2775,10 +2774,10 @@
       </c>
       <c r="C40" t="str">
         <f>+_xll.YahooQuote(B$1,$B40)</f>
-        <v>POSTPOST</v>
+        <v>PREPRE</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2792,10 +2791,10 @@
       </c>
       <c r="C41" t="str">
         <f>+_xll.YahooQuote(B$1,$B41)</f>
-        <v>finmb_391687</v>
+        <v>finmb_22247</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2809,10 +2808,10 @@
       </c>
       <c r="C42">
         <f>+_xll.YahooQuote(B$1,$B42)</f>
-        <v>-6.9999695000000001E-2</v>
+        <v>0.10999679599999999</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2826,10 +2825,10 @@
       </c>
       <c r="C43">
         <f>+_xll.YahooQuote(B$1,$B43)</f>
-        <v>-0.10382631</v>
+        <v>0.19822814</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2843,10 +2842,10 @@
       </c>
       <c r="C44">
         <f>+_xll.YahooQuote(B$1,$B44)</f>
-        <v>67.349999999999994</v>
+        <v>55.6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2860,10 +2859,10 @@
       </c>
       <c r="C45">
         <f>+_xll.YahooQuote(B$1,$B45)</f>
-        <v>1555113459</v>
+        <v>1570751442</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2880,7 +2879,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2894,10 +2893,10 @@
       </c>
       <c r="C47">
         <f>+_xll.YahooQuote(B$1,$B47)</f>
-        <v>0.8982985</v>
+        <v>9.9213299999999993</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2911,10 +2910,10 @@
       </c>
       <c r="C48" t="str">
         <f>+_xll.YahooQuote(B$1,$B48)</f>
-        <v>Nasdaq Real Time Price</v>
+        <v>Delayed Quote</v>
       </c>
       <c r="E48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2931,7 +2930,7 @@
         <v>EQUITY</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2948,7 +2947,7 @@
         <v>US</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2962,10 +2961,10 @@
       </c>
       <c r="C51">
         <f>+_xll.YahooQuote(B$1,$B51)</f>
-        <v>1.5099944999999999</v>
+        <v>0.96000289999999999</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2979,10 +2978,10 @@
       </c>
       <c r="C52">
         <f>+_xll.YahooQuote(B$1,$B52)</f>
-        <v>2.2909944000000002</v>
+        <v>1.7605042</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2996,10 +2995,10 @@
       </c>
       <c r="C53">
         <f>+_xll.YahooQuote(B$1,$B53)</f>
-        <v>68.305000000000007</v>
+        <v>55.6</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -3013,10 +3012,10 @@
       </c>
       <c r="C54">
         <f>+_xll.YahooQuote(B$1,$B54)</f>
-        <v>66.635000000000005</v>
+        <v>54.35</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -3030,10 +3029,10 @@
       </c>
       <c r="C55" t="str">
         <f>+_xll.YahooQuote(B$1,$B55)</f>
-        <v>66.635 - 68.305</v>
+        <v>54.35 - 55.6</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -3047,10 +3046,10 @@
       </c>
       <c r="C56">
         <f>+_xll.YahooQuote(B$1,$B56)</f>
-        <v>67.08</v>
+        <v>54.45</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -3064,10 +3063,10 @@
       </c>
       <c r="C57">
         <f>+_xll.YahooQuote(B$1,$B57)</f>
-        <v>65.91</v>
+        <v>54.53</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3081,10 +3080,10 @@
       </c>
       <c r="C58">
         <f>+_xll.YahooQuote(B$1,$B58)</f>
-        <v>67.42</v>
+        <v>55.49</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -3098,10 +3097,10 @@
       </c>
       <c r="C59">
         <f>+_xll.YahooQuote(B$1,$B59)</f>
-        <v>1555099219</v>
+        <v>1570737778</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I59" s="9"/>
     </row>
@@ -3116,10 +3115,10 @@
       </c>
       <c r="C60">
         <f>+_xll.YahooQuote(B$1,$B60)</f>
-        <v>19238667</v>
+        <v>13609318</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J60" s="9"/>
     </row>
@@ -3134,10 +3133,10 @@
       </c>
       <c r="C61">
         <f>+_xll.YahooQuote(B$1,$B61)</f>
-        <v>2340489984</v>
+        <v>3288329984</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3151,10 +3150,10 @@
       </c>
       <c r="C62" t="str">
         <f>+_xll.YahooQuote(B$1,$B62)</f>
-        <v>Citigroup, Inc.</v>
+        <v>Oracle Corporation</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I62" s="9"/>
     </row>
@@ -3172,11 +3171,11 @@
         <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I63" s="9">
         <f>_xll.UnixSecondsToTime($C$59,"UTC")</f>
-        <v>43567.833553240744</v>
+        <v>43748.835393518515</v>
       </c>
       <c r="J63" s="9"/>
     </row>
@@ -3191,14 +3190,14 @@
       </c>
       <c r="C64" t="str">
         <f>+_xll.YahooQuote(B$1,$B64)</f>
-        <v>C</v>
+        <v>ORCL</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I64" s="9">
         <f>_xll.UnixSecondsToTime($C$59)</f>
-        <v>43568.166886574072</v>
+        <v>43749.168726851851</v>
       </c>
       <c r="J64" s="9"/>
     </row>
@@ -3216,11 +3215,11 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I65" s="9">
         <f>_xll.UnixSecondsToTime($C$59,"America/New_York")</f>
-        <v>43567.666886574072</v>
+        <v>43748.668726851851</v>
       </c>
       <c r="J65" s="9"/>
     </row>
@@ -3235,10 +3234,10 @@
       </c>
       <c r="C66">
         <f>+_xll.YahooQuote(B$1,$B66)</f>
-        <v>1.54</v>
+        <v>0.86</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3252,10 +3251,10 @@
       </c>
       <c r="C67">
         <f>+_xll.YahooQuote(B$1,$B67)</f>
-        <v>2.3365193999999999E-2</v>
+        <v>1.5771136000000002E-2</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3269,10 +3268,10 @@
       </c>
       <c r="C68">
         <f>+_xll.YahooQuote(B$1,$B68)</f>
-        <v>10.08225</v>
+        <v>18.163665999999999</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3282,14 +3281,14 @@
       </c>
       <c r="B69" t="str">
         <f>+_xll.YahooQuote(B$1,$A69)</f>
-        <v>TwoHundredDayAverage</v>
-      </c>
-      <c r="C69">
+        <v>Triggerable</v>
+      </c>
+      <c r="C69" t="b">
         <f>+_xll.YahooQuote(B$1,$B69)</f>
-        <v>63.272015000000003</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3299,14 +3298,14 @@
       </c>
       <c r="B70" t="str">
         <f>+_xll.YahooQuote(B$1,$A70)</f>
-        <v>TwoHundredDayAverageChange</v>
+        <v>TwoHundredDayAverage</v>
       </c>
       <c r="C70">
         <f>+_xll.YahooQuote(B$1,$B70)</f>
-        <v>4.1479835999999999</v>
+        <v>54.600143000000003</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3316,14 +3315,14 @@
       </c>
       <c r="B71" t="str">
         <f>+_xll.YahooQuote(B$1,$A71)</f>
-        <v>TwoHundredDayAverageChangePercent</v>
+        <v>TwoHundredDayAverageChange</v>
       </c>
       <c r="C71">
         <f>+_xll.YahooQuote(B$1,$B71)</f>
-        <v>6.5557950000000004E-2</v>
+        <v>0.88985824999999996</v>
       </c>
       <c r="E71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3333,11 +3332,11 @@
       </c>
       <c r="B72" t="str">
         <f>+_xll.YahooQuote(B$1,$A72)</f>
-        <v>Invalid field index: 69.</v>
-      </c>
-      <c r="C72" t="str">
+        <v>TwoHundredDayAverageChangePercent</v>
+      </c>
+      <c r="C72">
         <f>+_xll.YahooQuote(B$1,$B72)</f>
-        <v>Field not found: "Invalid field index: 69.".</v>
+        <v>1.6297728000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3430,31 +3429,31 @@
       </c>
       <c r="F2" s="5">
         <f>_xll.YahooQuote($A2,F$1)</f>
-        <v>24.81</v>
+        <v>24.77</v>
       </c>
       <c r="G2" s="5">
         <f>_xll.YahooQuote($A2,G$1)</f>
-        <v>24.79</v>
+        <v>24.76</v>
       </c>
       <c r="H2" s="5">
         <f>_xll.YahooQuote($A2,H$1)</f>
-        <v>24.8</v>
+        <v>24.77</v>
       </c>
       <c r="I2" s="6">
         <f>_xll.YahooQuote($A2,I$1)</f>
-        <v>8576816640</v>
+        <v>8728947712</v>
       </c>
       <c r="J2" s="6">
         <f>_xll.YahooQuote($A2,J$1)*F2</f>
-        <v>38454433.169999994</v>
+        <v>50122639.939999998</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:K10" si="0">+I2/J2</f>
-        <v>223.03843622095448</v>
+        <v>174.15179492638671</v>
       </c>
       <c r="L2" s="7">
         <f>_xll.YahooQuote($A2,L$1)</f>
-        <v>2.4321038E-2</v>
+        <v>2.4301336999999999E-2</v>
       </c>
       <c r="M2">
         <v>18</v>
@@ -3482,31 +3481,31 @@
       </c>
       <c r="F3" s="5">
         <f>_xll.YahooQuote($A3,F$1)</f>
-        <v>26.23</v>
+        <v>26.135000000000002</v>
       </c>
       <c r="G3" s="5">
         <f>_xll.YahooQuote($A3,G$1)</f>
-        <v>26.22</v>
+        <v>26.12</v>
       </c>
       <c r="H3" s="5">
         <f>_xll.YahooQuote($A3,H$1)</f>
-        <v>26.25</v>
+        <v>26.13</v>
       </c>
       <c r="I3" s="6">
         <f>_xll.YahooQuote($A3,I$1)</f>
-        <v>5138457088</v>
+        <v>5658227712</v>
       </c>
       <c r="J3" s="6">
         <f>_xll.YahooQuote($A3,J$1)*F3</f>
-        <v>3791415.35</v>
+        <v>19174988.150000002</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="0"/>
-        <v>1355.2873039879421</v>
+        <v>295.08376577536501</v>
       </c>
       <c r="L3" s="7">
         <f>_xll.YahooQuote($A3,L$1)</f>
-        <v>2.5229707000000001E-2</v>
+        <v>2.5287798E-2</v>
       </c>
       <c r="M3">
         <v>6</v>
@@ -3534,15 +3533,15 @@
       </c>
       <c r="F4" s="5">
         <f>_xll.YahooQuote($A4,F$1)</f>
-        <v>32.93</v>
+        <v>30.47</v>
       </c>
       <c r="G4" s="5">
         <f>_xll.YahooQuote($A4,G$1)</f>
-        <v>32.950000000000003</v>
+        <v>30.42</v>
       </c>
       <c r="H4" s="5">
         <f>_xll.YahooQuote($A4,H$1)</f>
-        <v>32.950000000000003</v>
+        <v>30.55</v>
       </c>
       <c r="I4" s="6" t="str">
         <f>_xll.YahooQuote($A4,I$1)</f>
@@ -3550,7 +3549,7 @@
       </c>
       <c r="J4" s="6">
         <f>_xll.YahooQuote($A4,J$1)*F4</f>
-        <v>81534.679999999993</v>
+        <v>80501.739999999991</v>
       </c>
       <c r="K4" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3586,15 +3585,15 @@
       </c>
       <c r="F5" s="5">
         <f>_xll.YahooQuote($A5,F$1)</f>
-        <v>30.73</v>
+        <v>29.77</v>
       </c>
       <c r="G5" s="5">
         <f>_xll.YahooQuote($A5,G$1)</f>
-        <v>30.72</v>
+        <v>29.69</v>
       </c>
       <c r="H5" s="5">
         <f>_xll.YahooQuote($A5,H$1)</f>
-        <v>30.74</v>
+        <v>29.77</v>
       </c>
       <c r="I5" s="6" t="str">
         <f>_xll.YahooQuote($A5,I$1)</f>
@@ -3602,7 +3601,7 @@
       </c>
       <c r="J5" s="6">
         <f>_xll.YahooQuote($A5,J$1)*F5</f>
-        <v>1108000.8800000001</v>
+        <v>483702.96</v>
       </c>
       <c r="K5" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3638,15 +3637,15 @@
       </c>
       <c r="F6" s="5">
         <f>_xll.YahooQuote($A6,F$1)</f>
-        <v>52.53</v>
+        <v>52.21</v>
       </c>
       <c r="G6" s="5">
         <f>_xll.YahooQuote($A6,G$1)</f>
-        <v>52.5</v>
+        <v>52.23</v>
       </c>
       <c r="H6" s="5">
         <f>_xll.YahooQuote($A6,H$1)</f>
-        <v>52.6</v>
+        <v>52.27</v>
       </c>
       <c r="I6" s="6" t="str">
         <f>_xll.YahooQuote($A6,I$1)</f>
@@ -3654,7 +3653,7 @@
       </c>
       <c r="J6" s="6">
         <f>_xll.YahooQuote($A6,J$1)*F6</f>
-        <v>169251.66</v>
+        <v>3870379.5100000002</v>
       </c>
       <c r="K6" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3690,11 +3689,11 @@
       </c>
       <c r="F7" s="5">
         <f>_xll.YahooQuote($A7,F$1)</f>
-        <v>29.65</v>
+        <v>29.58</v>
       </c>
       <c r="G7" s="5">
         <f>_xll.YahooQuote($A7,G$1)</f>
-        <v>29.63</v>
+        <v>29.51</v>
       </c>
       <c r="H7" s="5">
         <f>_xll.YahooQuote($A7,H$1)</f>
@@ -3706,7 +3705,7 @@
       </c>
       <c r="J7" s="6">
         <f>_xll.YahooQuote($A7,J$1)*F7</f>
-        <v>644413.1</v>
+        <v>602189.64</v>
       </c>
       <c r="K7" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3742,15 +3741,15 @@
       </c>
       <c r="F8" s="5">
         <f>_xll.YahooQuote($A8,F$1)</f>
-        <v>48.16</v>
+        <v>48.77</v>
       </c>
       <c r="G8" s="5">
         <f>_xll.YahooQuote($A8,G$1)</f>
-        <v>48.14</v>
+        <v>48.63</v>
       </c>
       <c r="H8" s="5">
         <f>_xll.YahooQuote($A8,H$1)</f>
-        <v>48.16</v>
+        <v>48.87</v>
       </c>
       <c r="I8" s="6" t="str">
         <f>_xll.YahooQuote($A8,I$1)</f>
@@ -3758,7 +3757,7 @@
       </c>
       <c r="J8" s="6">
         <f>_xll.YahooQuote($A8,J$1)*F8</f>
-        <v>714068.32</v>
+        <v>1371266.09</v>
       </c>
       <c r="K8" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3794,15 +3793,15 @@
       </c>
       <c r="F9" s="5">
         <f>_xll.YahooQuote($A9,F$1)</f>
-        <v>26.65</v>
+        <v>26.18</v>
       </c>
       <c r="G9" s="5">
         <f>_xll.YahooQuote($A9,G$1)</f>
-        <v>26.65</v>
+        <v>26.14</v>
       </c>
       <c r="H9" s="5">
         <f>_xll.YahooQuote($A9,H$1)</f>
-        <v>26.67</v>
+        <v>26.18</v>
       </c>
       <c r="I9" s="6" t="str">
         <f>_xll.YahooQuote($A9,I$1)</f>
@@ -3810,7 +3809,7 @@
       </c>
       <c r="J9" s="6">
         <f>_xll.YahooQuote($A9,J$1)*F9</f>
-        <v>1149174.6499999999</v>
+        <v>576823.93999999994</v>
       </c>
       <c r="K9" s="6" t="e">
         <f t="shared" si="0"/>
@@ -3879,7 +3878,7 @@
       </c>
       <c r="B12" s="1" t="str">
         <f>_xll.YahooQuote($A12,B$1)</f>
-        <v>Horizons S&amp;amp;P/TSX 60 Index ETF</v>
+        <v>Horizons S&amp;P/TSX 60 Index ETF</v>
       </c>
       <c r="C12" t="str">
         <f>_xll.YahooQuote($A12,C$1)</f>
@@ -3895,15 +3894,15 @@
       </c>
       <c r="F12" s="5">
         <f>_xll.YahooQuote($A12,F$1)</f>
-        <v>35.729999999999997</v>
+        <v>36.229999999999997</v>
       </c>
       <c r="G12" s="5">
         <f>_xll.YahooQuote($A12,G$1)</f>
-        <v>35.74</v>
+        <v>36.21</v>
       </c>
       <c r="H12" s="5">
         <f>_xll.YahooQuote($A12,H$1)</f>
-        <v>35.75</v>
+        <v>36.26</v>
       </c>
       <c r="I12" s="6" t="str">
         <f>_xll.YahooQuote($A12,I$1)</f>
@@ -3911,7 +3910,7 @@
       </c>
       <c r="J12" s="6">
         <f>_xll.YahooQuote($A12,J$1)*F12</f>
-        <v>7778456.7299999995</v>
+        <v>5438883.8299999991</v>
       </c>
       <c r="K12" s="6" t="e">
         <f>+I12/J12</f>
@@ -3931,7 +3930,7 @@
       </c>
       <c r="B13" t="str">
         <f>_xll.YahooQuote($A13,B$1)</f>
-        <v>Horizons S&amp;amp;P 500 Index ETF</v>
+        <v>Horizons S&amp;P 500 Index ETF</v>
       </c>
       <c r="C13" t="str">
         <f>_xll.YahooQuote($A13,C$1)</f>
@@ -3947,15 +3946,15 @@
       </c>
       <c r="F13" s="5">
         <f>_xll.YahooQuote($A13,F$1)</f>
-        <v>74.08</v>
+        <v>75.3</v>
       </c>
       <c r="G13" s="5">
         <f>_xll.YahooQuote($A13,G$1)</f>
-        <v>74.069999999999993</v>
+        <v>75.23</v>
       </c>
       <c r="H13" s="5">
         <f>_xll.YahooQuote($A13,H$1)</f>
-        <v>74.150000000000006</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="I13" s="6" t="str">
         <f>_xll.YahooQuote($A13,I$1)</f>
@@ -3963,7 +3962,7 @@
       </c>
       <c r="J13" s="6">
         <f>_xll.YahooQuote($A13,J$1)*F13</f>
-        <v>392920.32000000001</v>
+        <v>631390.5</v>
       </c>
       <c r="K13" s="6" t="e">
         <f>+I13/J13</f>
@@ -3999,15 +3998,15 @@
       </c>
       <c r="F15" s="5">
         <f>_xll.YahooQuote($A15,F$1)</f>
-        <v>33.29</v>
+        <v>33.06</v>
       </c>
       <c r="G15" s="5">
         <f>_xll.YahooQuote($A15,G$1)</f>
-        <v>33.28</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="H15" s="5">
         <f>_xll.YahooQuote($A15,H$1)</f>
-        <v>33.32</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="I15" s="6" t="str">
         <f>_xll.YahooQuote($A15,I$1)</f>
@@ -4015,7 +4014,7 @@
       </c>
       <c r="J15" s="6">
         <f>_xll.YahooQuote($A15,J$1)*F15</f>
-        <v>1275273.32</v>
+        <v>558747.06000000006</v>
       </c>
       <c r="K15" s="6" t="e">
         <f>+I15/J15</f>
@@ -4051,15 +4050,15 @@
       </c>
       <c r="F16" s="5">
         <f>_xll.YahooQuote($A16,F$1)</f>
-        <v>68.77</v>
+        <v>69.27</v>
       </c>
       <c r="G16" s="5">
         <f>_xll.YahooQuote($A16,G$1)</f>
-        <v>68.739999999999995</v>
+        <v>69.3</v>
       </c>
       <c r="H16" s="5">
         <f>_xll.YahooQuote($A16,H$1)</f>
-        <v>68.790000000000006</v>
+        <v>69.319999999999993</v>
       </c>
       <c r="I16" s="6" t="str">
         <f>_xll.YahooQuote($A16,I$1)</f>
@@ -4067,7 +4066,7 @@
       </c>
       <c r="J16" s="6">
         <f>_xll.YahooQuote($A16,J$1)*F16</f>
-        <v>6079474.3099999996</v>
+        <v>4288367.16</v>
       </c>
       <c r="K16" s="6" t="e">
         <f>+I16/J16</f>
@@ -4103,15 +4102,15 @@
       </c>
       <c r="F17" s="5">
         <f>_xll.YahooQuote($A17,F$1)</f>
-        <v>28.2</v>
+        <v>27.05</v>
       </c>
       <c r="G17" s="5">
         <f>_xll.YahooQuote($A17,G$1)</f>
-        <v>28.2</v>
+        <v>27.04</v>
       </c>
       <c r="H17" s="5">
         <f>_xll.YahooQuote($A17,H$1)</f>
-        <v>28.23</v>
+        <v>27.15</v>
       </c>
       <c r="I17" s="6" t="str">
         <f>_xll.YahooQuote($A17,I$1)</f>
@@ -4119,7 +4118,7 @@
       </c>
       <c r="J17" s="6">
         <f>_xll.YahooQuote($A17,J$1)*F17</f>
-        <v>811342.2</v>
+        <v>357925.60000000003</v>
       </c>
       <c r="K17" s="6" t="e">
         <f>+I17/J17</f>
@@ -4155,15 +4154,15 @@
       </c>
       <c r="F18" s="5">
         <f>_xll.YahooQuote($A18,F$1)</f>
-        <v>35.020000000000003</v>
+        <v>32.42</v>
       </c>
       <c r="G18" s="5">
         <f>_xll.YahooQuote($A18,G$1)</f>
-        <v>35.03</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="H18" s="5">
         <f>_xll.YahooQuote($A18,H$1)</f>
-        <v>35.049999999999997</v>
+        <v>32.43</v>
       </c>
       <c r="I18" s="6" t="str">
         <f>_xll.YahooQuote($A18,I$1)</f>
@@ -4171,7 +4170,7 @@
       </c>
       <c r="J18" s="6">
         <f>_xll.YahooQuote($A18,J$1)*F18</f>
-        <v>1192431</v>
+        <v>1020095.3</v>
       </c>
       <c r="K18" s="6" t="e">
         <f t="shared" ref="K18" si="1">+I18/J18</f>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prg\myProjects\GitHub\YahooXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928CDA2E-39ED-4AD0-8355-07BBF441CCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3C260-D916-4827-A56E-7A241BE20CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="10200" windowWidth="28790" windowHeight="10210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Example" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -238,1160 +237,1152 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>2117754c-239e-4820-8bcc-b7f3a72f1f99</stp>
-        <tr r="C38" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>f22fa10b-1f3f-4057-8053-212617b66521</stp>
-        <tr r="B101" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e152e53e-576f-4a07-a0bc-5b499ac0dd13</stp>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>105e979d-a9d6-42e8-8cb9-a2d22b359051</stp>
+        <tr r="C98" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>466d19f0-7b22-4722-979d-a466ec104831</stp>
+        <tr r="C54" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d2e20783-21ca-4f0a-bcc5-d1d069f47abf</stp>
+        <tr r="C5" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8d557863-39a6-4bbe-a4c1-8a242b0da62c</stp>
+        <tr r="D6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b2698c9a-7f7f-4305-bcab-4bd4580bf511</stp>
+        <tr r="C41" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>838f15e0-8973-4bdf-9735-4c30f1147d0e</stp>
+        <tr r="B8" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a3625be6-609e-4fbe-a2d2-9dcfffa18944</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e68772d7-4d5e-4042-8368-248f2e68787a</stp>
         <tr r="D3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>cc325a24-47ad-455a-9843-d3e82aa0f2bc</stp>
-        <tr r="C78" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>76243938-a620-443e-8f9c-e55b00b4b4e0</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>66c33228-5b18-443d-ade4-8532de7aeb06</stp>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b0d3fd17-ad09-4f3e-a693-4a5497e68a94</stp>
+        <tr r="C80" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>10895ae8-7562-4dab-b0d5-fdf709ba0c57</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ff2230d4-668e-4ad9-8f42-f324277f776f</stp>
+        <tr r="E5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>375a8952-bb60-467c-8e77-fa3c4b191e39</stp>
+        <tr r="J8" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>25631f8a-5bdd-418f-bc90-aa98318637e0</stp>
+        <tr r="C53" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>494f2f96-4a17-42ac-8939-656025ed9e7d</stp>
+        <tr r="C34" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>810453bf-bd10-4907-9589-b9cec11f1828</stp>
+        <tr r="C74" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f9f91170-9f87-4c22-9637-08a70e23527b</stp>
+        <tr r="C63" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>05a01d60-cf5c-4282-b1ec-450546cc99d5</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9150ce6c-86f6-4309-addf-ffc8181470f1</stp>
+        <tr r="C55" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2db18c46-0953-42e3-8e84-1daed038f702</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d0678f25-6c8e-4f01-a692-4f9f857b7dd7</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>41bde1ec-f11a-4f6b-b341-2b48e897f2d0</stp>
+        <tr r="C33" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d60434dd-21d7-41fe-aba1-f43149d91ace</stp>
+        <tr r="K5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4d136c2d-fa81-4d3e-a4d9-cb4f7c49399b</stp>
+        <tr r="H7" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c721e752-b2e1-478d-9c96-d57fa13fbcb6</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9e8b697b-a42d-4667-a9ee-21f3627b5408</stp>
+        <tr r="J7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a9e6e742-97ea-49ed-99a1-7844cac42339</stp>
+        <tr r="C76" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>38412531-3a58-4cf7-ad06-1ec795dbb03d</stp>
         <tr r="E3" s="2"/>
       </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>41272958-306f-4299-a66e-2c4e6b1e27e4</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>4f5fd6db-5b96-497c-867a-53607427249c</stp>
-        <tr r="C26" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>0068e10e-aab3-4122-8be6-de2c8ead25c4</stp>
-        <tr r="C87" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>3cf775e5-7be6-4fa4-8b2f-8fdbae171f2b</stp>
-        <tr r="K4" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>1045167b-0bd1-4846-bec4-10b113abeb6b</stp>
-        <tr r="F5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>07870706-6b55-41c8-a286-026204b3b137</stp>
-        <tr r="B4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e5778585-c350-481f-8069-dcc51ddea5c4</stp>
-        <tr r="C55" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>d2fede80-4e56-4cea-98ff-02bb84099b55</stp>
-        <tr r="C24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>13aa4e9d-21ac-4eb1-960c-21cb1fa92209</stp>
-        <tr r="K5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>dac7d0fe-afab-43f4-9b48-f33b8113b2d3</stp>
-        <tr r="C47" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>87eb84b2-50c7-4d25-8858-e9fe363b79fb</stp>
-        <tr r="J5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>168c0f9a-1ecc-4ae0-8261-2ad2c6c590d7</stp>
-        <tr r="I6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a447e4a2-ef24-4f2c-a5c7-62136e828508</stp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1b7dfa78-8c16-40f6-82fa-7c9bbec784a0</stp>
+        <tr r="C66" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>18352715-d26c-4e08-9154-c5a6888bf2bb</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a5e5f2c5-3d08-48dd-a48f-6a3fdb4ee211</stp>
+        <tr r="C45" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>784f06b2-6ee6-446f-80ff-f116e1520afc</stp>
+        <tr r="C75" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>20d6815b-f0f9-4955-8dde-e987adbe616e</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c65de7b7-68a1-42c7-a8de-49cc77f2207b</stp>
         <tr r="C79" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>06f412fe-c568-4f4f-8814-f4a8230c70e5</stp>
-        <tr r="F7" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>6c38e8b5-1767-47be-a767-4afb799d5fdc</stp>
-        <tr r="C5" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>b35ba0fb-5b7d-46e0-a4ce-57e13c15a6cb</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>88273d50-abb0-4a4b-9112-3f8dc898e72c</stp>
-        <tr r="C46" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>c2ca4c21-01e3-4936-a4a6-c041e8ea19cf</stp>
-        <tr r="J6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>3e09fb98-f96d-4399-a08d-cc2c64aa0163</stp>
-        <tr r="C32" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>fe6b0295-c0b2-4534-9daf-1091cc30a4cb</stp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d9bca3b1-182c-43be-a987-a6174322b97f</stp>
+        <tr r="C92" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>aad3650a-4ac5-4fec-a472-0ce9a9f7d454</stp>
+        <tr r="D12" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3df4b968-3331-4ea2-b6fe-2e57a7bde2fe</stp>
+        <tr r="C89" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1a7713eb-1c08-40a9-bb79-37d78e477d74</stp>
+        <tr r="H5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>88a990f8-1c8b-4080-93b0-36fed2af143a</stp>
+        <tr r="C40" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7a4998dd-6d7f-469e-b275-84cfafc7e4d0</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fc923a84-06fb-4315-abb1-39209343b4fb</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6ff81cdd-3779-40fb-8289-14c51b986a00</stp>
         <tr r="C6" s="2"/>
       </tp>
       <tp>
-        <v>4</v>
-        <stp/>
-        <stp>9baeecbe-f064-4636-ba2c-feaba3393358</stp>
-        <tr r="K7" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>12a85c77-f003-416d-926e-dc03b1c2e1ea</stp>
-        <tr r="H6" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>d3b4c13b-a62f-4ef0-bcbd-e4a36ed56f36</stp>
-        <tr r="C49" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e551d20c-c802-4fa3-8363-fc5bb40b20b8</stp>
-        <tr r="C64" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>15b3e742-bbb8-4c1b-9e4d-84835a65fe69</stp>
+        <v>3</v>
+        <stp/>
+        <stp>bc1da75e-e183-4fa3-8220-b516afae1834</stp>
         <tr r="E8" s="2"/>
       </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>41c27a89-6e9b-4b02-b374-a6de4f35c529</stp>
-        <tr r="C88" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>3877d125-bef7-4305-8194-fa6c12243226</stp>
-        <tr r="C89" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a6747e00-90c3-464d-9873-14f3b8c3d3f7</stp>
-        <tr r="B6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a188e051-6a7e-4423-9a07-df42e4dc9c63</stp>
-        <tr r="C58" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>9c11b8dc-9ba7-4777-a957-01023b756656</stp>
-        <tr r="H7" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c7b176e1-410a-4fe4-b8d7-9ef002cda74f</stp>
-        <tr r="C98" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>55bb35a4-061e-4b92-927d-62ea105f8254</stp>
-        <tr r="H8" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>1d6f6368-c384-420f-9c52-5dfe50cc860b</stp>
-        <tr r="D15" s="3"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e199a28e-f795-4710-b9d3-8f0774ca8f98</stp>
-        <tr r="G4" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>fe81fa36-579f-407a-9935-c6f62bb792be</stp>
-        <tr r="C54" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e5c7db38-2586-4c7e-91f2-f56c9586ac72</stp>
-        <tr r="K6" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>752f807d-5d37-4ef5-a3ee-8e5e0dea4d67</stp>
-        <tr r="C53" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>5ad47f0e-67d3-459e-8e29-55b22f9f119d</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>263ca021-5529-49dc-9abb-ef88da27d1a9</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>9dd5bc26-35fa-483f-a9dd-054adcbf8dc6</stp>
-        <tr r="H4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>bf95ed81-5efb-4df1-b214-109235e746e1</stp>
-        <tr r="C69" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>7eae67f6-c3df-413a-8e3d-15ed664fedcf</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e84f4fe4-844d-4e03-aa3d-e3d2e2367c42</stp>
-        <tr r="C72" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>c947cfef-7dee-4833-9873-ae849459561b</stp>
-        <tr r="C81" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>efc9b05e-a90c-43c3-9487-5c369e1121bc</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>70c9471b-9e26-438a-9e5c-606a83f43b8e</stp>
-        <tr r="C85" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>d177ccd4-9391-487f-a20e-da424152bf42</stp>
-        <tr r="E5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>10f074ad-0c81-44d8-9edd-c03320cddc8b</stp>
-        <tr r="C80" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>fe0b7132-8757-4f05-8186-d94222f9da25</stp>
-        <tr r="C73" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>cc93b94d-9307-4ebd-a8e1-981c253f3e82</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>685cf57f-fd35-4e84-8ef8-d75205f51192</stp>
-        <tr r="I4" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>fcb29096-32ea-40b9-8e2f-b65354c81c2f</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>552fa69d-ffd0-4239-ab77-ae772bd6ffff</stp>
-        <tr r="B8" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>403fabf6-09bb-4e5b-a666-828cb8135615</stp>
-        <tr r="D12" s="3"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>20b17d0c-7223-44ec-b1dd-2218fec3a911</stp>
-        <tr r="D5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>8f708be9-276a-40b9-9153-eefadb654450</stp>
-        <tr r="C30" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>f931151e-0b4d-4320-9bc9-9da06217609f</stp>
-        <tr r="C52" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>39d8fdb7-a1c4-4e15-917d-eb896c9d76ec</stp>
-        <tr r="K8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>8d0ff3b2-64a4-47dc-8940-998d7dedfbd3</stp>
-        <tr r="C76" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a8f529b0-9f72-4492-95ea-2a55d2f774f1</stp>
-        <tr r="C50" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>170b697b-f846-47de-b022-fe7fb6ae1d1c</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>2434da4a-f77b-4a74-acd2-c8576eefa639</stp>
-        <tr r="E6" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>294a314a-e62c-4637-bcea-2610c51513d9</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>0f1be08d-e94e-4591-8776-69caf7aac425</stp>
-        <tr r="C75" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e4d9c0bd-866c-41dc-85e5-4adffe182131</stp>
-        <tr r="C91" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>f738d55d-85ac-4f0b-bbc3-456553e8d231</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>aa13e026-b14c-465c-ba68-3b9738297298</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>c9ba3ea7-ea93-4ba8-8b65-9be89833cc18</stp>
-        <tr r="C97" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>08e2ac78-84aa-4729-aca9-57b23f200da3</stp>
-        <tr r="C29" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>c0b9bfb3-7593-4c7b-829c-658031ccf0a9</stp>
-        <tr r="C33" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>5ed98fdf-dbbe-49a1-aa54-1ec9887160c3</stp>
-        <tr r="F4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>0a407ca5-76d5-47e5-8332-99eafa6deed7</stp>
-        <tr r="C31" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>b3024dca-2bf7-4e2b-9c40-78cef7b5315d</stp>
-        <tr r="C57" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e7dd4614-78c9-4319-b865-3d02563faf27</stp>
-        <tr r="C70" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>61ccecf2-949a-428b-b1f9-1cc15887196f</stp>
-        <tr r="C71" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>00a836b1-45c0-4bcf-8218-dd6994603952</stp>
-        <tr r="C48" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>62f97ce2-28f2-4d28-8e0a-f2139f6f33d3</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cc61d54d-2c16-479a-bb92-9ae380265a12</stp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>d24736e5-8b2f-426e-bd7b-a5af6bc1cbc4</stp>
         <tr r="C101" s="1"/>
         <tr r="C100" s="1"/>
         <tr r="C99" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>bda4c87c-459c-4fc9-854a-7f8da5727e10</stp>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c2f725a9-4901-4fb4-a25e-c74697094f16</stp>
+        <tr r="I5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>75f6c678-aa85-4b22-8aa6-aef4bd27ad66</stp>
+        <tr r="C88" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7f4b89e5-f237-438d-9517-b909eea15db0</stp>
+        <tr r="C44" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>64841ca2-2b54-46e7-b4ba-9da01b82cced</stp>
+        <tr r="F5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d6126f61-0d09-41a7-9aaa-5ef9724e747b</stp>
+        <tr r="C77" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2eae3018-3bdd-4f95-af7e-31b9c369033e</stp>
+        <tr r="I4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>636f2b0b-0904-4472-8a11-41c4b6c7608e</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>206f0b35-3202-4bc6-ba38-430cfd84beef</stp>
+        <tr r="C57" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7ff9c2bf-e5cf-4b1c-8842-57669dc0ec05</stp>
+        <tr r="E6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bbc54ae7-5907-40e4-ab48-0bff435301d3</stp>
+        <tr r="C27" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bd64285f-5baa-4978-9415-2cee9b7fb71e</stp>
+        <tr r="B7" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>20897ca4-251a-4efd-8259-33f1e5d90a5b</stp>
+        <tr r="C87" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>11b89530-32f9-43cf-8e98-3be759c1fd86</stp>
+        <tr r="C43" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6904c87a-dea9-4cf3-937e-ece24480eaa7</stp>
+        <tr r="F4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>491245a0-4fda-4696-9c61-7fdb81dca830</stp>
+        <tr r="C8" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4646be57-ce3e-4272-8d1c-75e637031fd8</stp>
+        <tr r="B5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8f1760b8-198a-4e2d-b2e1-4ed4e0c7fce7</stp>
+        <tr r="B100" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b18267bb-94bd-4997-889f-4f639e38db9d</stp>
+        <tr r="C96" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>edac5af2-61a6-4b17-b1fd-ff4aedf5a05d</stp>
+        <tr r="C30" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>75b99f30-a65b-4d30-b3d6-0f957a364046</stp>
+        <tr r="B4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1ff3d33d-47cb-464e-a6f0-87c3e4e3107c</stp>
+        <tr r="H6" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cc868b5d-6a5b-4af7-a1bf-e6da8111b4ff</stp>
+        <tr r="E7" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fc9e6a35-e30f-4c83-be11-75fd31b8f068</stp>
+        <tr r="C91" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>720abd20-4c81-4c98-9328-20d32360e9c7</stp>
+        <tr r="C4" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>913d7cf9-5e1c-43b9-ac3c-926d0577f813</stp>
+        <tr r="G5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cf409c6b-e143-4565-b4ee-7dc557d49126</stp>
+        <tr r="C83" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a775c27f-2e31-46cb-95b8-70603c5146e2</stp>
+        <tr r="C50" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e2b1d2e9-f49a-4861-9a68-f3eeda3dfaa8</stp>
+        <tr r="C84" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>94d3ba15-d4eb-4a0b-be54-53f0d33ae40d</stp>
+        <tr r="C32" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fb582782-a0b7-45dd-a439-f7b646c4107e</stp>
+        <tr r="J4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ec85ccd6-4cdc-4557-8d25-3668bd90e0df</stp>
+        <tr r="C25" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>08d32f7f-5c93-4442-9f93-e2b6f570e435</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3ffe4f6c-31c6-495d-98c6-cd1213bed0bc</stp>
+        <tr r="D5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2b3b2e66-a311-4044-9d24-e7ae11753528</stp>
+        <tr r="C64" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>85b0d858-370d-41ed-a0b1-ae9e28e21665</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>31da47fc-0624-48d5-ade0-6ce193dcae96</stp>
+        <tr r="C59" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e343b1c0-a976-4fa1-8f21-72ac720e0306</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3266f03a-3b89-4b88-914c-695d2b59a575</stp>
+        <tr r="B99" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6d0a6c37-cfda-496a-aac2-c17be3c99760</stp>
+        <tr r="J5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fceed703-729e-4540-8fbb-984fcfd1fc76</stp>
+        <tr r="D8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>12dda863-ca8b-4d12-a16b-a3370c76a110</stp>
+        <tr r="C72" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4f705997-5590-4d3a-9ef6-7d430ff18b20</stp>
+        <tr r="C5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>85d3c830-cf6e-4bac-a8d6-1c964ef27b89</stp>
+        <tr r="K6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7cc2b66c-8280-4c56-9d76-385d18e86a82</stp>
+        <tr r="C23" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>384edec0-a41b-4c8f-9ac7-1e853ec9f405</stp>
+        <tr r="C86" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>39d2172e-7b53-42e4-b450-9ca1f2011df3</stp>
+        <tr r="H4" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>918a79c8-f675-4e85-8d97-ba82e60258f5</stp>
+        <tr r="C60" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>86e7380a-24df-4e8c-a92c-2a2292d053b5</stp>
+        <tr r="F6" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cffd1182-2cc9-41c9-892e-cf9a7e88fc64</stp>
+        <tr r="B3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>39eba249-60c3-4037-a75a-a26f14fe973e</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>358669cb-5c1d-40e6-a243-b78be2903029</stp>
+        <tr r="C97" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b1b7a9a1-c3f9-43ff-b713-ae1514895c02</stp>
+        <tr r="C49" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b86a4b99-2e21-4f6b-912d-5978676a6805</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2120dd32-216e-4f82-9187-2fe4356d918e</stp>
+        <tr r="C58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>27bd52db-7957-4c8e-86f1-21ada972e6d4</stp>
+        <tr r="C28" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e9ffdcaa-3089-4077-a17a-0c2691312386</stp>
+        <tr r="C31" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>432c7984-08be-4e90-ac5b-cc8f00201dbe</stp>
+        <tr r="C51" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0b3dece9-b06b-452f-934e-859c49a7f5bb</stp>
+        <tr r="I7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d34faee5-a091-44c8-bf57-4d8af2090e7d</stp>
+        <tr r="B101" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>12bc449e-9613-4ca0-8d2b-2d2696e45f7a</stp>
+        <tr r="C95" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>db73ff4d-8a5d-45b2-b485-71e6691057a9</stp>
+        <tr r="C69" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9697c0ff-3848-47dc-a420-41bde8a78d1a</stp>
+        <tr r="C39" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>112ea473-93a6-47fe-8f76-311f33cabe45</stp>
+        <tr r="G7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ed855139-846f-4ddd-9bee-da751b935fdd</stp>
+        <tr r="C26" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1de3e927-c7c8-431a-a1c7-0fdc8aee82e1</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>69cb4008-08aa-4a6f-acb6-85d90fb5dd5b</stp>
+        <tr r="C78" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bb7eeada-81ac-429b-9ee3-ab7f40215d09</stp>
+        <tr r="C42" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ebd06340-5355-4916-8883-a60f4eb8239a</stp>
+        <tr r="C81" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>77c22f41-a7ed-4088-976f-a34b67f860af</stp>
+        <tr r="D13" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0122b978-e1de-487e-bc1d-e83409613394</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>55cd9c7b-e89f-448c-86ec-28320609b0ab</stp>
+        <tr r="C35" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f8215ca0-582a-42e9-aa09-97ea180c7ceb</stp>
+        <tr r="C70" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4a01777c-ea79-4108-bebf-ce074514c222</stp>
+        <tr r="C38" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5520e470-2780-4716-885e-ffb3887a2e70</stp>
+        <tr r="G6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0dd45175-6b3c-47e3-a310-8b974c393dab</stp>
+        <tr r="C24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f4d1d5c6-3fa1-4e4b-a2fb-04b38ccf4ef5</stp>
+        <tr r="E4" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fd9a6157-d96f-446b-9bdc-0e850bda5427</stp>
+        <tr r="K7" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e72bf5c5-4865-44e0-9b3c-e85801552832</stp>
+        <tr r="C82" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7372bfc1-f1a5-4655-83eb-6cf327cd237b</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fe3a1833-6bab-45b5-b999-74963f31501c</stp>
+        <tr r="J6" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f34d6e5c-7c62-4fb3-83b0-95b4ebe23b48</stp>
+        <tr r="I8" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ee638710-0806-469f-8771-daca0e97820e</stp>
+        <tr r="C37" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6fde6031-3c5c-46b5-910c-bdaf957634d3</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dbcf1029-83ed-4a0f-9b4f-7f66cc3718fe</stp>
+        <tr r="B6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>030b9369-5d9b-4fe5-9156-41433cb3fab2</stp>
+        <tr r="C61" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8e6cffff-4faf-4146-b46f-2dad31042db0</stp>
+        <tr r="C7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>09cd968f-dff7-4d02-bf1c-48282d7412b6</stp>
+        <tr r="C36" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a74dbac8-3b29-42ab-a60d-97b79da1dba2</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7cf0a3cc-5a7d-4dc5-a1ad-11f91ea44c2a</stp>
+        <tr r="C52" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f58c6e27-bea4-43c0-8161-f7eedd848a45</stp>
+        <tr r="H8" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f1f14906-c79b-4390-9d22-b8d1de6dc3c5</stp>
+        <tr r="I6" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f25b5139-be24-4ae5-af68-96518e4bf112</stp>
+        <tr r="C67" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2d933644-fcda-4c77-a565-51b137c643b4</stp>
+        <tr r="F8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3df70efd-ecd5-4237-bae8-ee6090ecbc37</stp>
+        <tr r="C94" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6020a03e-22e2-40be-ba05-43d080538dc2</stp>
+        <tr r="C47" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c38e7f4b-a77c-4704-8a0f-a0d6d24b9287</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>07c8ae29-9f07-4095-9b0d-7b14340c298c</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c99b6e4b-25b8-4c19-947e-bdfb3f671cad</stp>
+        <tr r="C71" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3c80b7c2-7a01-4263-87fa-e03ed4d8f3ab</stp>
+        <tr r="D7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>30fe5239-8ce8-4581-bcef-58bb62da8e63</stp>
+        <tr r="G4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f5a68d55-437e-4218-b460-65563fe269e6</stp>
+        <tr r="C46" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b856ce72-eb81-4159-b6d1-6aa3051790bf</stp>
+        <tr r="D4" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2fef4a97-09b4-4506-9c32-20e16740a4c8</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>04b236f0-bed0-46a9-9c19-bbf2f3f0a8bc</stp>
+        <tr r="F7" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cbec821a-b910-49ad-b31f-0d6542c0a0a9</stp>
+        <tr r="C65" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dc0be50f-bb2d-41b4-890e-00ad25ab347d</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7de684ce-d18f-41c4-bda1-f248ccb081c9</stp>
+        <tr r="D15" s="3"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>78429310-223a-4764-9949-798491fc90ee</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f625e472-d2ec-47cd-8bbc-0300c7248f84</stp>
+        <tr r="C56" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>26812b2c-5425-4968-baff-8bde29d0ff84</stp>
+        <tr r="K8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>29aaf8b0-4966-46b8-b291-078d9bfa9c73</stp>
+        <tr r="C48" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ad3ceba9-9b10-4ba0-996b-f22c6033096f</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>098118ad-9bbe-4615-a913-18bbcd65ebfe</stp>
+        <tr r="C90" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7d57c88e-d0d4-4d7e-b294-13717fec33f0</stp>
+        <tr r="G8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>046b5eca-457d-480b-b9b2-13cf4fc092ee</stp>
+        <tr r="C85" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4b227c43-d588-4c3d-a502-468bce775add</stp>
+        <tr r="C68" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>40461590-b880-417c-b1d1-5382b20b4bc3</stp>
         <tr r="C62" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>fdd84fe6-8d2d-4594-b993-260a5678adab</stp>
-        <tr r="C28" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>c1e077fa-7805-4b9b-8373-36bfd7de668b</stp>
-        <tr r="C8" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>2999ac4a-81c8-4fec-944f-2e751a4bbb25</stp>
-        <tr r="C39" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a9418dd7-d3d0-430c-91bb-f4239f27f9da</stp>
-        <tr r="C61" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>172bdf8a-7fd2-458a-9806-9dfa246f9553</stp>
-        <tr r="C86" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>6ae7a485-6bb3-43be-8e6c-c48eaca89592</stp>
-        <tr r="C95" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>5bdceb6d-44ce-487b-aba8-237ced92c2aa</stp>
-        <tr r="C45" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>3f67d57a-ab39-4008-a7b2-016429dad2d4</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>84e236ae-d269-46d5-80a9-67909bfb756f</stp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>948446f1-0e81-4ee7-9313-4bc19d9b812e</stp>
+        <tr r="C29" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9f181cac-8a22-493c-80e7-e012002d288d</stp>
         <tr r="C93" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>cafd8fce-f0cd-449e-9f7d-5d85edb04b8f</stp>
-        <tr r="J8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>2f181d0b-fe98-41e6-b1dd-9159a44c2b12</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>adf7ff1a-2254-4ddd-9a92-b836b1c5a502</stp>
-        <tr r="C82" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>209f2d95-52ff-42fe-a0ee-cc05ac9d6049</stp>
-        <tr r="D13" s="3"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>daf6eb0a-73ad-460c-ae1f-386626cc195d</stp>
-        <tr r="C42" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>d3ecddd1-c174-4347-b3b9-7486b51a61ea</stp>
-        <tr r="C23" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a299021d-068d-4860-9c08-b755a0ccef51</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>7c4f3cfc-d7a0-4c16-9c5a-0ef2dc8a31cb</stp>
-        <tr r="C41" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a319f679-7a76-47aa-af2d-1f3f7a77e693</stp>
-        <tr r="C35" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>91d6420b-d6dc-4bb5-b95b-bcf6471b4ced</stp>
-        <tr r="C7" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>c22b1885-ce45-4428-a099-39d585545477</stp>
-        <tr r="E7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>62e9c3cd-ac28-4b27-96dd-3bf95c282baf</stp>
-        <tr r="D6" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>ec553d37-1802-4b99-aa84-8fc301545021</stp>
-        <tr r="C51" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>4378818f-b42a-4f0b-99ba-e4558b4f4f96</stp>
-        <tr r="G8" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>5e68f660-f92f-45f2-b1dc-96757a489d89</stp>
-        <tr r="C66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>cc1b4f7d-b9e6-433b-be58-906e34d35cee</stp>
-        <tr r="C77" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e56886cc-ac7d-4eba-bd6a-4141270cbdf3</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>ac21bfee-5489-4e6e-8b57-71251e641c90</stp>
-        <tr r="C63" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a8539029-5ec4-4550-bfec-98be5d103c09</stp>
-        <tr r="C43" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>b2853d23-0ecf-4b76-810e-60c2011d07c6</stp>
-        <tr r="F8" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>28b8ab9c-95cd-46bf-94b9-cf05aa4626ed</stp>
-        <tr r="B5" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e993bc2c-9d45-4a2d-bb15-7a9abd0bbef9</stp>
-        <tr r="C60" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>c60c681c-db84-4d7d-8266-176a9a8ae80b</stp>
-        <tr r="C34" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>47f96d17-0a74-4163-bad4-fceac33db29f</stp>
-        <tr r="C5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>fcdad46e-eba8-43ee-a53e-8313ceeb5deb</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>0bff2e85-4712-4900-bd26-71d8ce370014</stp>
-        <tr r="C74" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>10761c6f-0abc-46c4-81f2-6fd5a67ae44f</stp>
-        <tr r="G5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e4f6aa60-87e2-4870-a15a-f8a250abb521</stp>
-        <tr r="C84" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>7b6924c6-d965-4409-8f93-57d38da19404</stp>
-        <tr r="D4" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>1395aab4-64e0-4fea-bb2f-824d8ab9011f</stp>
-        <tr r="G6" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>e182e871-2d94-46a0-9b04-d9536a657619</stp>
-        <tr r="C59" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>76621f8d-903a-43f7-8cd1-1e8a380c02e8</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>dafd345b-020b-4486-ba50-1df51ad59786</stp>
-        <tr r="C44" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>fd055953-977e-4c84-b126-7b997012add5</stp>
-        <tr r="B100" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>de946464-489d-404b-b55e-9787fd3ff57a</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>db5c16a8-9427-4b7c-83a7-69861142735d</stp>
-        <tr r="C83" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>9045eed2-abce-4aed-9fc2-c712fec8b56f</stp>
-        <tr r="C68" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>9c8e3795-6dd3-4079-b619-e05e1c4b1be2</stp>
-        <tr r="J4" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>65504dff-9af4-4e3d-9726-cb8444978386</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a8c18052-a8e2-49ae-beec-d2cd384ad8f8</stp>
-        <tr r="C27" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>b56979c4-6edd-40bd-8a87-f7c2c2a2f84a</stp>
-        <tr r="J7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a20ad561-f12c-48c8-b3cc-10ea00ae2a0d</stp>
-        <tr r="C36" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>090a5c8a-6994-4492-ae34-a73cc63777bb</stp>
-        <tr r="C67" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>30556fee-6df9-4085-ab83-cc3857f53b73</stp>
-        <tr r="C92" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>0c9244b5-0143-4372-9d20-fe6c1a7a99dc</stp>
-        <tr r="B7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>af146533-58d5-46df-afa4-a117b2b508a6</stp>
-        <tr r="F6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>456dcb32-bab1-4459-8748-328bf6649f90</stp>
-        <tr r="C56" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>97ed092c-c0aa-41fe-bd5d-bb84611ce4b8</stp>
-        <tr r="E4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>d6b8a6e6-571d-4630-800a-49a71e3003e7</stp>
-        <tr r="B98" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>1ae783a8-a153-45f2-89b3-89ee903403e3</stp>
-        <tr r="D7" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>7d3db502-f123-4f0a-b559-c6484428c8fc</stp>
-        <tr r="I8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>ee6e94b8-b195-4929-94f8-5b698c16c43c</stp>
-        <tr r="B3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>09fa27b0-2952-4d44-bebc-4c7f333f2e00</stp>
-        <tr r="C40" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>2bdaa25e-194d-4b24-94b3-f8b614793df5</stp>
-        <tr r="B99" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>ca3a1866-6e60-4e06-bf58-34ec07bfd021</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>864af937-ee06-4fa5-9af9-a1b1b3e18d04</stp>
-        <tr r="H5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>0d085305-e8c7-4630-9178-bb16196681a4</stp>
-        <tr r="C94" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a99cbb2b-090a-4e45-83b4-82cc2389cb9c</stp>
-        <tr r="D8" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>fe0026f1-b997-4f6e-b711-38ca82c0a1e6</stp>
-        <tr r="C25" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>a32e8fa0-f406-4522-ba9e-cb83d6507215</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>dd8c1398-0a07-444e-a581-9ae24009d580</stp>
-        <tr r="C96" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>13759283-52d9-4a6c-b342-898eaea5dae1</stp>
-        <tr r="G7" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>24c98bd4-8368-4247-ada5-a6dbbb18d2e8</stp>
-        <tr r="C37" s="1"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>4168da12-8d5c-4de2-80b5-4af72509d20a</stp>
-        <tr r="C65" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>80fbb7d9-700f-4500-b31c-ada788814000</stp>
-        <tr r="C4" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>bd6b48af-91e9-4303-abfc-881207a82bd8</stp>
-        <tr r="I5" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>7ceb79e3-3d8a-4ead-9b3b-cf6ac2bf57f1</stp>
-        <tr r="I7" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>c9a23d35-cf62-4bf4-9f69-26c56b30e503</stp>
-        <tr r="C90" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>c3090a97-548c-4853-b19a-0c4a1dfd0627</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>7b9d3c3d-c177-4221-a19c-e5933bf13a2c</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_7d9a8f241bd144b387e5b4dd0baa62db">
-      <tp>
-        <v>4</v>
-        <stp/>
-        <stp>7987c062-19be-4b0a-a7ce-3cf3bddd8a2f</stp>
-        <tr r="C20" s="1"/>
+    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fbf87903-686c-44f3-bb12-7c93d6e6792d</stp>
+        <tr r="K4" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>17912bbe-e471-426f-a16d-12e4c2e40c8a</stp>
+        <tr r="C73" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1815,7 +1806,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="10" cm="1">
         <f t="array" ref="D12">_xll.YahooQuote(B12,C12)</f>
-        <v>148.97</v>
+        <v>152.63</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
@@ -2320,7 +2311,7 @@
       </c>
       <c r="C25" s="8" t="str">
         <f>+_xll.YahooQuote(C$1,$B25)</f>
-        <v>PRE</v>
+        <v>REGULAR</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" si="1"/>
@@ -2338,7 +2329,7 @@
       </c>
       <c r="C26" s="8">
         <f>+_xll.YahooQuote(C$1,$B26)</f>
-        <v>2649823641600</v>
+        <v>2752463241216</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" si="1"/>
@@ -2392,7 +2383,7 @@
       </c>
       <c r="C29" s="8">
         <f>+_xll.YahooQuote(C$1,$B29)</f>
-        <v>0</v>
+        <v>370.98</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="1"/>
@@ -2410,7 +2401,7 @@
       </c>
       <c r="C30" s="8">
         <f>+_xll.YahooQuote(C$1,$B30)</f>
-        <v>0</v>
+        <v>370.99</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" si="1"/>
@@ -2428,7 +2419,7 @@
       </c>
       <c r="C31" s="8">
         <f>+_xll.YahooQuote(C$1,$B31)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="1"/>
@@ -2446,7 +2437,7 @@
       </c>
       <c r="C32" s="8">
         <f>+_xll.YahooQuote(C$1,$B32)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" si="1"/>
@@ -2464,7 +2455,7 @@
       </c>
       <c r="C33" s="8">
         <f>+_xll.YahooQuote(C$1,$B33)</f>
-        <v>1699304401</v>
+        <v>1700236734</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="1"/>
@@ -2472,11 +2463,11 @@
       </c>
       <c r="E33" s="11" cm="1">
         <f t="array" ref="E33">_xll.UnixSecondsToDateTime(C33,C$57)</f>
-        <v>45236.666678240741</v>
+        <v>45247.457569444443</v>
       </c>
       <c r="F33" s="12">
         <f>E33</f>
-        <v>45236.666678240741</v>
+        <v>45247.457569444443</v>
       </c>
       <c r="G33" t="s">
         <v>22</v>
@@ -2493,7 +2484,7 @@
       </c>
       <c r="C34" s="8">
         <f>+_xll.YahooQuote(C$1,$B34)</f>
-        <v>356.53</v>
+        <v>370.34</v>
       </c>
       <c r="D34" s="8">
         <f t="shared" si="1"/>
@@ -2513,7 +2504,7 @@
       </c>
       <c r="C35" s="8">
         <f>+_xll.YahooQuote(C$1,$B35)</f>
-        <v>353.45</v>
+        <v>373.61</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="1"/>
@@ -2533,7 +2524,7 @@
       </c>
       <c r="C36" s="8">
         <f>+_xll.YahooQuote(C$1,$B36)</f>
-        <v>352.8</v>
+        <v>376.17</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" si="1"/>
@@ -2553,7 +2544,7 @@
       </c>
       <c r="C37" s="8">
         <f>+_xll.YahooQuote(C$1,$B37)</f>
-        <v>3.7300110000000002</v>
+        <v>-5.8300169999999998</v>
       </c>
       <c r="D37" s="8">
         <f t="shared" si="1"/>
@@ -2571,7 +2562,7 @@
       </c>
       <c r="C38" s="8">
         <f>+_xll.YahooQuote(C$1,$B38)</f>
-        <v>1.0572592999999999</v>
+        <v>-1.5498357</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" si="1"/>
@@ -2589,7 +2580,7 @@
       </c>
       <c r="C39" s="8">
         <f>+_xll.YahooQuote(C$1,$B39)</f>
-        <v>357.54</v>
+        <v>374.37</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="1"/>
@@ -2607,7 +2598,7 @@
       </c>
       <c r="C40" s="8">
         <f>+_xll.YahooQuote(C$1,$B40)</f>
-        <v>353.35</v>
+        <v>369.97</v>
       </c>
       <c r="D40" s="8">
         <f t="shared" si="1"/>
@@ -2625,7 +2616,7 @@
       </c>
       <c r="C41" s="8" t="str">
         <f>+_xll.YahooQuote(C$1,$B41)</f>
-        <v>353.35 - 357.54</v>
+        <v>369.97 - 374.37</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" si="1"/>
@@ -2643,7 +2634,7 @@
       </c>
       <c r="C42" s="8">
         <f>+_xll.YahooQuote(C$1,$B42)</f>
-        <v>23274525</v>
+        <v>10426146</v>
       </c>
       <c r="D42" s="8">
         <f t="shared" si="1"/>
@@ -2661,7 +2652,7 @@
       </c>
       <c r="C43" s="8">
         <f>+_xll.YahooQuote(C$1,$B43)</f>
-        <v>29749140</v>
+        <v>25463370</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="1"/>
@@ -2679,7 +2670,7 @@
       </c>
       <c r="C44" s="8">
         <f>+_xll.YahooQuote(C$1,$B44)</f>
-        <v>22339352</v>
+        <v>22991768</v>
       </c>
       <c r="D44" s="8">
         <f t="shared" si="1"/>
@@ -2697,19 +2688,19 @@
       </c>
       <c r="C45" s="8">
         <f>+_xll.YahooQuote(C$1,$B45)</f>
-        <v>1699356564</v>
+        <v>0</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E45" s="11" cm="1">
+      <c r="E45" s="11" t="str" cm="1">
         <f t="array" ref="E45">_xll.UnixSecondsToDateTime(C45,C$57)</f>
-        <v>45237.270416666666</v>
-      </c>
-      <c r="F45" s="12">
+        <v>Invalid unixSeconds.</v>
+      </c>
+      <c r="F45" s="12" t="str">
         <f>E45</f>
-        <v>45237.270416666666</v>
+        <v>Invalid unixSeconds.</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
@@ -2724,13 +2715,13 @@
         <f>+_xll.YahooQuote(B$1,$A46)</f>
         <v>PreMarketPrice</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="8" t="str">
         <f>+_xll.YahooQuote(C$1,$B46)</f>
-        <v>357.18</v>
+        <v/>
       </c>
       <c r="D46" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -2744,13 +2735,13 @@
         <f>+_xll.YahooQuote(B$1,$A47)</f>
         <v>PreMarketChange</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="8" t="str">
         <f>+_xll.YahooQuote(C$1,$B47)</f>
-        <v>0.64999390000000001</v>
+        <v/>
       </c>
       <c r="D47" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -2764,13 +2755,13 @@
         <f>+_xll.YahooQuote(B$1,$A48)</f>
         <v>PreMarketChangePercent</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="8" t="str">
         <f>+_xll.YahooQuote(C$1,$B48)</f>
-        <v>0.18231112999999999</v>
+        <v/>
       </c>
       <c r="D48" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -3080,7 +3071,7 @@
       </c>
       <c r="C63" s="8">
         <f>+_xll.YahooQuote(C$1,$B63)</f>
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" si="1"/>
@@ -3098,7 +3089,7 @@
       </c>
       <c r="C64" s="8">
         <f>+_xll.YahooQuote(C$1,$B64)</f>
-        <v>7.9081640000000005E-3</v>
+        <v>7.4168589999999996E-3</v>
       </c>
       <c r="D64" s="8">
         <f t="shared" si="1"/>
@@ -3116,7 +3107,7 @@
       </c>
       <c r="C65" s="8">
         <f>+_xll.YahooQuote(C$1,$B65)</f>
-        <v>34.447341999999999</v>
+        <v>35.747104999999998</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" si="1"/>
@@ -3134,7 +3125,7 @@
       </c>
       <c r="C66" s="8">
         <f>+_xll.YahooQuote(C$1,$B66)</f>
-        <v>10.35</v>
+        <v>10.36</v>
       </c>
       <c r="D66" s="8">
         <f t="shared" si="1"/>
@@ -3152,7 +3143,7 @@
       </c>
       <c r="C67" s="8">
         <f>+_xll.YahooQuote(C$1,$B67)</f>
-        <v>11.92</v>
+        <v>11.93</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" si="1"/>
@@ -3170,7 +3161,7 @@
       </c>
       <c r="C68" s="8">
         <f>+_xll.YahooQuote(C$1,$B68)</f>
-        <v>10.3</v>
+        <v>10.31</v>
       </c>
       <c r="D68" s="8">
         <f t="shared" ref="D68:D101" si="3">TYPE(C68)</f>
@@ -3366,7 +3357,7 @@
       </c>
       <c r="C76" s="8">
         <f>+_xll.YahooQuote(C$1,$B76)</f>
-        <v>34.614562999999997</v>
+        <v>35.920464000000003</v>
       </c>
       <c r="D76" s="8">
         <f t="shared" si="3"/>
@@ -3386,7 +3377,7 @@
       </c>
       <c r="C77" s="8">
         <f>+_xll.YahooQuote(C$1,$B77)</f>
-        <v>29.910233999999999</v>
+        <v>31.042746999999999</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" si="3"/>
@@ -3406,7 +3397,7 @@
       </c>
       <c r="C78" s="8">
         <f>+_xll.YahooQuote(C$1,$B78)</f>
-        <v>12.003569000000001</v>
+        <v>12.468521000000001</v>
       </c>
       <c r="D78" s="8">
         <f t="shared" si="3"/>
@@ -3502,7 +3493,7 @@
       </c>
       <c r="C83" s="8">
         <f>+_xll.YahooQuote(C$1,$B83)</f>
-        <v>328.72800000000001</v>
+        <v>335.46339999999998</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" si="3"/>
@@ -3520,7 +3511,7 @@
       </c>
       <c r="C84" s="8">
         <f>+_xll.YahooQuote(C$1,$B84)</f>
-        <v>27.802002000000002</v>
+        <v>34.876587000000001</v>
       </c>
       <c r="D84" s="8">
         <f t="shared" si="3"/>
@@ -3538,7 +3529,7 @@
       </c>
       <c r="C85" s="8">
         <f>+_xll.YahooQuote(C$1,$B85)</f>
-        <v>8.4574490000000002E-2</v>
+        <v>0.1039654</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" si="3"/>
@@ -3556,7 +3547,7 @@
       </c>
       <c r="C86" s="8">
         <f>+_xll.YahooQuote(C$1,$B86)</f>
-        <v>307.77289999999999</v>
+        <v>313.21555000000001</v>
       </c>
       <c r="D86" s="8">
         <f t="shared" si="3"/>
@@ -3574,7 +3565,7 @@
       </c>
       <c r="C87" s="8">
         <f>+_xll.YahooQuote(C$1,$B87)</f>
-        <v>48.757109999999997</v>
+        <v>57.124450000000003</v>
       </c>
       <c r="D87" s="8">
         <f t="shared" si="3"/>
@@ -3592,7 +3583,7 @@
       </c>
       <c r="C88" s="8">
         <f>+_xll.YahooQuote(C$1,$B88)</f>
-        <v>0.15841912</v>
+        <v>0.18238062999999999</v>
       </c>
       <c r="D88" s="8">
         <f t="shared" si="3"/>
@@ -3610,7 +3601,7 @@
       </c>
       <c r="C89" s="8">
         <f>+_xll.YahooQuote(C$1,$B89)</f>
-        <v>54.14864</v>
+        <v>55.944780000000002</v>
       </c>
       <c r="D89" s="8">
         <f t="shared" si="3"/>
@@ -3628,7 +3619,7 @@
       </c>
       <c r="C90" s="8">
         <f>+_xll.YahooQuote(C$1,$B90)</f>
-        <v>366.78</v>
+        <v>376.35</v>
       </c>
       <c r="D90" s="8">
         <f t="shared" si="3"/>
@@ -3646,7 +3637,7 @@
       </c>
       <c r="C91" s="8">
         <f>+_xll.YahooQuote(C$1,$B91)</f>
-        <v>-10.25</v>
+        <v>-6.0100100000000003</v>
       </c>
       <c r="D91" s="8">
         <f t="shared" si="3"/>
@@ -3664,7 +3655,7 @@
       </c>
       <c r="C92" s="8">
         <f>+_xll.YahooQuote(C$1,$B92)</f>
-        <v>-2.7945907999999998E-2</v>
+        <v>-1.5969204000000001E-2</v>
       </c>
       <c r="D92" s="8">
         <f t="shared" si="3"/>
@@ -3700,7 +3691,7 @@
       </c>
       <c r="C94" s="8">
         <f>+_xll.YahooQuote(C$1,$B94)</f>
-        <v>137.18</v>
+        <v>150.98999000000001</v>
       </c>
       <c r="D94" s="8">
         <f t="shared" si="3"/>
@@ -3718,7 +3709,7 @@
       </c>
       <c r="C95" s="8">
         <f>+_xll.YahooQuote(C$1,$B95)</f>
-        <v>0.62539314999999995</v>
+        <v>0.68835186999999998</v>
       </c>
       <c r="D95" s="8">
         <f t="shared" si="3"/>
@@ -3736,7 +3727,7 @@
       </c>
       <c r="C96" s="8" t="str">
         <f>+_xll.YahooQuote(C$1,$B96)</f>
-        <v>219.35 - 366.78</v>
+        <v>219.35 - 376.35</v>
       </c>
       <c r="D96" s="8">
         <f t="shared" si="3"/>
@@ -3844,7 +3835,7 @@
   <dimension ref="A2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3917,23 +3908,23 @@
       </c>
       <c r="F3" s="5">
         <f>_xll.YahooQuote($A3,F$2)</f>
-        <v>219.27</v>
+        <v>234.625</v>
       </c>
       <c r="G3" s="5">
         <f>_xll.YahooQuote($A3,G$2)</f>
-        <v>0</v>
+        <v>232.5</v>
       </c>
       <c r="H3" s="5">
         <f>_xll.YahooQuote($A3,H$2)</f>
-        <v>0</v>
+        <v>232.35</v>
       </c>
       <c r="I3" s="6">
         <f>_xll.YahooQuote($A3,I$2)</f>
-        <v>697041813504</v>
+        <v>745854074880</v>
       </c>
       <c r="J3" s="6">
         <f>_xll.YahooQuote($A3,J$2)*F3</f>
-        <v>25428987920.940002</v>
+        <v>13329739332.25</v>
       </c>
       <c r="K3" s="7">
         <f>_xll.YahooQuote($A3,K$2)</f>
@@ -3962,27 +3953,27 @@
       </c>
       <c r="F4" s="5">
         <f>_xll.YahooQuote($A4,F$2)</f>
-        <v>435.69</v>
+        <v>450.13</v>
       </c>
       <c r="G4" s="5">
         <f>_xll.YahooQuote($A4,G$2)</f>
-        <v>434.53</v>
+        <v>450.08</v>
       </c>
       <c r="H4" s="5">
         <f>_xll.YahooQuote($A4,H$2)</f>
-        <v>434.85</v>
+        <v>450.09</v>
       </c>
       <c r="I4" s="6">
         <f>_xll.YahooQuote($A4,I$2)</f>
-        <v>399868461056</v>
+        <v>413121216512</v>
       </c>
       <c r="J4" s="6">
         <f>_xll.YahooQuote($A4,J$2)*F4</f>
-        <v>29472756321.779999</v>
+        <v>7922659807.3800001</v>
       </c>
       <c r="K4" s="7">
         <f>_xll.YahooQuote($A4,K$2)</f>
-        <v>1.3025375E-2</v>
+        <v>1.2575795000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -4007,27 +3998,27 @@
       </c>
       <c r="F5" s="5">
         <f>_xll.YahooQuote($A5,F$2)</f>
-        <v>30.12</v>
+        <v>30.94</v>
       </c>
       <c r="G5" s="5">
         <f>_xll.YahooQuote($A5,G$2)</f>
-        <v>30.12</v>
+        <v>30.93</v>
       </c>
       <c r="H5" s="5">
         <f>_xll.YahooQuote($A5,H$2)</f>
-        <v>30.13</v>
+        <v>30.94</v>
       </c>
       <c r="I5" s="6">
         <f>_xll.YahooQuote($A5,I$2)</f>
-        <v>10614288384</v>
+        <v>10903256064</v>
       </c>
       <c r="J5" s="6">
         <f>_xll.YahooQuote($A5,J$2)*F5</f>
-        <v>40092521.160000004</v>
+        <v>20096829.48</v>
       </c>
       <c r="K5" s="7">
         <f>_xll.YahooQuote($A5,K$2)</f>
-        <v>1.9847834000000002E-2</v>
+        <v>1.9531251999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -4052,15 +4043,15 @@
       </c>
       <c r="F6" s="5">
         <f>_xll.YahooQuote($A6,F$2)</f>
-        <v>2434.5</v>
+        <v>2496.5</v>
       </c>
       <c r="G6" s="5">
         <f>_xll.YahooQuote($A6,G$2)</f>
-        <v>2434.5</v>
+        <v>2496</v>
       </c>
       <c r="H6" s="5">
         <f>_xll.YahooQuote($A6,H$2)</f>
-        <v>2435.5</v>
+        <v>2497</v>
       </c>
       <c r="I6" s="6" t="str">
         <f>_xll.YahooQuote($A6,I$2)</f>
@@ -4068,7 +4059,7 @@
       </c>
       <c r="J6" s="6">
         <f>_xll.YahooQuote($A6,J$2)*F6</f>
-        <v>3819073185</v>
+        <v>3270539825</v>
       </c>
       <c r="K6" s="7" t="str">
         <f>_xll.YahooQuote($A6,K$2)</f>
@@ -4097,15 +4088,15 @@
       </c>
       <c r="F7" s="5">
         <f>_xll.YahooQuote($A7,F$2)</f>
-        <v>79.349999999999994</v>
+        <v>75.02</v>
       </c>
       <c r="G7" s="5">
         <f>_xll.YahooQuote($A7,G$2)</f>
-        <v>79.349999999999994</v>
+        <v>75.040000000000006</v>
       </c>
       <c r="H7" s="5">
         <f>_xll.YahooQuote($A7,H$2)</f>
-        <v>79.36</v>
+        <v>75.040000000000006</v>
       </c>
       <c r="I7" s="6" t="str">
         <f>_xll.YahooQuote($A7,I$2)</f>
@@ -4113,7 +4104,7 @@
       </c>
       <c r="J7" s="6">
         <f>_xll.YahooQuote($A7,J$2)*F7</f>
-        <v>5475308.6999999993</v>
+        <v>1878950.92</v>
       </c>
       <c r="K7" s="7" t="str">
         <f>_xll.YahooQuote($A7,K$2)</f>
@@ -4142,15 +4133,15 @@
       </c>
       <c r="F8" s="5">
         <f>_xll.YahooQuote($A8,F$2)</f>
-        <v>1.0681478</v>
+        <v>1.0889688</v>
       </c>
       <c r="G8" s="5">
         <f>_xll.YahooQuote($A8,G$2)</f>
-        <v>1.0681478</v>
+        <v>1.0889688</v>
       </c>
       <c r="H8" s="5">
         <f>_xll.YahooQuote($A8,H$2)</f>
-        <v>1.0675777</v>
+        <v>1.0883761999999999</v>
       </c>
       <c r="I8" s="6" t="str">
         <f>_xll.YahooQuote($A8,I$2)</f>
@@ -4181,11 +4172,11 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G10" s="5">
         <f>+G8-G9</f>
-        <v>-2.7454000000000089E-3</v>
+        <v>1.8075599999999969E-2</v>
       </c>
       <c r="H10" s="5">
         <f>+H8-H9</f>
-        <v>-2.7422999999999753E-3</v>
+        <v>1.8056199999999967E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prg\myProjects\GitHub\YahooXL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3C260-D916-4827-A56E-7A241BE20CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E60E53F-7A8E-43DE-8A15-DC0A81AA2207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="10200" windowWidth="28790" windowHeight="10210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8310" yWindow="10080" windowWidth="28790" windowHeight="10210" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="3" r:id="rId1"/>
@@ -141,10 +141,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="165" formatCode="[$]dddd\,\ mmmm\ d\,\ yyyy;@" x16r2:formatCode16="[$-en-001,1]dddd\,\ mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$]hh:mm:ss;@" x16r2:formatCode16="[$-en-001,1]hh:mm:ss;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$]dddd\,\ mmmm\ d\,\ yyyy;@" x16r2:formatCode16="[$-en-001,1]dddd\,\ mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$]hh:mm:ss;@" x16r2:formatCode16="[$-en-001,1]hh:mm:ss;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -191,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -203,7 +202,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,8 +213,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,1152 +243,1144 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>105e979d-a9d6-42e8-8cb9-a2d22b359051</stp>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4e7355f0-5f14-48d4-872e-a95416a3ea39</stp>
+        <tr r="B7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b4af164f-5e56-46fe-a8ec-1177e819836c</stp>
+        <tr r="C92" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>879030c4-6672-4f64-9ddd-772148a14c54</stp>
+        <tr r="B100" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>44cfce98-a80f-4224-b692-74032ac9dd7a</stp>
+        <tr r="K4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f648097e-991f-4038-a4f4-ec47d754b05c</stp>
+        <tr r="C37" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>89a5199a-465b-4d5e-a996-8691c0d8ab90</stp>
+        <tr r="C70" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>28a312dc-9f1b-46b8-b914-31605e7d1b65</stp>
+        <tr r="J4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8d21828e-9e90-4727-a7da-80bc213de10a</stp>
+        <tr r="C68" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f80a9c04-adc3-4c90-a400-ae6f641acdd4</stp>
+        <tr r="C11" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b938b02c-1010-4649-be3a-998be59fd18f</stp>
+        <tr r="F4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1ffbf187-666f-44ef-a999-77f5f78ae1cc</stp>
+        <tr r="C79" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e0ddf8e3-69b5-4778-bb47-e317794ea7eb</stp>
         <tr r="C98" s="1"/>
       </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>466d19f0-7b22-4722-979d-a466ec104831</stp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>46706d88-a8ec-417c-984c-18de7e0ab79a</stp>
+        <tr r="B8" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cb79f1ac-bad2-4192-baae-cd5e889ed0f9</stp>
+        <tr r="C95" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fda18812-5b80-40ca-809d-b0ec364c09f3</stp>
+        <tr r="C91" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>604712f2-6003-468b-a678-e4558c13486b</stp>
+        <tr r="C4" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0fe07951-d23f-4232-98ac-137c97df3b8d</stp>
+        <tr r="H3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>28d6c722-19f4-4306-bd73-4ac38fb57612</stp>
+        <tr r="C24" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1791c354-e19e-414c-87c2-f4e5c9a82e09</stp>
+        <tr r="C6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f00378c2-141c-4714-b8d5-46e68033af80</stp>
+        <tr r="C48" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8a78606e-fd96-4093-b9a0-1a1369047470</stp>
+        <tr r="C67" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e2442261-9d98-4a18-8a67-24559372c910</stp>
+        <tr r="C30" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5fe2d7fb-b81c-47bf-9b1b-01e0cd3b8984</stp>
+        <tr r="C60" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5c4196c1-6489-4256-b80d-4ddde1035820</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b52c71e5-2fa9-41ff-9d24-5dc75650387e</stp>
+        <tr r="J6" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6de51d19-5863-4ff0-838b-3e599f9e66e0</stp>
+        <tr r="B4" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cbee1201-8199-4524-8b22-3d85a0f3b2d7</stp>
+        <tr r="C63" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9d294dd8-96f1-47d4-9fa4-b14a9ea06330</stp>
+        <tr r="C59" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>168f100a-85bf-460c-b999-d4ad08cbac2f</stp>
+        <tr r="C7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dbdc00e6-228e-4d25-87ae-d9b883a5b551</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>32031d84-09fc-46d5-8753-68a64059fe40</stp>
         <tr r="C54" s="1"/>
       </tp>
     </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d2e20783-21ca-4f0a-bcc5-d1d069f47abf</stp>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>55aca460-1986-4039-be43-d7d629f059c8</stp>
+        <tr r="C36" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>774cc1c8-9e8b-417e-81e0-e0ff8510f009</stp>
+        <tr r="C82" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d8abebdf-7053-4bde-a5d6-8376c14a6df9</stp>
+        <tr r="D8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>724b0f63-2f05-42fd-ba12-8b274b92b951</stp>
+        <tr r="B99" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8cb96b8b-ff9a-4d48-9d8a-cbe9ff9d1f0f</stp>
+        <tr r="C39" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cd38e7de-b74f-44fd-9227-e43b32cf0d7e</stp>
+        <tr r="G6" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>685679d4-59da-445e-bcb8-9da4d16f1c7a</stp>
+        <tr r="E4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0fcc4c06-53b1-4a8c-8c89-d467db6c1985</stp>
+        <tr r="C18" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>de6281b2-93fd-4ae9-9a58-b949c96bbe2b</stp>
+        <tr r="G4" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4002a460-d36d-4f0f-9ef1-23235da590f6</stp>
+        <tr r="C53" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>81f060ab-b1e1-4f6b-8ee2-47140b002673</stp>
+        <tr r="C69" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b3c930cd-07ed-4fab-af9a-ecd9683f6473</stp>
+        <tr r="C52" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>dd6bf1db-0b34-4008-8706-99d5db82a1af</stp>
+        <tr r="C23" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>27ed40c6-c54f-499d-9eed-9ad1bc299a2d</stp>
+        <tr r="D7" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>43170917-4d27-4887-b73b-0803533ad778</stp>
+        <tr r="C76" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>89fe1649-a278-49b6-9a9e-f3639f9d22ed</stp>
+        <tr r="C31" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>eda3e6e8-a57b-4dc7-8caf-a3b09c701478</stp>
+        <tr r="C9" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8ef3f7ac-e55b-4e3a-93fb-67aef4079276</stp>
+        <tr r="K7" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7ee7098a-77ac-4a78-8535-fbf19422977d</stp>
+        <tr r="F8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>64dccf2a-802a-42c5-9662-79ce5cac6210</stp>
+        <tr r="C61" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>85287d6d-4ab8-49ad-bbc1-09a7bc9be9de</stp>
+        <tr r="C13" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>52bcc3ce-91cf-468e-a142-db1933451821</stp>
+        <tr r="F5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5271d084-08a2-4ecc-9160-f333b0368d37</stp>
+        <tr r="C64" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>453e4ce8-769b-4a98-9d81-85e9b26b8f68</stp>
+        <tr r="C50" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>33c97158-297f-443f-9c6c-04e58008fdd4</stp>
+        <tr r="C47" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>2ac7f9a7-fe3b-4bf6-aed9-74b2d91a2a2b</stp>
+        <tr r="E6" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>43dd6780-1a2b-4957-9b21-65276cecffe8</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>134b82e7-d4b5-4f5f-9a45-c97b8763b93b</stp>
+        <tr r="C96" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>65be371c-74b7-4b0d-962b-67b38e0a1112</stp>
+        <tr r="B101" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e4646bd9-f84a-4595-a667-cceebc62f3ed</stp>
+        <tr r="K8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fd7f6021-a435-4106-b1b6-bde4e0d1a60a</stp>
+        <tr r="D5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f933b3b7-68ce-4aa6-96ca-58b0f7adee21</stp>
+        <tr r="C45" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>384ebc0d-501a-4400-98d8-7dcc39c65d35</stp>
+        <tr r="C17" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d1149160-425e-4886-a311-a555e31f36a1</stp>
+        <tr r="C56" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f7f55a77-ad97-40db-9855-fbab286cc961</stp>
+        <tr r="C81" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>50384d3f-c5fc-4454-8b70-67fca9189931</stp>
+        <tr r="K5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>009ab064-57c9-42fc-8b03-10a6ec94961b</stp>
+        <tr r="E7" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c0bf5da6-125c-453c-b679-b710efd80c62</stp>
+        <tr r="B6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4dfd6380-0ac5-48b7-bcf8-cee6acbfe21b</stp>
+        <tr r="C40" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>99f6cd02-dc55-4451-be46-69066e6b8b4f</stp>
+        <tr r="C80" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a0a88bb7-63c5-4bb3-a958-a6564e94d302</stp>
+        <tr r="C32" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b2ba0af6-f954-46f3-bf62-2a611b411177</stp>
+        <tr r="C29" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>694fdc6a-5489-4d5e-8e23-c697185b0464</stp>
+        <tr r="C42" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>30dbb356-e62a-4782-93f6-7052f602b626</stp>
+        <tr r="C57" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1aa9a297-38ab-487a-bb91-c547e5cdfea1</stp>
+        <tr r="D4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c4a96556-c3fe-4c70-ba9c-ddbd7d1d77fd</stp>
+        <tr r="C19" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>838a1387-4cea-4597-9be0-af61d9757eb2</stp>
+        <tr r="H5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4e128346-f3ef-4d16-82ef-6521f91ea3f4</stp>
+        <tr r="C90" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>86ca65f6-16e5-499d-bb40-01d4a9a806b8</stp>
+        <tr r="C34" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5cc44cbf-c369-4f26-ac67-59ef26c350d1</stp>
+        <tr r="H4" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>82ce7a39-6ee5-4d6a-b914-4411584a7ec8</stp>
+        <tr r="C8" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b094d5db-e025-4750-a01e-29a03eb06ab0</stp>
+        <tr r="E5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b92b7c87-c490-4a63-b9c4-9f8bdd65f403</stp>
+        <tr r="C51" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>1398ddf0-346c-4953-8e90-1dde9e392068</stp>
+        <tr r="F3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>65066f2e-a5e7-48f8-bd0b-dd98593dc8c3</stp>
+        <tr r="J5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ed4cf94e-f07b-4e21-94c7-dd22e3563aaf</stp>
+        <tr r="C49" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>020d3235-9f46-4d58-a497-e10a50e29fc7</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ee0d5bf5-7f06-4f0b-889a-5a6d17854b7e</stp>
+        <tr r="C5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e0c7f27a-83fc-4133-8204-755a9a549282</stp>
+        <tr r="C71" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f6f0dca9-d016-41fc-adf7-c8ce31cb8c4b</stp>
+        <tr r="F7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>69149a32-7f0b-4c9d-940e-cdbe56a477b4</stp>
+        <tr r="C62" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ced13e68-8a67-48d0-89e6-50b9c7a1b4ff</stp>
+        <tr r="C41" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>358513df-a9d8-4595-a0bf-7f78105778d4</stp>
+        <tr r="I4" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4c16d8fa-e5d6-45bd-b251-f56afad7fee5</stp>
+        <tr r="C65" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>56ebfbeb-2789-44e7-a5ee-a91f553c4f85</stp>
+        <tr r="C78" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3019a2ef-b3e4-4de0-90f9-68ba96674fbb</stp>
+        <tr r="C46" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fb5b42e1-8749-4013-a7ac-0c1535f035e8</stp>
+        <tr r="E8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9e7e8f72-722e-46b7-9180-e6f92a8c1566</stp>
         <tr r="C5" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>8d557863-39a6-4bbe-a4c1-8a242b0da62c</stp>
+        <stp>6a489f60-d303-46d5-b0f9-7ff60856477e</stp>
+        <tr r="D3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>303f526c-09d9-49ef-8999-4f102b21619a</stp>
+        <tr r="J8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e03fa48f-8845-4fee-9fa6-76cdb26bbd08</stp>
+        <tr r="C75" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6c558d27-7c78-47f0-b94c-5532eb1f6865</stp>
+        <tr r="C21" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4a11219a-43e6-4196-9d04-1217986f5303</stp>
+        <tr r="C7" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c5db8edb-579c-4320-9a81-ffb5f365fc34</stp>
+        <tr r="C28" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>07fd9a22-a335-4fd3-94e2-59a1336570a7</stp>
+        <tr r="C8" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b233cfdd-b12b-4437-85b1-62c3390393f6</stp>
+        <tr r="I5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>48193780-6856-4840-9c79-2b5d2a60afb1</stp>
+        <tr r="C93" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4b95785e-3ac2-491b-8246-a6235da246cf</stp>
+        <tr r="C3" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>46353c2b-7d52-4862-8488-20caa4b3b709</stp>
+        <tr r="H7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b81a2214-0560-41f5-ba51-bbe85fe49d5c</stp>
+        <tr r="C97" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5eaa17e5-1684-4079-b812-56b3b2e8852d</stp>
+        <tr r="C94" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8d888f2f-612f-424b-b9c5-f8fecd4bb3e6</stp>
+        <tr r="C83" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a9b31a70-b24c-4f5e-b636-ba53d1a9ffeb</stp>
+        <tr r="J7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>93b184e1-9def-4b0e-a6c3-f8ae26e00ce6</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>4d9c5ccb-016f-4af2-8da9-4e38b1bbde1c</stp>
+        <tr r="H6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>149ad886-7e92-402f-b380-9f24b7d68ac5</stp>
+        <tr r="I6" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>64c76c4b-563a-43b5-8999-7161e9828347</stp>
+        <tr r="C26" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fbc73b42-01b5-4b97-a698-e78f1dbaa8f0</stp>
+        <tr r="C14" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ef6007e5-8c50-4c8c-b6e9-ce036fe9e919</stp>
+        <tr r="C44" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>97d7fbf4-4f83-4952-9b1a-2636c6ce06fe</stp>
+        <tr r="C73" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>91bd15fd-d52c-4461-812e-16a55d175ee0</stp>
+        <tr r="C35" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>de0a0531-a88f-45dd-a016-4c89ae6386bd</stp>
+        <tr r="C15" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>575107ce-d409-4bb6-a85a-6c43aa74a20f</stp>
+        <tr r="C66" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bbb74e9c-a311-4086-a7f8-e59456982beb</stp>
         <tr r="D6" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b2698c9a-7f7f-4305-bcab-4bd4580bf511</stp>
-        <tr r="C41" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>838f15e0-8973-4bdf-9735-4c30f1147d0e</stp>
-        <tr r="B8" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a3625be6-609e-4fbe-a2d2-9dcfffa18944</stp>
-        <tr r="C10" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e68772d7-4d5e-4042-8368-248f2e68787a</stp>
-        <tr r="D3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b0d3fd17-ad09-4f3e-a693-4a5497e68a94</stp>
-        <tr r="C80" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>10895ae8-7562-4dab-b0d5-fdf709ba0c57</stp>
-        <tr r="C13" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ff2230d4-668e-4ad9-8f42-f324277f776f</stp>
-        <tr r="E5" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>375a8952-bb60-467c-8e77-fa3c4b191e39</stp>
-        <tr r="J8" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>25631f8a-5bdd-418f-bc90-aa98318637e0</stp>
-        <tr r="C53" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>494f2f96-4a17-42ac-8939-656025ed9e7d</stp>
-        <tr r="C34" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>810453bf-bd10-4907-9589-b9cec11f1828</stp>
-        <tr r="C74" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f9f91170-9f87-4c22-9637-08a70e23527b</stp>
-        <tr r="C63" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>05a01d60-cf5c-4282-b1ec-450546cc99d5</stp>
-        <tr r="C21" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9150ce6c-86f6-4309-addf-ffc8181470f1</stp>
-        <tr r="C55" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2db18c46-0953-42e3-8e84-1daed038f702</stp>
-        <tr r="C12" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d0678f25-6c8e-4f01-a692-4f9f857b7dd7</stp>
-        <tr r="G3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>41bde1ec-f11a-4f6b-b341-2b48e897f2d0</stp>
-        <tr r="C33" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d60434dd-21d7-41fe-aba1-f43149d91ace</stp>
-        <tr r="K5" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4d136c2d-fa81-4d3e-a4d9-cb4f7c49399b</stp>
-        <tr r="H7" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c721e752-b2e1-478d-9c96-d57fa13fbcb6</stp>
-        <tr r="C15" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9e8b697b-a42d-4667-a9ee-21f3627b5408</stp>
-        <tr r="J7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a9e6e742-97ea-49ed-99a1-7844cac42339</stp>
-        <tr r="C76" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>38412531-3a58-4cf7-ad06-1ec795dbb03d</stp>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c0743126-6044-4ddf-b760-0b3c1b1d0092</stp>
+        <tr r="C25" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c864d186-1f61-4d25-953e-580d23d40b49</stp>
         <tr r="E3" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1b7dfa78-8c16-40f6-82fa-7c9bbec784a0</stp>
-        <tr r="C66" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>18352715-d26c-4e08-9154-c5a6888bf2bb</stp>
-        <tr r="C22" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a5e5f2c5-3d08-48dd-a48f-6a3fdb4ee211</stp>
-        <tr r="C45" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>784f06b2-6ee6-446f-80ff-f116e1520afc</stp>
-        <tr r="C75" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>20d6815b-f0f9-4955-8dde-e987adbe616e</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c65de7b7-68a1-42c7-a8de-49cc77f2207b</stp>
-        <tr r="C79" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d9bca3b1-182c-43be-a987-a6174322b97f</stp>
-        <tr r="C92" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>aad3650a-4ac5-4fec-a472-0ce9a9f7d454</stp>
-        <tr r="D12" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3df4b968-3331-4ea2-b6fe-2e57a7bde2fe</stp>
-        <tr r="C89" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1a7713eb-1c08-40a9-bb79-37d78e477d74</stp>
-        <tr r="H5" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>88a990f8-1c8b-4080-93b0-36fed2af143a</stp>
-        <tr r="C40" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7a4998dd-6d7f-469e-b275-84cfafc7e4d0</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fc923a84-06fb-4315-abb1-39209343b4fb</stp>
-        <tr r="C3" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6ff81cdd-3779-40fb-8289-14c51b986a00</stp>
-        <tr r="C6" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bc1da75e-e183-4fa3-8220-b516afae1834</stp>
-        <tr r="E8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>2</v>
-        <stp/>
-        <stp>d24736e5-8b2f-426e-bd7b-a5af6bc1cbc4</stp>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e97b07d6-30b9-46e9-94fc-9b13cba504c7</stp>
+        <tr r="C38" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>3f175e35-7b71-4994-8c73-9c4f6db60f6b</stp>
+        <tr r="G7" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b2894d7f-3d3e-47f2-b264-618361f04755</stp>
+        <tr r="G8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9a11ba9f-7bfe-4ee4-9361-63da8f14f689</stp>
+        <tr r="C43" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>002d5794-caa8-4c8d-887e-7a2ea04c1025</stp>
+        <tr r="D15" s="3"/>
+      </tp>
+      <tp>
+        <v>2</v>
+        <stp/>
+        <stp>c789093e-54bb-4c37-959a-ad6cbeb77b1f</stp>
         <tr r="C101" s="1"/>
         <tr r="C100" s="1"/>
         <tr r="C99" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c2f725a9-4901-4fb4-a25e-c74697094f16</stp>
-        <tr r="I5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>75f6c678-aa85-4b22-8aa6-aef4bd27ad66</stp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>20c4e2f2-68d1-4947-a561-5c3f4af6cadb</stp>
+        <tr r="H8" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>fad1fdee-f3a8-49e1-a4c9-ca7f6e75ac59</stp>
+        <tr r="I8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a545f63c-b310-4da4-b9d6-e2a9637def41</stp>
+        <tr r="C3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>766e6b86-db62-4630-b9f7-20bac3c30371</stp>
+        <tr r="I7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>9b23124c-4d6a-40da-8319-a3d1d29e2d4a</stp>
+        <tr r="C84" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>50bc1712-4569-45f2-a0dc-fd855f230674</stp>
+        <tr r="C33" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b265a01a-d221-4dd6-83ca-2cb9bdb50e17</stp>
+        <tr r="C16" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>24a83d2b-a31a-4494-bac9-1ff8afc05780</stp>
+        <tr r="C10" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>6822d9e6-9224-46df-98ae-8833c42f1bfc</stp>
+        <tr r="C58" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ea522c10-2661-4dee-aba0-23c5d4888b03</stp>
+        <tr r="C27" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>23c2b666-2052-449d-b9b5-d595ee30f020</stp>
+        <tr r="B3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>0ad320a1-d497-451c-8368-6088369177cc</stp>
+        <tr r="G5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>cb502e24-d1d1-46b1-a12f-d27ecac8ac72</stp>
+        <tr r="C22" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>e60f2bff-cdf1-49b0-8b0d-9c43d1ba0595</stp>
         <tr r="C88" s="1"/>
       </tp>
       <tp>
         <v>3</v>
         <stp/>
-        <stp>7f4b89e5-f237-438d-9517-b909eea15db0</stp>
-        <tr r="C44" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>64841ca2-2b54-46e7-b4ba-9da01b82cced</stp>
-        <tr r="F5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d6126f61-0d09-41a7-9aaa-5ef9724e747b</stp>
+        <stp>90efda90-1d3a-4d82-a4a3-edba81bbf61d</stp>
+        <tr r="C20" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7c5dbefa-10cf-4f4a-a224-b48df0b21018</stp>
+        <tr r="C12" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ed758433-1852-4620-b415-2a3737065f6d</stp>
+        <tr r="C86" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bf35f908-3b8d-4976-b39b-2f8d24d75aa0</stp>
+        <tr r="C74" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>f41e6a1e-fbaf-4c63-9daf-6032089c390a</stp>
+        <tr r="F6" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>8dc12225-f41e-40d0-9ca5-6434a255b721</stp>
+        <tr r="C55" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>bec45556-ac0b-4a50-b6c0-c709a56b40da</stp>
+        <tr r="C85" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>7253a8d1-ca55-42d7-ad65-bc5cdc7288a0</stp>
+        <tr r="C89" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>d0b30a5d-7848-4dba-9ad5-ce6825798c5a</stp>
+        <tr r="C87" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5ef77803-5133-4e3a-8cd8-c97350d01773</stp>
+        <tr r="D12" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>b5122cfd-7640-4962-9e77-72c1bf043c88</stp>
+        <tr r="G3" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>ec7c52c8-0250-4fec-8c21-00abcb2651ef</stp>
+        <tr r="D13" s="3"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>5b6edeb9-5268-4671-a1a1-1e31e77f6c6a</stp>
+        <tr r="B5" s="2"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>a3fe690b-6a49-492b-bd78-e89ca23e116a</stp>
+        <tr r="C72" s="1"/>
+      </tp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>c84282fb-8bd1-42f4-84bc-1b46e1e0ce53</stp>
+        <tr r="C2" s="1"/>
+      </tp>
+    </main>
+    <main first="rtdsrv_2ae83d24826a403c8d3cc36b3d279263">
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>44d49daa-e707-4af6-b067-f8bb2fe339dc</stp>
         <tr r="C77" s="1"/>
       </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2eae3018-3bdd-4f95-af7e-31b9c369033e</stp>
-        <tr r="I4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>636f2b0b-0904-4472-8a11-41c4b6c7608e</stp>
-        <tr r="C14" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>206f0b35-3202-4bc6-ba38-430cfd84beef</stp>
-        <tr r="C57" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7ff9c2bf-e5cf-4b1c-8842-57669dc0ec05</stp>
-        <tr r="E6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bbc54ae7-5907-40e4-ab48-0bff435301d3</stp>
-        <tr r="C27" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bd64285f-5baa-4978-9415-2cee9b7fb71e</stp>
-        <tr r="B7" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>20897ca4-251a-4efd-8259-33f1e5d90a5b</stp>
-        <tr r="C87" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>11b89530-32f9-43cf-8e98-3be759c1fd86</stp>
-        <tr r="C43" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6904c87a-dea9-4cf3-937e-ece24480eaa7</stp>
-        <tr r="F4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>491245a0-4fda-4696-9c61-7fdb81dca830</stp>
-        <tr r="C8" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4646be57-ce3e-4272-8d1c-75e637031fd8</stp>
-        <tr r="B5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8f1760b8-198a-4e2d-b2e1-4ed4e0c7fce7</stp>
-        <tr r="B100" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b18267bb-94bd-4997-889f-4f639e38db9d</stp>
-        <tr r="C96" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>edac5af2-61a6-4b17-b1fd-ff4aedf5a05d</stp>
-        <tr r="C30" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>75b99f30-a65b-4d30-b3d6-0f957a364046</stp>
-        <tr r="B4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1ff3d33d-47cb-464e-a6f0-87c3e4e3107c</stp>
-        <tr r="H6" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cc868b5d-6a5b-4af7-a1bf-e6da8111b4ff</stp>
-        <tr r="E7" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fc9e6a35-e30f-4c83-be11-75fd31b8f068</stp>
-        <tr r="C91" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>720abd20-4c81-4c98-9328-20d32360e9c7</stp>
-        <tr r="C4" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>913d7cf9-5e1c-43b9-ac3c-926d0577f813</stp>
-        <tr r="G5" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cf409c6b-e143-4565-b4ee-7dc557d49126</stp>
-        <tr r="C83" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a775c27f-2e31-46cb-95b8-70603c5146e2</stp>
-        <tr r="C50" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e2b1d2e9-f49a-4861-9a68-f3eeda3dfaa8</stp>
-        <tr r="C84" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>94d3ba15-d4eb-4a0b-be54-53f0d33ae40d</stp>
-        <tr r="C32" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fb582782-a0b7-45dd-a439-f7b646c4107e</stp>
-        <tr r="J4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ec85ccd6-4cdc-4557-8d25-3668bd90e0df</stp>
-        <tr r="C25" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>08d32f7f-5c93-4442-9f93-e2b6f570e435</stp>
-        <tr r="C11" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3ffe4f6c-31c6-495d-98c6-cd1213bed0bc</stp>
-        <tr r="D5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2b3b2e66-a311-4044-9d24-e7ae11753528</stp>
-        <tr r="C64" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>85b0d858-370d-41ed-a0b1-ae9e28e21665</stp>
-        <tr r="C8" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>31da47fc-0624-48d5-ade0-6ce193dcae96</stp>
-        <tr r="C59" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e343b1c0-a976-4fa1-8f21-72ac720e0306</stp>
-        <tr r="C9" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3266f03a-3b89-4b88-914c-695d2b59a575</stp>
-        <tr r="B99" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6d0a6c37-cfda-496a-aac2-c17be3c99760</stp>
-        <tr r="J5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fceed703-729e-4540-8fbb-984fcfd1fc76</stp>
-        <tr r="D8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>12dda863-ca8b-4d12-a16b-a3370c76a110</stp>
-        <tr r="C72" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4f705997-5590-4d3a-9ef6-7d430ff18b20</stp>
-        <tr r="C5" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>85d3c830-cf6e-4bac-a8d6-1c964ef27b89</stp>
+      <tp>
+        <v>3</v>
+        <stp/>
+        <stp>73f1a03d-4ee1-4b64-8464-37d23a36918a</stp>
         <tr r="K6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7cc2b66c-8280-4c56-9d76-385d18e86a82</stp>
-        <tr r="C23" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>384edec0-a41b-4c8f-9ac7-1e853ec9f405</stp>
-        <tr r="C86" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>39d2172e-7b53-42e4-b450-9ca1f2011df3</stp>
-        <tr r="H4" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>918a79c8-f675-4e85-8d97-ba82e60258f5</stp>
-        <tr r="C60" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>86e7380a-24df-4e8c-a92c-2a2292d053b5</stp>
-        <tr r="F6" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cffd1182-2cc9-41c9-892e-cf9a7e88fc64</stp>
-        <tr r="B3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>39eba249-60c3-4037-a75a-a26f14fe973e</stp>
-        <tr r="H3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>358669cb-5c1d-40e6-a243-b78be2903029</stp>
-        <tr r="C97" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b1b7a9a1-c3f9-43ff-b713-ae1514895c02</stp>
-        <tr r="C49" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b86a4b99-2e21-4f6b-912d-5978676a6805</stp>
-        <tr r="C18" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2120dd32-216e-4f82-9187-2fe4356d918e</stp>
-        <tr r="C58" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>27bd52db-7957-4c8e-86f1-21ada972e6d4</stp>
-        <tr r="C28" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e9ffdcaa-3089-4077-a17a-0c2691312386</stp>
-        <tr r="C31" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>432c7984-08be-4e90-ac5b-cc8f00201dbe</stp>
-        <tr r="C51" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0b3dece9-b06b-452f-934e-859c49a7f5bb</stp>
-        <tr r="I7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>d34faee5-a091-44c8-bf57-4d8af2090e7d</stp>
-        <tr r="B101" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>12bc449e-9613-4ca0-8d2b-2d2696e45f7a</stp>
-        <tr r="C95" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>db73ff4d-8a5d-45b2-b485-71e6691057a9</stp>
-        <tr r="C69" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9697c0ff-3848-47dc-a420-41bde8a78d1a</stp>
-        <tr r="C39" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>112ea473-93a6-47fe-8f76-311f33cabe45</stp>
-        <tr r="G7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ed855139-846f-4ddd-9bee-da751b935fdd</stp>
-        <tr r="C26" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>1de3e927-c7c8-431a-a1c7-0fdc8aee82e1</stp>
-        <tr r="C2" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>69cb4008-08aa-4a6f-acb6-85d90fb5dd5b</stp>
-        <tr r="C78" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>bb7eeada-81ac-429b-9ee3-ab7f40215d09</stp>
-        <tr r="C42" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ebd06340-5355-4916-8883-a60f4eb8239a</stp>
-        <tr r="C81" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>77c22f41-a7ed-4088-976f-a34b67f860af</stp>
-        <tr r="D13" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0122b978-e1de-487e-bc1d-e83409613394</stp>
-        <tr r="C7" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>55cd9c7b-e89f-448c-86ec-28320609b0ab</stp>
-        <tr r="C35" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f8215ca0-582a-42e9-aa09-97ea180c7ceb</stp>
-        <tr r="C70" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4a01777c-ea79-4108-bebf-ce074514c222</stp>
-        <tr r="C38" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>5520e470-2780-4716-885e-ffb3887a2e70</stp>
-        <tr r="G6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>0dd45175-6b3c-47e3-a310-8b974c393dab</stp>
-        <tr r="C24" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f4d1d5c6-3fa1-4e4b-a2fb-04b38ccf4ef5</stp>
-        <tr r="E4" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fd9a6157-d96f-446b-9bdc-0e850bda5427</stp>
-        <tr r="K7" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>e72bf5c5-4865-44e0-9b3c-e85801552832</stp>
-        <tr r="C82" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7372bfc1-f1a5-4655-83eb-6cf327cd237b</stp>
-        <tr r="C19" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fe3a1833-6bab-45b5-b999-74963f31501c</stp>
-        <tr r="J6" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f34d6e5c-7c62-4fb3-83b0-95b4ebe23b48</stp>
-        <tr r="I8" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ee638710-0806-469f-8771-daca0e97820e</stp>
-        <tr r="C37" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6fde6031-3c5c-46b5-910c-bdaf957634d3</stp>
-        <tr r="C20" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dbcf1029-83ed-4a0f-9b4f-7f66cc3718fe</stp>
-        <tr r="B6" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>030b9369-5d9b-4fe5-9156-41433cb3fab2</stp>
-        <tr r="C61" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>8e6cffff-4faf-4146-b46f-2dad31042db0</stp>
-        <tr r="C7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>09cd968f-dff7-4d02-bf1c-48282d7412b6</stp>
-        <tr r="C36" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>a74dbac8-3b29-42ab-a60d-97b79da1dba2</stp>
-        <tr r="C17" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7cf0a3cc-5a7d-4dc5-a1ad-11f91ea44c2a</stp>
-        <tr r="C52" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f58c6e27-bea4-43c0-8161-f7eedd848a45</stp>
-        <tr r="H8" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f1f14906-c79b-4390-9d22-b8d1de6dc3c5</stp>
-        <tr r="I6" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f25b5139-be24-4ae5-af68-96518e4bf112</stp>
-        <tr r="C67" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2d933644-fcda-4c77-a565-51b137c643b4</stp>
-        <tr r="F8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3df70efd-ecd5-4237-bae8-ee6090ecbc37</stp>
-        <tr r="C94" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>6020a03e-22e2-40be-ba05-43d080538dc2</stp>
-        <tr r="C47" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c38e7f4b-a77c-4704-8a0f-a0d6d24b9287</stp>
-        <tr r="C4" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>07c8ae29-9f07-4095-9b0d-7b14340c298c</stp>
-        <tr r="C3" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>c99b6e4b-25b8-4c19-947e-bdfb3f671cad</stp>
-        <tr r="C71" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>3c80b7c2-7a01-4263-87fa-e03ed4d8f3ab</stp>
-        <tr r="D7" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>30fe5239-8ce8-4581-bcef-58bb62da8e63</stp>
-        <tr r="G4" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f5a68d55-437e-4218-b460-65563fe269e6</stp>
-        <tr r="C46" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>b856ce72-eb81-4159-b6d1-6aa3051790bf</stp>
-        <tr r="D4" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>2fef4a97-09b4-4506-9c32-20e16740a4c8</stp>
-        <tr r="C16" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>04b236f0-bed0-46a9-9c19-bbf2f3f0a8bc</stp>
-        <tr r="F7" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>cbec821a-b910-49ad-b31f-0d6542c0a0a9</stp>
-        <tr r="C65" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>dc0be50f-bb2d-41b4-890e-00ad25ab347d</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7de684ce-d18f-41c4-bda1-f248ccb081c9</stp>
-        <tr r="D15" s="3"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>78429310-223a-4764-9949-798491fc90ee</stp>
-        <tr r="F3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>f625e472-d2ec-47cd-8bbc-0300c7248f84</stp>
-        <tr r="C56" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>26812b2c-5425-4968-baff-8bde29d0ff84</stp>
-        <tr r="K8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>29aaf8b0-4966-46b8-b291-078d9bfa9c73</stp>
-        <tr r="C48" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>ad3ceba9-9b10-4ba0-996b-f22c6033096f</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>098118ad-9bbe-4615-a913-18bbcd65ebfe</stp>
-        <tr r="C90" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>7d57c88e-d0d4-4d7e-b294-13717fec33f0</stp>
-        <tr r="G8" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>046b5eca-457d-480b-b9b2-13cf4fc092ee</stp>
-        <tr r="C85" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>4b227c43-d588-4c3d-a502-468bce775add</stp>
-        <tr r="C68" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>40461590-b880-417c-b1d1-5382b20b4bc3</stp>
-        <tr r="C62" s="1"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>948446f1-0e81-4ee7-9313-4bc19d9b812e</stp>
-        <tr r="C29" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>9f181cac-8a22-493c-80e7-e012002d288d</stp>
-        <tr r="C93" s="1"/>
-      </tp>
-    </main>
-    <main first="rtdsrv_c6a0ff71f9054d15a3d88f2492d320ed">
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>fbf87903-686c-44f3-bb12-7c93d6e6792d</stp>
-        <tr r="K4" s="2"/>
-      </tp>
-      <tp>
-        <v>3</v>
-        <stp/>
-        <stp>17912bbe-e471-426f-a16d-12e4c2e40c8a</stp>
-        <tr r="C73" s="1"/>
       </tp>
     </main>
   </volType>
@@ -1692,8 +1690,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.6328125" style="7" customWidth="1"/>
     <col min="4" max="4" width="54.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1706,32 +1704,32 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" t="str" cm="1">
         <f t="array" ref="D2">_xll.YahooQuote()</f>
         <v>YahooXL, Version=0.3.0.0, Culture=neutral, PublicKeyToken=null</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" t="str" cm="1">
         <f t="array" ref="D3">_xll.YahooQuote("")</f>
         <v>YahooXL, Version=0.3.0.0, Culture=neutral, PublicKeyToken=null</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" t="str" cm="1">
         <f t="array" ref="D4">_xll.YahooQuote("","")</f>
         <v>YahooXL, Version=0.3.0.0, Culture=neutral, PublicKeyToken=null</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="str" cm="1">
@@ -1740,8 +1738,8 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="str" cm="1">
@@ -1750,8 +1748,8 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="str" cm="1">
@@ -1760,8 +1758,8 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
         <v>0</v>
       </c>
       <c r="D8" t="str" cm="1">
@@ -1770,8 +1768,8 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
         <v>500</v>
       </c>
       <c r="D9" t="str" cm="1">
@@ -1780,8 +1778,8 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
         <v>-1</v>
       </c>
       <c r="D10" t="str" cm="1">
@@ -1790,42 +1788,42 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
       <c r="D11" t="str" cm="1">
         <f t="array" ref="D11">_xll.YahooQuote(B11,C11)</f>
         <v>YahooXL: symbol not found: "badSymbol".</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" cm="1">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" cm="1">
         <f t="array" ref="D12">_xll.YahooQuote(B12,C12)</f>
-        <v>152.63</v>
+        <v>190.43</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="str" cm="1">
+      <c r="D13" s="9" t="str" cm="1">
         <f t="array" ref="D13">_xll.YahooQuote(B13,C13)</f>
         <v>International Business Machines Corporation</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="str" cm="1">
@@ -1834,10 +1832,10 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="str" cm="1">
@@ -1846,8 +1844,8 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" t="str" cm="1">
         <f t="array" ref="D16">_xll.YahooQuote(B16,C16)</f>
         <v>YahooXL, Version=0.3.0.0, Culture=neutral, PublicKeyToken=null</v>
@@ -1862,25 +1860,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.26953125" customWidth="1"/>
     <col min="2" max="2" width="31.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="7" customWidth="1"/>
     <col min="5" max="5" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1895,11 +1891,11 @@
         <f>+_xll.YahooQuote(B$1,$A2)</f>
         <v>Symbol</v>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B2)</f>
         <v>MSFT</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>TYPE(C2)</f>
         <v>2</v>
       </c>
@@ -1913,11 +1909,11 @@
         <f>+_xll.YahooQuote(B$1,$A3)</f>
         <v>ContractSymbol</v>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="C3" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B3)</f>
         <v/>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f>TYPE(C3)</f>
         <v>2</v>
       </c>
@@ -1931,11 +1927,11 @@
         <f>+_xll.YahooQuote(B$1,$A4)</f>
         <v>UnderlyingSymbol</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B4)</f>
         <v/>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f t="shared" ref="D4:D67" si="1">TYPE(C4)</f>
         <v>2</v>
       </c>
@@ -1949,11 +1945,11 @@
         <f>+_xll.YahooQuote(B$1,$A5)</f>
         <v>UnderlyingExchangeSymbol</v>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="C5" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B5)</f>
         <v/>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1967,11 +1963,11 @@
         <f>+_xll.YahooQuote(B$1,$A6)</f>
         <v>HeadSymbolAsString</v>
       </c>
-      <c r="C6" s="8" t="str">
+      <c r="C6" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B6)</f>
         <v/>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1985,11 +1981,11 @@
         <f>+_xll.YahooQuote(B$1,$A7)</f>
         <v>Currency</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B7)</f>
         <v>USD</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2003,11 +1999,11 @@
         <f>+_xll.YahooQuote(B$1,$A8)</f>
         <v>FinancialCurrency</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B8)</f>
         <v>USD</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2021,11 +2017,11 @@
         <f>+_xll.YahooQuote(B$1,$A9)</f>
         <v>LongName</v>
       </c>
-      <c r="C9" s="8" t="str">
+      <c r="C9" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B9)</f>
         <v>Microsoft Corporation</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2039,11 +2035,11 @@
         <f>+_xll.YahooQuote(B$1,$A10)</f>
         <v>ShortName</v>
       </c>
-      <c r="C10" s="8" t="str">
+      <c r="C10" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B10)</f>
         <v>Microsoft Corporation</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2057,11 +2053,11 @@
         <f>+_xll.YahooQuote(B$1,$A11)</f>
         <v>Language</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B11)</f>
         <v>en-US</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2075,11 +2071,11 @@
         <f>+_xll.YahooQuote(B$1,$A12)</f>
         <v>QuoteType</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B12)</f>
         <v>EQUITY</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2093,11 +2089,11 @@
         <f>+_xll.YahooQuote(B$1,$A13)</f>
         <v>QuoteSourceName</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B13)</f>
         <v>Nasdaq Real Time Price</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2111,11 +2107,11 @@
         <f>+_xll.YahooQuote(B$1,$A14)</f>
         <v>DisplayName</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C14" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B14)</f>
         <v>Microsoft</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2129,11 +2125,11 @@
         <f>+_xll.YahooQuote(B$1,$A15)</f>
         <v>TypeDisp</v>
       </c>
-      <c r="C15" s="8" t="str">
+      <c r="C15" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B15)</f>
         <v>Equity</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2147,11 +2143,11 @@
         <f>+_xll.YahooQuote(B$1,$A16)</f>
         <v>Region</v>
       </c>
-      <c r="C16" s="8" t="str">
+      <c r="C16" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B16)</f>
         <v>US</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2165,11 +2161,11 @@
         <f>+_xll.YahooQuote(B$1,$A17)</f>
         <v>Tradeable</v>
       </c>
-      <c r="C17" s="8" t="b">
+      <c r="C17" s="7" t="b">
         <f>+_xll.YahooQuote(C$1,$B17)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2183,11 +2179,11 @@
         <f>+_xll.YahooQuote(B$1,$A18)</f>
         <v>CryptoTradeable</v>
       </c>
-      <c r="C18" s="8" t="b">
+      <c r="C18" s="7" t="b">
         <f>+_xll.YahooQuote(C$1,$B18)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2201,11 +2197,11 @@
         <f>+_xll.YahooQuote(B$1,$A19)</f>
         <v>Triggerable</v>
       </c>
-      <c r="C19" s="8" t="b">
+      <c r="C19" s="7" t="b">
         <f>+_xll.YahooQuote(C$1,$B19)</f>
         <v>1</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2219,11 +2215,11 @@
         <f>+_xll.YahooQuote(B$1,$A20)</f>
         <v>EsgPopulated</v>
       </c>
-      <c r="C20" s="8" t="b">
+      <c r="C20" s="7" t="b">
         <f>+_xll.YahooQuote(C$1,$B20)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2237,11 +2233,11 @@
         <f>+_xll.YahooQuote(B$1,$A21)</f>
         <v>MessageBoardId</v>
       </c>
-      <c r="C21" s="8" t="str">
+      <c r="C21" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B21)</f>
         <v>finmb_21835</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2255,11 +2251,11 @@
         <f>+_xll.YahooQuote(B$1,$A22)</f>
         <v>PriceHint</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <f>+_xll.YahooQuote(C$1,$B22)</f>
         <v>2</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2273,11 +2269,11 @@
         <f>+_xll.YahooQuote(B$1,$A23)</f>
         <v>SourceInterval</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <f>+_xll.YahooQuote(C$1,$B23)</f>
         <v>15</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2291,11 +2287,11 @@
         <f>+_xll.YahooQuote(B$1,$A24)</f>
         <v>Market</v>
       </c>
-      <c r="C24" s="8" t="str">
+      <c r="C24" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B24)</f>
         <v>us_market</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2309,11 +2305,11 @@
         <f>+_xll.YahooQuote(B$1,$A25)</f>
         <v>MarketState</v>
       </c>
-      <c r="C25" s="8" t="str">
+      <c r="C25" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B25)</f>
-        <v>REGULAR</v>
-      </c>
-      <c r="D25" s="8">
+        <v>PRE</v>
+      </c>
+      <c r="D25" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2327,11 +2323,11 @@
         <f>+_xll.YahooQuote(B$1,$A26)</f>
         <v>MarketCap</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <f>+_xll.YahooQuote(C$1,$B26)</f>
-        <v>2752463241216</v>
-      </c>
-      <c r="D26" s="8">
+        <v>3009099071488</v>
+      </c>
+      <c r="D26" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2345,11 +2341,11 @@
         <f>+_xll.YahooQuote(B$1,$A27)</f>
         <v>SharesOutstanding</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <f>+_xll.YahooQuote(C$1,$B27)</f>
         <v>7432260096</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2363,11 +2359,11 @@
         <f>+_xll.YahooQuote(B$1,$A28)</f>
         <v>OpenInterest</v>
       </c>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B28)</f>
         <v/>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2381,11 +2377,11 @@
         <f>+_xll.YahooQuote(B$1,$A29)</f>
         <v>Bid</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <f>+_xll.YahooQuote(C$1,$B29)</f>
-        <v>370.98</v>
-      </c>
-      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2399,11 +2395,11 @@
         <f>+_xll.YahooQuote(B$1,$A30)</f>
         <v>Ask</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <f>+_xll.YahooQuote(C$1,$B30)</f>
-        <v>370.99</v>
-      </c>
-      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2417,11 +2413,11 @@
         <f>+_xll.YahooQuote(B$1,$A31)</f>
         <v>BidSize</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <f>+_xll.YahooQuote(C$1,$B31)</f>
-        <v>14</v>
-      </c>
-      <c r="D31" s="8">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2435,11 +2431,11 @@
         <f>+_xll.YahooQuote(B$1,$A32)</f>
         <v>AskSize</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <f>+_xll.YahooQuote(C$1,$B32)</f>
-        <v>12</v>
-      </c>
-      <c r="D32" s="8">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2453,21 +2449,21 @@
         <f>+_xll.YahooQuote(B$1,$A33)</f>
         <v>RegularMarketTimeSeconds</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <f>+_xll.YahooQuote(C$1,$B33)</f>
-        <v>1700236734</v>
-      </c>
-      <c r="D33" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E33" s="11" cm="1">
+        <v>1706216401</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" cm="1">
         <f t="array" ref="E33">_xll.UnixSecondsToDateTime(C33,C$57)</f>
-        <v>45247.457569444443</v>
-      </c>
-      <c r="F33" s="12">
+        <v>45316.666678240741</v>
+      </c>
+      <c r="F33" s="11">
         <f>E33</f>
-        <v>45247.457569444443</v>
+        <v>45316.666678240741</v>
       </c>
       <c r="G33" t="s">
         <v>22</v>
@@ -2482,16 +2478,16 @@
         <f>+_xll.YahooQuote(B$1,$A34)</f>
         <v>RegularMarketPrice</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <f>+_xll.YahooQuote(C$1,$B34)</f>
-        <v>370.34</v>
-      </c>
-      <c r="D34" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+        <v>404.87</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -2502,16 +2498,16 @@
         <f>+_xll.YahooQuote(B$1,$A35)</f>
         <v>RegularMarketOpen</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <f>+_xll.YahooQuote(C$1,$B35)</f>
-        <v>373.61</v>
-      </c>
-      <c r="D35" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+        <v>404.32</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
@@ -2522,16 +2518,16 @@
         <f>+_xll.YahooQuote(B$1,$A36)</f>
         <v>RegularMarketPreviousClose</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <f>+_xll.YahooQuote(C$1,$B36)</f>
-        <v>376.17</v>
-      </c>
-      <c r="D36" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+        <v>402.56</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
@@ -2542,11 +2538,11 @@
         <f>+_xll.YahooQuote(B$1,$A37)</f>
         <v>RegularMarketChange</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <f>+_xll.YahooQuote(C$1,$B37)</f>
-        <v>-5.8300169999999998</v>
-      </c>
-      <c r="D37" s="8">
+        <v>2.3099976</v>
+      </c>
+      <c r="D37" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2560,11 +2556,11 @@
         <f>+_xll.YahooQuote(B$1,$A38)</f>
         <v>RegularMarketChangePercent</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <f>+_xll.YahooQuote(C$1,$B38)</f>
-        <v>-1.5498357</v>
-      </c>
-      <c r="D38" s="8">
+        <v>0.57382690000000003</v>
+      </c>
+      <c r="D38" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2578,11 +2574,11 @@
         <f>+_xll.YahooQuote(B$1,$A39)</f>
         <v>RegularMarketDayHigh</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <f>+_xll.YahooQuote(C$1,$B39)</f>
-        <v>374.37</v>
-      </c>
-      <c r="D39" s="8">
+        <v>407.01</v>
+      </c>
+      <c r="D39" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2596,11 +2592,11 @@
         <f>+_xll.YahooQuote(B$1,$A40)</f>
         <v>RegularMarketDayLow</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <f>+_xll.YahooQuote(C$1,$B40)</f>
-        <v>369.97</v>
-      </c>
-      <c r="D40" s="8">
+        <v>402.52940000000001</v>
+      </c>
+      <c r="D40" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2614,11 +2610,11 @@
         <f>+_xll.YahooQuote(B$1,$A41)</f>
         <v>RegularMarketDayRange</v>
       </c>
-      <c r="C41" s="8" t="str">
+      <c r="C41" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B41)</f>
-        <v>369.97 - 374.37</v>
-      </c>
-      <c r="D41" s="8">
+        <v>402.5294 - 407.01</v>
+      </c>
+      <c r="D41" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2632,11 +2628,11 @@
         <f>+_xll.YahooQuote(B$1,$A42)</f>
         <v>RegularMarketVolume</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <f>+_xll.YahooQuote(C$1,$B42)</f>
-        <v>10426146</v>
-      </c>
-      <c r="D42" s="8">
+        <v>20529365</v>
+      </c>
+      <c r="D42" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2650,11 +2646,11 @@
         <f>+_xll.YahooQuote(B$1,$A43)</f>
         <v>AverageDailyVolume10Day</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <f>+_xll.YahooQuote(C$1,$B43)</f>
-        <v>25463370</v>
-      </c>
-      <c r="D43" s="8">
+        <v>24494350</v>
+      </c>
+      <c r="D43" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2668,11 +2664,11 @@
         <f>+_xll.YahooQuote(B$1,$A44)</f>
         <v>AverageDailyVolume3Month</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <f>+_xll.YahooQuote(C$1,$B44)</f>
-        <v>22991768</v>
-      </c>
-      <c r="D44" s="8">
+        <v>25630921</v>
+      </c>
+      <c r="D44" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2686,21 +2682,21 @@
         <f>+_xll.YahooQuote(B$1,$A45)</f>
         <v>PreMarketTimeSeconds</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <f>+_xll.YahooQuote(C$1,$B45)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E45" s="11" t="str" cm="1">
+        <v>1706267378</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="10" cm="1">
         <f t="array" ref="E45">_xll.UnixSecondsToDateTime(C45,C$57)</f>
-        <v>Invalid unixSeconds.</v>
-      </c>
-      <c r="F45" s="12" t="str">
+        <v>45317.256689814814</v>
+      </c>
+      <c r="F45" s="11">
         <f>E45</f>
-        <v>Invalid unixSeconds.</v>
+        <v>45317.256689814814</v>
       </c>
       <c r="G45" t="s">
         <v>22</v>
@@ -2715,16 +2711,16 @@
         <f>+_xll.YahooQuote(B$1,$A46)</f>
         <v>PreMarketPrice</v>
       </c>
-      <c r="C46" s="8" t="str">
+      <c r="C46" s="7">
         <f>+_xll.YahooQuote(C$1,$B46)</f>
-        <v/>
-      </c>
-      <c r="D46" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+        <v>403.09</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -2735,16 +2731,16 @@
         <f>+_xll.YahooQuote(B$1,$A47)</f>
         <v>PreMarketChange</v>
       </c>
-      <c r="C47" s="8" t="str">
+      <c r="C47" s="7">
         <f>+_xll.YahooQuote(C$1,$B47)</f>
-        <v/>
-      </c>
-      <c r="D47" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+        <v>-1.7799988</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
@@ -2755,13 +2751,13 @@
         <f>+_xll.YahooQuote(B$1,$A48)</f>
         <v>PreMarketChangePercent</v>
       </c>
-      <c r="C48" s="8" t="str">
+      <c r="C48" s="7">
         <f>+_xll.YahooQuote(C$1,$B48)</f>
-        <v/>
-      </c>
-      <c r="D48" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-0.43964700000000001</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2773,19 +2769,19 @@
         <f>+_xll.YahooQuote(B$1,$A49)</f>
         <v>PostMarketTimeSeconds</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <f>+_xll.YahooQuote(C$1,$B49)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E49" s="11" t="str" cm="1">
+      <c r="D49" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="10" t="str" cm="1">
         <f t="array" ref="E49">_xll.UnixSecondsToDateTime(C49,C$57)</f>
         <v>Invalid unixSeconds.</v>
       </c>
-      <c r="F49" s="12" t="str">
+      <c r="F49" s="11" t="str">
         <f>E49</f>
         <v>Invalid unixSeconds.</v>
       </c>
@@ -2802,11 +2798,11 @@
         <f>+_xll.YahooQuote(B$1,$A50)</f>
         <v>PostMarketPrice</v>
       </c>
-      <c r="C50" s="8" t="str">
+      <c r="C50" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B50)</f>
         <v/>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2820,19 +2816,19 @@
         <f>+_xll.YahooQuote(B$1,$A51)</f>
         <v>PostMarketChange</v>
       </c>
-      <c r="C51" s="8" t="str">
+      <c r="C51" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B51)</f>
         <v/>
       </c>
-      <c r="D51" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E51" s="11" t="str">
+      <c r="D51" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E51" s="10" t="str">
         <f>+C51</f>
         <v/>
       </c>
-      <c r="F51" s="11"/>
+      <c r="F51" s="10"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
@@ -2843,16 +2839,16 @@
         <f>+_xll.YahooQuote(B$1,$A52)</f>
         <v>PostMarketChangePercent</v>
       </c>
-      <c r="C52" s="8" t="str">
+      <c r="C52" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B52)</f>
         <v/>
       </c>
-      <c r="D52" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
+      <c r="D52" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
@@ -2863,11 +2859,11 @@
         <f>+_xll.YahooQuote(B$1,$A53)</f>
         <v>Exchange</v>
       </c>
-      <c r="C53" s="8" t="str">
+      <c r="C53" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B53)</f>
         <v>NMS</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2881,11 +2877,11 @@
         <f>+_xll.YahooQuote(B$1,$A54)</f>
         <v>FullExchangeName</v>
       </c>
-      <c r="C54" s="8" t="str">
+      <c r="C54" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B54)</f>
         <v>NasdaqGS</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2899,11 +2895,11 @@
         <f>+_xll.YahooQuote(B$1,$A55)</f>
         <v>ExchangeDataDelayedBy</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <f>+_xll.YahooQuote(C$1,$B55)</f>
         <v>0</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2917,11 +2913,11 @@
         <f>+_xll.YahooQuote(B$1,$A56)</f>
         <v>GmtOffSetMilliseconds</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <f>+_xll.YahooQuote(C$1,$B56)</f>
         <v>-18000000</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2935,11 +2931,11 @@
         <f>+_xll.YahooQuote(B$1,$A57)</f>
         <v>ExchangeTimezoneName</v>
       </c>
-      <c r="C57" s="8" t="str">
+      <c r="C57" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B57)</f>
         <v>America/New_York</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2953,11 +2949,11 @@
         <f>+_xll.YahooQuote(B$1,$A58)</f>
         <v>ExchangeTimezoneShortName</v>
       </c>
-      <c r="C58" s="8" t="str">
+      <c r="C58" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B58)</f>
         <v>EST</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -2971,19 +2967,19 @@
         <f>+_xll.YahooQuote(B$1,$A59)</f>
         <v>FirstTradeDateMilliseconds</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <f>+_xll.YahooQuote(C$1,$B59)</f>
         <v>511108200000</v>
       </c>
-      <c r="D59" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E59" s="11" cm="1">
+      <c r="D59" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="10" cm="1">
         <f t="array" ref="E59">_xll.UnixMillisecondsToDateTime(C59,C$57)</f>
         <v>31484.395833333332</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <f t="shared" ref="F59:F60" si="2">E59</f>
         <v>31484.395833333332</v>
       </c>
@@ -3000,21 +2996,21 @@
         <f>+_xll.YahooQuote(B$1,$A60)</f>
         <v>DividendDateSeconds</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <f>+_xll.YahooQuote(C$1,$B60)</f>
-        <v>1702512000</v>
-      </c>
-      <c r="D60" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E60" s="11" cm="1">
+        <v>1710374400</v>
+      </c>
+      <c r="D60" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="10" cm="1">
         <f t="array" ref="E60">_xll.UnixSecondsToDateTime(C60,"UTC")</f>
-        <v>45274</v>
-      </c>
-      <c r="F60" s="12">
+        <v>45365</v>
+      </c>
+      <c r="F60" s="11">
         <f t="shared" si="2"/>
-        <v>45274</v>
+        <v>45365</v>
       </c>
       <c r="G60" t="s">
         <v>24</v>
@@ -3029,16 +3025,16 @@
         <f>+_xll.YahooQuote(B$1,$A61)</f>
         <v>DividendRate</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <f>+_xll.YahooQuote(C$1,$B61)</f>
         <v>3</v>
       </c>
-      <c r="D61" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
+      <c r="D61" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
@@ -3049,16 +3045,16 @@
         <f>+_xll.YahooQuote(B$1,$A62)</f>
         <v>TrailingAnnualDividendRate</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <f>+_xll.YahooQuote(C$1,$B62)</f>
         <v>2.79</v>
       </c>
-      <c r="D62" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+      <c r="D62" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
@@ -3069,11 +3065,11 @@
         <f>+_xll.YahooQuote(B$1,$A63)</f>
         <v>DividendYield</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <f>+_xll.YahooQuote(C$1,$B63)</f>
-        <v>0.8</v>
-      </c>
-      <c r="D63" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="D63" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3087,11 +3083,11 @@
         <f>+_xll.YahooQuote(B$1,$A64)</f>
         <v>TrailingAnnualDividendYield</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <f>+_xll.YahooQuote(C$1,$B64)</f>
-        <v>7.4168589999999996E-3</v>
-      </c>
-      <c r="D64" s="8">
+        <v>6.9306437E-3</v>
+      </c>
+      <c r="D64" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3105,11 +3101,11 @@
         <f>+_xll.YahooQuote(B$1,$A65)</f>
         <v>PriceEpsCurrentYear</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <f>+_xll.YahooQuote(C$1,$B65)</f>
-        <v>35.747104999999998</v>
-      </c>
-      <c r="D65" s="8">
+        <v>35.924576000000002</v>
+      </c>
+      <c r="D65" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3123,11 +3119,11 @@
         <f>+_xll.YahooQuote(B$1,$A66)</f>
         <v>EpsCurrentYear</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <f>+_xll.YahooQuote(C$1,$B66)</f>
-        <v>10.36</v>
-      </c>
-      <c r="D66" s="8">
+        <v>11.27</v>
+      </c>
+      <c r="D66" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3141,11 +3137,11 @@
         <f>+_xll.YahooQuote(B$1,$A67)</f>
         <v>EpsForward</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <f>+_xll.YahooQuote(C$1,$B67)</f>
-        <v>11.93</v>
-      </c>
-      <c r="D67" s="8">
+        <v>12.98</v>
+      </c>
+      <c r="D67" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3159,11 +3155,11 @@
         <f>+_xll.YahooQuote(B$1,$A68)</f>
         <v>EpsTrailingTwelveMonths</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <f>+_xll.YahooQuote(C$1,$B68)</f>
-        <v>10.31</v>
-      </c>
-      <c r="D68" s="8">
+        <v>10.32</v>
+      </c>
+      <c r="D68" s="7">
         <f t="shared" ref="D68:D101" si="3">TYPE(C68)</f>
         <v>1</v>
       </c>
@@ -3177,21 +3173,21 @@
         <f>+_xll.YahooQuote(B$1,$A69)</f>
         <v>EarningsTimestamp</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <f>+_xll.YahooQuote(C$1,$B69)</f>
-        <v>1698183000</v>
-      </c>
-      <c r="D69" s="8">
+        <v>1706648400</v>
+      </c>
+      <c r="D69" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E69" s="11" cm="1">
+      <c r="E69" s="10" cm="1">
         <f t="array" ref="E69">_xll.UnixSecondsToDateTime(C69,$C$57)</f>
-        <v>45223.729166666664</v>
-      </c>
-      <c r="F69" s="12">
+        <v>45321.666666666664</v>
+      </c>
+      <c r="F69" s="11">
         <f t="shared" ref="F69:F73" si="5">E69</f>
-        <v>45223.729166666664</v>
+        <v>45321.666666666664</v>
       </c>
       <c r="G69" t="s">
         <v>23</v>
@@ -3206,21 +3202,21 @@
         <f>+_xll.YahooQuote(B$1,$A70)</f>
         <v>EarningsTimestampStart</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <f>+_xll.YahooQuote(C$1,$B70)</f>
-        <v>1705921140</v>
-      </c>
-      <c r="D70" s="8">
+        <v>1706648400</v>
+      </c>
+      <c r="D70" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E70" s="11" cm="1">
+      <c r="E70" s="10" cm="1">
         <f t="array" ref="E70">_xll.UnixSecondsToDateTime(C70,$C$57)</f>
-        <v>45313.249305555553</v>
-      </c>
-      <c r="F70" s="12">
+        <v>45321.666666666664</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="5"/>
-        <v>45313.249305555553</v>
+        <v>45321.666666666664</v>
       </c>
       <c r="G70" t="s">
         <v>23</v>
@@ -3235,21 +3231,21 @@
         <f>+_xll.YahooQuote(B$1,$A71)</f>
         <v>EarningsTimestampEnd</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <f>+_xll.YahooQuote(C$1,$B71)</f>
-        <v>1706270400</v>
-      </c>
-      <c r="D71" s="8">
+        <v>1706648400</v>
+      </c>
+      <c r="D71" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E71" s="11" cm="1">
+      <c r="E71" s="10" cm="1">
         <f t="array" ref="E71">_xll.UnixSecondsToDateTime(C71,$C$57)</f>
-        <v>45317.291666666664</v>
-      </c>
-      <c r="F71" s="12">
+        <v>45321.666666666664</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="5"/>
-        <v>45317.291666666664</v>
+        <v>45321.666666666664</v>
       </c>
       <c r="G71" t="s">
         <v>23</v>
@@ -3264,11 +3260,11 @@
         <f>+_xll.YahooQuote(B$1,$A72)</f>
         <v>ExpireIsoDate</v>
       </c>
-      <c r="C72" s="8" t="str">
+      <c r="C72" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B72)</f>
         <v/>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3285,19 +3281,19 @@
         <f>+_xll.YahooQuote(B$1,$A73)</f>
         <v>ExpireDateSeconds</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <f>+_xll.YahooQuote(C$1,$B73)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E73" s="11" t="str" cm="1">
+      <c r="E73" s="10" t="str" cm="1">
         <f t="array" ref="E73">_xll.UnixSecondsToDateTime(C73,"UTC")</f>
         <v>Invalid unixSeconds.</v>
       </c>
-      <c r="F73" s="12" t="str">
+      <c r="F73" s="11" t="str">
         <f t="shared" si="5"/>
         <v>Invalid unixSeconds.</v>
       </c>
@@ -3314,11 +3310,11 @@
         <f>+_xll.YahooQuote(B$1,$A74)</f>
         <v>BookValue</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <f>+_xll.YahooQuote(C$1,$B74)</f>
         <v>29.702000000000002</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3332,19 +3328,19 @@
         <f>+_xll.YahooQuote(B$1,$A75)</f>
         <v>NetAssets</v>
       </c>
-      <c r="C75" s="8" t="str">
+      <c r="C75" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B75)</f>
         <v/>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E75" s="11" t="str">
+      <c r="E75" s="10" t="str">
         <f>+C75</f>
         <v/>
       </c>
-      <c r="F75" s="11"/>
+      <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
@@ -3355,16 +3351,16 @@
         <f>+_xll.YahooQuote(B$1,$A76)</f>
         <v>TrailingPE</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <f>+_xll.YahooQuote(C$1,$B76)</f>
-        <v>35.920464000000003</v>
-      </c>
-      <c r="D76" s="8">
+        <v>39.231589999999997</v>
+      </c>
+      <c r="D76" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
@@ -3375,16 +3371,16 @@
         <f>+_xll.YahooQuote(B$1,$A77)</f>
         <v>ForwardPE</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <f>+_xll.YahooQuote(C$1,$B77)</f>
-        <v>31.042746999999999</v>
-      </c>
-      <c r="D77" s="8">
+        <v>31.191832999999999</v>
+      </c>
+      <c r="D77" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
@@ -3395,16 +3391,16 @@
         <f>+_xll.YahooQuote(B$1,$A78)</f>
         <v>PriceToBook</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <f>+_xll.YahooQuote(C$1,$B78)</f>
-        <v>12.468521000000001</v>
-      </c>
-      <c r="D78" s="8">
+        <v>13.631068000000001</v>
+      </c>
+      <c r="D78" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
@@ -3415,16 +3411,16 @@
         <f>+_xll.YahooQuote(B$1,$A79)</f>
         <v>NetExpenseRatio</v>
       </c>
-      <c r="C79" s="8" t="str">
+      <c r="C79" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B79)</f>
         <v/>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
@@ -3435,16 +3431,16 @@
         <f>+_xll.YahooQuote(B$1,$A80)</f>
         <v>TrailingThreeMonthNavReturns</v>
       </c>
-      <c r="C80" s="8" t="str">
+      <c r="C80" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B80)</f>
         <v/>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
@@ -3455,11 +3451,11 @@
         <f>+_xll.YahooQuote(B$1,$A81)</f>
         <v>TrailingThreeMonthReturns</v>
       </c>
-      <c r="C81" s="8" t="str">
+      <c r="C81" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B81)</f>
         <v/>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3473,11 +3469,11 @@
         <f>+_xll.YahooQuote(B$1,$A82)</f>
         <v>YtdReturn</v>
       </c>
-      <c r="C82" s="8" t="str">
+      <c r="C82" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B82)</f>
         <v/>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3491,11 +3487,11 @@
         <f>+_xll.YahooQuote(B$1,$A83)</f>
         <v>FiftyDayAverage</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="7">
         <f>+_xll.YahooQuote(C$1,$B83)</f>
-        <v>335.46339999999998</v>
-      </c>
-      <c r="D83" s="8">
+        <v>377.75380000000001</v>
+      </c>
+      <c r="D83" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3509,11 +3505,11 @@
         <f>+_xll.YahooQuote(B$1,$A84)</f>
         <v>FiftyDayAverageChange</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <f>+_xll.YahooQuote(C$1,$B84)</f>
-        <v>34.876587000000001</v>
-      </c>
-      <c r="D84" s="8">
+        <v>27.11618</v>
+      </c>
+      <c r="D84" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3527,11 +3523,11 @@
         <f>+_xll.YahooQuote(B$1,$A85)</f>
         <v>FiftyDayAverageChangePercent</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <f>+_xll.YahooQuote(C$1,$B85)</f>
-        <v>0.1039654</v>
-      </c>
-      <c r="D85" s="8">
+        <v>7.1782680000000001E-2</v>
+      </c>
+      <c r="D85" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3545,11 +3541,11 @@
         <f>+_xll.YahooQuote(B$1,$A86)</f>
         <v>TwoHundredDayAverage</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7">
         <f>+_xll.YahooQuote(C$1,$B86)</f>
-        <v>313.21555000000001</v>
-      </c>
-      <c r="D86" s="8">
+        <v>338.95844</v>
+      </c>
+      <c r="D86" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3563,11 +3559,11 @@
         <f>+_xll.YahooQuote(B$1,$A87)</f>
         <v>TwoHundredDayAverageChange</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="7">
         <f>+_xll.YahooQuote(C$1,$B87)</f>
-        <v>57.124450000000003</v>
-      </c>
-      <c r="D87" s="8">
+        <v>65.911559999999994</v>
+      </c>
+      <c r="D87" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3581,11 +3577,11 @@
         <f>+_xll.YahooQuote(B$1,$A88)</f>
         <v>TwoHundredDayAverageChangePercent</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="7">
         <f>+_xll.YahooQuote(C$1,$B88)</f>
-        <v>0.18238062999999999</v>
-      </c>
-      <c r="D88" s="8">
+        <v>0.19445322000000001</v>
+      </c>
+      <c r="D88" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3599,11 +3595,11 @@
         <f>+_xll.YahooQuote(B$1,$A89)</f>
         <v>FiftyTwoWeekChangePercent</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="7">
         <f>+_xll.YahooQuote(C$1,$B89)</f>
-        <v>55.944780000000002</v>
-      </c>
-      <c r="D89" s="8">
+        <v>63.148772999999998</v>
+      </c>
+      <c r="D89" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3617,11 +3613,11 @@
         <f>+_xll.YahooQuote(B$1,$A90)</f>
         <v>FiftyTwoWeekHigh</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="7">
         <f>+_xll.YahooQuote(C$1,$B90)</f>
-        <v>376.35</v>
-      </c>
-      <c r="D90" s="8">
+        <v>407.01</v>
+      </c>
+      <c r="D90" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3635,11 +3631,11 @@
         <f>+_xll.YahooQuote(B$1,$A91)</f>
         <v>FiftyTwoWeekHighChange</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="7">
         <f>+_xll.YahooQuote(C$1,$B91)</f>
-        <v>-6.0100100000000003</v>
-      </c>
-      <c r="D91" s="8">
+        <v>-2.1400146000000002</v>
+      </c>
+      <c r="D91" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3653,11 +3649,11 @@
         <f>+_xll.YahooQuote(B$1,$A92)</f>
         <v>FiftyTwoWeekHighChangePercent</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="7">
         <f>+_xll.YahooQuote(C$1,$B92)</f>
-        <v>-1.5969204000000001E-2</v>
-      </c>
-      <c r="D92" s="8">
+        <v>-5.2578920000000001E-3</v>
+      </c>
+      <c r="D92" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3671,11 +3667,11 @@
         <f>+_xll.YahooQuote(B$1,$A93)</f>
         <v>FiftyTwoWeekLow</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="7">
         <f>+_xll.YahooQuote(C$1,$B93)</f>
-        <v>219.35</v>
-      </c>
-      <c r="D93" s="8">
+        <v>242.2</v>
+      </c>
+      <c r="D93" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3689,11 +3685,11 @@
         <f>+_xll.YahooQuote(B$1,$A94)</f>
         <v>FiftyTwoWeekLowChange</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="7">
         <f>+_xll.YahooQuote(C$1,$B94)</f>
-        <v>150.98999000000001</v>
-      </c>
-      <c r="D94" s="8">
+        <v>162.66999999999999</v>
+      </c>
+      <c r="D94" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3707,11 +3703,11 @@
         <f>+_xll.YahooQuote(B$1,$A95)</f>
         <v>FiftyTwoWeekLowChangePercent</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="7">
         <f>+_xll.YahooQuote(C$1,$B95)</f>
-        <v>0.68835186999999998</v>
-      </c>
-      <c r="D95" s="8">
+        <v>0.67163503000000002</v>
+      </c>
+      <c r="D95" s="7">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3725,11 +3721,11 @@
         <f>+_xll.YahooQuote(B$1,$A96)</f>
         <v>FiftyTwoWeekRange</v>
       </c>
-      <c r="C96" s="8" t="str">
+      <c r="C96" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B96)</f>
-        <v>219.35 - 376.35</v>
-      </c>
-      <c r="D96" s="8">
+        <v>242.2 - 407.01</v>
+      </c>
+      <c r="D96" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3743,11 +3739,11 @@
         <f>+_xll.YahooQuote(B$1,$A97)</f>
         <v>AverageAnalystRating</v>
       </c>
-      <c r="C97" s="8" t="str">
+      <c r="C97" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B97)</f>
         <v>1.7 - Buy</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3761,11 +3757,11 @@
         <f>+_xll.YahooQuote(B$1,$A98)</f>
         <v>CustomPriceAlertConfidence</v>
       </c>
-      <c r="C98" s="8" t="str">
+      <c r="C98" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B98)</f>
         <v>HIGH</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3779,11 +3775,11 @@
         <f>+_xll.YahooQuote(B$1,$A99)</f>
         <v>YahooXL: Invalid propery index.</v>
       </c>
-      <c r="C99" s="8" t="str">
+      <c r="C99" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B99)</f>
         <v>YahooXL: Unknown propery.</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3797,11 +3793,11 @@
         <f>+_xll.YahooQuote(B$1,$A100)</f>
         <v>YahooXL: Invalid propery index.</v>
       </c>
-      <c r="C100" s="8" t="str">
+      <c r="C100" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B100)</f>
         <v>YahooXL: Unknown propery.</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3815,11 +3811,11 @@
         <f>+_xll.YahooQuote(B$1,$A101)</f>
         <v>YahooXL: Invalid propery index.</v>
       </c>
-      <c r="C101" s="8" t="str">
+      <c r="C101" s="7" t="str">
         <f>+_xll.YahooQuote(C$1,$B101)</f>
         <v>YahooXL: Unknown propery.</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3832,10 +3828,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC0A5A9-4647-4C7E-A8C9-53414205A4D9}">
-  <dimension ref="A2:K15"/>
+  <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3843,9 +3839,9 @@
     <col min="1" max="1" width="10.81640625" customWidth="1"/>
     <col min="2" max="2" width="36.36328125" customWidth="1"/>
     <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" style="15" customWidth="1"/>
     <col min="9" max="9" width="19.36328125" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
     <col min="11" max="11" width="26.54296875" customWidth="1"/>
@@ -3867,13 +3863,13 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -3906,27 +3902,27 @@
         <f>_xll.YahooQuote($A3,E$2)</f>
         <v>EQUITY</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="13">
         <f>_xll.YahooQuote($A3,F$2)</f>
-        <v>234.625</v>
-      </c>
-      <c r="G3" s="5">
+        <v>182.63</v>
+      </c>
+      <c r="G3" s="15">
         <f>_xll.YahooQuote($A3,G$2)</f>
-        <v>232.5</v>
-      </c>
-      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
         <f>_xll.YahooQuote($A3,H$2)</f>
-        <v>232.35</v>
-      </c>
-      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <f>_xll.YahooQuote($A3,I$2)</f>
-        <v>745854074880</v>
-      </c>
-      <c r="J3" s="6">
+        <v>580566188032</v>
+      </c>
+      <c r="J3" s="5">
         <f>_xll.YahooQuote($A3,J$2)*F3</f>
-        <v>13329739332.25</v>
-      </c>
-      <c r="K3" s="7">
+        <v>35819332756.409996</v>
+      </c>
+      <c r="K3" s="6">
         <f>_xll.YahooQuote($A3,K$2)</f>
         <v>0</v>
       </c>
@@ -3951,29 +3947,29 @@
         <f>_xll.YahooQuote($A4,E$2)</f>
         <v>ETF</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="13">
         <f>_xll.YahooQuote($A4,F$2)</f>
-        <v>450.13</v>
-      </c>
-      <c r="G4" s="5">
+        <v>488.03</v>
+      </c>
+      <c r="G4" s="15">
         <f>_xll.YahooQuote($A4,G$2)</f>
-        <v>450.08</v>
-      </c>
-      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
         <f>_xll.YahooQuote($A4,H$2)</f>
-        <v>450.09</v>
-      </c>
-      <c r="I4" s="6">
+        <v>486.93</v>
+      </c>
+      <c r="I4" s="5">
         <f>_xll.YahooQuote($A4,I$2)</f>
-        <v>413121216512</v>
-      </c>
-      <c r="J4" s="6">
+        <v>447905169408</v>
+      </c>
+      <c r="J4" s="5">
         <f>_xll.YahooQuote($A4,J$2)*F4</f>
-        <v>7922659807.3800001</v>
-      </c>
-      <c r="K4" s="7">
+        <v>35231472312.059998</v>
+      </c>
+      <c r="K4" s="6">
         <f>_xll.YahooQuote($A4,K$2)</f>
-        <v>1.2575795000000001E-2</v>
+        <v>1.1664847000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3996,29 +3992,29 @@
         <f>_xll.YahooQuote($A5,E$2)</f>
         <v>ETF</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="13">
         <f>_xll.YahooQuote($A5,F$2)</f>
-        <v>30.94</v>
-      </c>
-      <c r="G5" s="5">
+        <v>32.26</v>
+      </c>
+      <c r="G5" s="15">
         <f>_xll.YahooQuote($A5,G$2)</f>
-        <v>30.93</v>
-      </c>
-      <c r="H5" s="5">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="H5" s="15">
         <f>_xll.YahooQuote($A5,H$2)</f>
-        <v>30.94</v>
-      </c>
-      <c r="I5" s="6">
+        <v>32.26</v>
+      </c>
+      <c r="I5" s="5">
         <f>_xll.YahooQuote($A5,I$2)</f>
-        <v>10903256064</v>
-      </c>
-      <c r="J5" s="6">
+        <v>11368423424</v>
+      </c>
+      <c r="J5" s="5">
         <f>_xll.YahooQuote($A5,J$2)*F5</f>
-        <v>20096829.48</v>
-      </c>
-      <c r="K5" s="7">
+        <v>42114946.099999994</v>
+      </c>
+      <c r="K5" s="6">
         <f>_xll.YahooQuote($A5,K$2)</f>
-        <v>1.9531251999999999E-2</v>
+        <v>1.8662519999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -4041,27 +4037,27 @@
         <f>_xll.YahooQuote($A6,E$2)</f>
         <v>ETF</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="13">
         <f>_xll.YahooQuote($A6,F$2)</f>
-        <v>2496.5</v>
-      </c>
-      <c r="G6" s="5">
+        <v>2612</v>
+      </c>
+      <c r="G6" s="15">
         <f>_xll.YahooQuote($A6,G$2)</f>
-        <v>2496</v>
-      </c>
-      <c r="H6" s="5">
+        <v>2612</v>
+      </c>
+      <c r="H6" s="15">
         <f>_xll.YahooQuote($A6,H$2)</f>
-        <v>2497</v>
-      </c>
-      <c r="I6" s="6" t="str">
+        <v>2614</v>
+      </c>
+      <c r="I6" s="5" t="str">
         <f>_xll.YahooQuote($A6,I$2)</f>
         <v/>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>_xll.YahooQuote($A6,J$2)*F6</f>
-        <v>3270539825</v>
-      </c>
-      <c r="K6" s="7" t="str">
+        <v>4613758440</v>
+      </c>
+      <c r="K6" s="6" t="str">
         <f>_xll.YahooQuote($A6,K$2)</f>
         <v/>
       </c>
@@ -4086,27 +4082,27 @@
         <f>_xll.YahooQuote($A7,E$2)</f>
         <v>FUTURE</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="13">
         <f>_xll.YahooQuote($A7,F$2)</f>
-        <v>75.02</v>
-      </c>
-      <c r="G7" s="5">
+        <v>76.7</v>
+      </c>
+      <c r="G7" s="15">
         <f>_xll.YahooQuote($A7,G$2)</f>
-        <v>75.040000000000006</v>
-      </c>
-      <c r="H7" s="5">
+        <v>76.69</v>
+      </c>
+      <c r="H7" s="15">
         <f>_xll.YahooQuote($A7,H$2)</f>
-        <v>75.040000000000006</v>
-      </c>
-      <c r="I7" s="6" t="str">
+        <v>76.7</v>
+      </c>
+      <c r="I7" s="5" t="str">
         <f>_xll.YahooQuote($A7,I$2)</f>
         <v/>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f>_xll.YahooQuote($A7,J$2)*F7</f>
-        <v>1878950.92</v>
-      </c>
-      <c r="K7" s="7" t="str">
+        <v>4180686.9000000004</v>
+      </c>
+      <c r="K7" s="6" t="str">
         <f>_xll.YahooQuote($A7,K$2)</f>
         <v/>
       </c>
@@ -4131,69 +4127,39 @@
         <f>_xll.YahooQuote($A8,E$2)</f>
         <v>CURRENCY</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="13">
         <f>_xll.YahooQuote($A8,F$2)</f>
-        <v>1.0889688</v>
-      </c>
-      <c r="G8" s="5">
+        <v>1.0870746</v>
+      </c>
+      <c r="G8" s="15">
         <f>_xll.YahooQuote($A8,G$2)</f>
-        <v>1.0889688</v>
-      </c>
-      <c r="H8" s="5">
+        <v>1.0870746</v>
+      </c>
+      <c r="H8" s="15">
         <f>_xll.YahooQuote($A8,H$2)</f>
-        <v>1.0883761999999999</v>
-      </c>
-      <c r="I8" s="6" t="str">
+        <v>1.0864841000000001</v>
+      </c>
+      <c r="I8" s="5" t="str">
         <f>_xll.YahooQuote($A8,I$2)</f>
         <v/>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f>_xll.YahooQuote($A8,J$2)*F8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="str">
+      <c r="K8" s="6" t="str">
         <f>_xll.YahooQuote($A8,K$2)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
-        <v>1.0708932</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1.0703199999999999</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G10" s="5">
-        <f>+G8-G9</f>
-        <v>1.8075599999999969E-2</v>
-      </c>
-      <c r="H10" s="5">
-        <f>+H8-H9</f>
-        <v>1.8056199999999967E-2</v>
-      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G15" s="5"/>
+      <c r="I11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
